--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD17"/>
+  <dimension ref="A1:BD15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>02:03</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -947,10 +947,10 @@
         <v>2.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>
@@ -959,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K5" t="n">
         <v>2.25</v>
@@ -1311,10 +1311,10 @@
         <v>4.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -1335,10 +1335,10 @@
         <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V5" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
@@ -1350,13 +1350,13 @@
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA5" t="n">
         <v>13</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
         <v>11</v>
@@ -1371,7 +1371,7 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
         <v>13</v>
@@ -1419,7 +1419,7 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX5" t="n">
         <v>23</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H6" t="n">
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="J6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K6" t="n">
         <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1532,7 +1532,7 @@
         <v>15</v>
       </c>
       <c r="Z6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA6" t="n">
         <v>34</v>
@@ -1550,7 +1550,7 @@
         <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
         <v>201</v>
@@ -1559,7 +1559,7 @@
         <v>7.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ6" t="n">
         <v>8.5</v>
@@ -1586,7 +1586,7 @@
         <v>81</v>
       </c>
       <c r="AR6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS6" t="n">
         <v>201</v>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
@@ -1839,10 +1839,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
         <v>2.8</v>
@@ -1938,7 +1938,7 @@
         <v>23</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO8" t="n">
         <v>12</v>
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H11" t="n">
         <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J11" t="n">
         <v>3.75</v>
@@ -2400,7 +2400,7 @@
         <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -2457,7 +2457,7 @@
         <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
         <v>51</v>
@@ -2469,13 +2469,13 @@
         <v>7</v>
       </c>
       <c r="AI11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>10</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL11" t="n">
         <v>21</v>
@@ -2487,16 +2487,16 @@
         <v>5</v>
       </c>
       <c r="AO11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP11" t="n">
         <v>29</v>
       </c>
       <c r="AQ11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS11" t="n">
         <v>251</v>
@@ -2520,7 +2520,7 @@
         <v>26</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
         <v>67</v>
@@ -2779,10 +2779,10 @@
         <v>3.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AmNNDPck</t>
+          <t>KOPWLqP9</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,41 +2912,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00:05</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Pohang</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>U.A.N.L.- Tigres</t>
+          <t>Gimcheon Sangmu</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="J14" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2955,16 +2955,16 @@
         <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R14" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S14" t="n">
         <v>1.4</v>
@@ -2973,25 +2973,25 @@
         <v>2.75</v>
       </c>
       <c r="U14" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="V14" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="X14" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z14" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AA14" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB14" t="n">
         <v>29</v>
@@ -3000,49 +3000,49 @@
         <v>10</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH14" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AM14" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="AO14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AP14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ14" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS14" t="n">
         <v>151</v>
@@ -3051,40 +3051,40 @@
         <v>2.75</v>
       </c>
       <c r="AU14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV14" t="n">
         <v>51</v>
       </c>
       <c r="AW14" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="AX14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY14" t="n">
         <v>23</v>
       </c>
-      <c r="AY14" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ14" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BA14" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB14" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC14" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="BD14" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>zXqjwQwS</t>
+          <t>CbMON5fc</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,536 +3094,172 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>00:05</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Celaya</t>
+          <t>Seoul</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Venados</t>
+          <t>Ulsan HD</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="H15" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>4.3</v>
+        <v>2.88</v>
       </c>
       <c r="J15" t="n">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N15" t="n">
+        <v>9</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W15" t="n">
+        <v>8</v>
+      </c>
+      <c r="X15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN15" t="n">
         <v>4.5</v>
       </c>
-      <c r="M15" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N15" t="n">
-        <v>11</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W15" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="X15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y15" t="n">
+      <c r="AO15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU15" t="n">
         <v>8</v>
       </c>
-      <c r="Z15" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI15" t="n">
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY15" t="n">
         <v>26</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>37</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>27</v>
-      </c>
       <c r="AZ15" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="BA15" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="BB15" t="n">
-        <v>350</v>
+        <v>201</v>
       </c>
       <c r="BC15" t="n">
         <v>51</v>
       </c>
       <c r="BD15" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>KOPWLqP9</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>10/11/2024</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>02:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Pohang</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Gimcheon Sangmu</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N16" t="n">
-        <v>10</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2</v>
-      </c>
-      <c r="W16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X16" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>CbMON5fc</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>10/11/2024</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>02:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Seoul</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Ulsan HD</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N17" t="n">
-        <v>10</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W17" t="n">
-        <v>8</v>
-      </c>
-      <c r="X17" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD17" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD15"/>
+  <dimension ref="A1:BD16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J2" t="n">
         <v>2.88</v>
@@ -765,28 +765,28 @@
         <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U2" t="n">
         <v>1.8</v>
@@ -798,7 +798,7 @@
         <v>7.5</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
@@ -849,7 +849,7 @@
         <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
@@ -864,7 +864,7 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
@@ -876,10 +876,10 @@
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ2" t="n">
         <v>51</v>
@@ -932,37 +932,37 @@
         <v>4.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J3" t="n">
         <v>4.75</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -971,13 +971,13 @@
         <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X3" t="n">
         <v>21</v>
@@ -989,13 +989,13 @@
         <v>41</v>
       </c>
       <c r="AA3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
@@ -1004,19 +1004,19 @@
         <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK3" t="n">
         <v>15</v>
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="AM3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN3" t="n">
         <v>6</v>
@@ -1040,10 +1040,10 @@
         <v>81</v>
       </c>
       <c r="AR3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT3" t="n">
         <v>2.63</v>
@@ -1052,7 +1052,7 @@
         <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
         <v>3.75</v>
@@ -1061,16 +1061,16 @@
         <v>10</v>
       </c>
       <c r="AY3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA3" t="n">
         <v>51</v>
       </c>
       <c r="BB3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC3" t="n">
         <v>81</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8ddQgMlT</t>
+          <t>fqokIiB4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,41 +1092,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>JAPAN - J2 LEAGUE</t>
+          <t>JAPAN - J1 LEAGUE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Blaublitz</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fujieda MYFC</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="J4" t="n">
-        <v>2.63</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1135,16 +1135,16 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.9</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.95</v>
       </c>
       <c r="S4" t="n">
         <v>1.36</v>
@@ -1153,79 +1153,79 @@
         <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X4" t="n">
-        <v>9.5</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
         <v>11</v>
       </c>
       <c r="AD4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN4" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM4" t="n">
+      <c r="AO4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP4" t="n">
         <v>34</v>
       </c>
-      <c r="AN4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AR4" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS4" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="AT4" t="n">
         <v>3</v>
@@ -1237,34 +1237,34 @@
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="AX4" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AZ4" t="n">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB4" t="n">
         <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hUXdl0Cj</t>
+          <t>8ddQgMlT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1284,31 +1284,31 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Iwaki</t>
+          <t>Blaublitz</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kusatsu</t>
+          <t>Fujieda MYFC</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="J5" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="K5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1323,10 +1323,10 @@
         <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S5" t="n">
         <v>1.36</v>
@@ -1341,67 +1341,67 @@
         <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X5" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA5" t="n">
         <v>15</v>
       </c>
-      <c r="AA5" t="n">
-        <v>13</v>
-      </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
         <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG5" t="n">
         <v>201</v>
       </c>
       <c r="AH5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>13</v>
       </c>
-      <c r="AI5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>15</v>
-      </c>
       <c r="AK5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM5" t="n">
         <v>34</v>
       </c>
-      <c r="AM5" t="n">
-        <v>41</v>
-      </c>
       <c r="AN5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1419,22 +1419,22 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA5" t="n">
         <v>81</v>
       </c>
-      <c r="BA5" t="n">
-        <v>101</v>
-      </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC5" t="n">
         <v>51</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>nmHa8L3M</t>
+          <t>hUXdl0Cj</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1466,31 +1466,31 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Iwaki</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Okayama</t>
+          <t>Kusatsu</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.5</v>
+        <v>1.73</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="J6" t="n">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="K6" t="n">
         <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>2.38</v>
+        <v>4.75</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1517,28 +1517,28 @@
         <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
         <v>13</v>
       </c>
-      <c r="X6" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>51</v>
-      </c>
       <c r="AA6" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AB6" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
@@ -1553,43 +1553,43 @@
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH6" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
-        <v>8.5</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AL6" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="AP6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>29</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>81</v>
-      </c>
       <c r="AR6" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT6" t="n">
         <v>3</v>
@@ -1601,22 +1601,22 @@
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>9.5</v>
+        <v>23</v>
       </c>
       <c r="AY6" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>KzQrC34c</t>
+          <t>nmHa8L3M</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,31 +1648,31 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Kofu</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mito</t>
+          <t>Okayama</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="J7" t="n">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
@@ -1687,10 +1687,10 @@
         <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R7" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
         <v>1.36</v>
@@ -1699,106 +1699,106 @@
         <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AA7" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="n">
         <v>11</v>
       </c>
       <c r="AD7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN7" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.33</v>
-      </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS7" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT7" t="n">
         <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="AX7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY7" t="n">
         <v>19</v>
       </c>
-      <c r="AY7" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EwZhktcp</t>
+          <t>KzQrC34c</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,121 +1830,121 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Montedio Yamagata</t>
+          <t>Kofu</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Chiba</t>
+          <t>Mito</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.62</v>
+        <v>1.88</v>
       </c>
       <c r="R8" t="n">
-        <v>2.25</v>
+        <v>1.98</v>
       </c>
       <c r="S8" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="T8" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="V8" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="W8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X8" t="n">
         <v>11</v>
       </c>
-      <c r="X8" t="n">
-        <v>13</v>
-      </c>
       <c r="Y8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="n">
         <v>17</v>
       </c>
       <c r="AB8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP8" t="n">
         <v>21</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>19</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
@@ -1953,37 +1953,37 @@
         <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BD8" t="n">
         <v>51</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EZIiAsZ9</t>
+          <t>EwZhktcp</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,160 +2012,160 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Renofa Yamaguchi</t>
+          <t>Montedio Yamagata</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Chiba</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>1.83</v>
+        <v>2.75</v>
       </c>
       <c r="J9" t="n">
-        <v>4.75</v>
+        <v>2.88</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="R9" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="S9" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="T9" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="V9" t="n">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="W9" t="n">
         <v>11</v>
       </c>
       <c r="X9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL9" t="n">
         <v>21</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AM9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX9" t="n">
         <v>15</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>10</v>
       </c>
       <c r="AY9" t="n">
         <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA9" t="n">
         <v>51</v>
       </c>
       <c r="BB9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC9" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BD9" t="n">
         <v>51</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2aFmBNJ3</t>
+          <t>EZIiAsZ9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,157 +2194,157 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Shimizu S-Pulse</t>
+          <t>Renofa Yamaguchi</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kumamoto</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.62</v>
+        <v>4.2</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J10" t="n">
         <v>4.75</v>
       </c>
-      <c r="J10" t="n">
-        <v>2.2</v>
-      </c>
       <c r="K10" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="R10" t="n">
-        <v>2.08</v>
+        <v>1.75</v>
       </c>
       <c r="S10" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X10" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI10" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AJ10" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB10" t="n">
+      <c r="AK10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO10" t="n">
         <v>23</v>
       </c>
-      <c r="AC10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN10" t="n">
+      <c r="AP10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
         <v>3.75</v>
       </c>
-      <c r="AO10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AX10" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AY10" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="BA10" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>tpRvDqki</t>
+          <t>2aFmBNJ3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,85 +2376,85 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Tochigi SC</t>
+          <t>Shimizu S-Pulse</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tokushima</t>
+          <t>Kumamoto</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.1</v>
+        <v>1.62</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.35</v>
+        <v>4.75</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="K11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>13</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V11" t="n">
         <v>2</v>
       </c>
-      <c r="L11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="W11" t="n">
         <v>8</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>8.5</v>
       </c>
-      <c r="X11" t="n">
-        <v>15</v>
-      </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AB11" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AC11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD11" t="n">
         <v>7.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>15</v>
@@ -2463,67 +2463,67 @@
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AK11" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AL11" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="AO11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP11" t="n">
         <v>17</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AQ11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY11" t="n">
         <v>29</v>
       </c>
-      <c r="AQ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AZ11" t="n">
         <v>81</v>
       </c>
-      <c r="AS11" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>51</v>
-      </c>
       <c r="BA11" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB11" t="n">
         <v>201</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8dIe91lG</t>
+          <t>tpRvDqki</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2558,160 +2558,160 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>V-Varen Nagasaki</t>
+          <t>Tochigi SC</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Tokushima</t>
         </is>
       </c>
       <c r="G12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8</v>
+      </c>
+      <c r="O12" t="n">
         <v>1.4</v>
       </c>
-      <c r="H12" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L12" t="n">
+      <c r="P12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD12" t="n">
         <v>6</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="AE12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL12" t="n">
         <v>21</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P12" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T12" t="n">
-        <v>4</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W12" t="n">
-        <v>10</v>
-      </c>
-      <c r="X12" t="n">
+      <c r="AM12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU12" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK12" t="n">
+      <c r="AV12" t="n">
         <v>67</v>
       </c>
-      <c r="AL12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>41</v>
-      </c>
       <c r="AW12" t="n">
-        <v>8</v>
+        <v>4.33</v>
       </c>
       <c r="AX12" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AY12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA12" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB12" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC12" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BD12" t="n">
         <v>51</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>fghMf2ZM</t>
+          <t>8dIe91lG</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2740,67 +2740,67 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Vegalta Sendai</t>
+          <t>V-Varen Nagasaki</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Oita Trinita</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="I13" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J13" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="K13" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="L13" t="n">
         <v>6</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
+        <v>21</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P13" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T13" t="n">
+        <v>4</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W13" t="n">
         <v>10</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W13" t="n">
-        <v>6.5</v>
-      </c>
       <c r="X13" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Y13" t="n">
         <v>8.5</v>
@@ -2809,31 +2809,31 @@
         <v>11</v>
       </c>
       <c r="AA13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AH13" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AJ13" t="n">
         <v>19</v>
@@ -2845,55 +2845,55 @@
         <v>41</v>
       </c>
       <c r="AM13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU13" t="n">
         <v>8</v>
       </c>
-      <c r="AP13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>9</v>
-      </c>
       <c r="AV13" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX13" t="n">
         <v>29</v>
       </c>
       <c r="AY13" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AZ13" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA13" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB13" t="n">
         <v>151</v>
       </c>
-      <c r="BB13" t="n">
-        <v>301</v>
-      </c>
       <c r="BC13" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BD13" t="n">
         <v>51</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>KOPWLqP9</t>
+          <t>fghMf2ZM</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2917,42 +2917,42 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>JAPAN - J2 LEAGUE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pohang</t>
+          <t>Vegalta Sendai</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Gimcheon Sangmu</t>
+          <t>Oita Trinita</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.8</v>
+        <v>1.57</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>2.45</v>
+        <v>6.25</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L14" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
         <v>1.29</v>
@@ -2961,10 +2961,10 @@
         <v>3.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S14" t="n">
         <v>1.4</v>
@@ -2973,76 +2973,76 @@
         <v>2.75</v>
       </c>
       <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.73</v>
       </c>
-      <c r="V14" t="n">
-        <v>2</v>
-      </c>
       <c r="W14" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Y14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z14" t="n">
         <v>11</v>
       </c>
-      <c r="Z14" t="n">
-        <v>29</v>
-      </c>
       <c r="AA14" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AB14" t="n">
         <v>29</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL14" t="n">
         <v>41</v>
       </c>
-      <c r="AG14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>19</v>
-      </c>
       <c r="AM14" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AP14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ14" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AR14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS14" t="n">
         <v>151</v>
@@ -3051,28 +3051,28 @@
         <v>2.75</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AV14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="AX14" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AY14" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AZ14" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BA14" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BB14" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BC14" t="n">
         <v>51</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CbMON5fc</t>
+          <t>KOPWLqP9</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3104,73 +3104,73 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Seoul</t>
+          <t>Pohang</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ulsan HD</t>
+          <t>Gimcheon Sangmu</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I15" t="n">
         <v>2.45</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.88</v>
-      </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
         <v>2.1</v>
       </c>
       <c r="L15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>11</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P15" t="n">
         <v>3.5</v>
       </c>
-      <c r="M15" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N15" t="n">
-        <v>9</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.25</v>
-      </c>
       <c r="Q15" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U15" t="n">
         <v>1.73</v>
       </c>
-      <c r="S15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.8</v>
-      </c>
       <c r="V15" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="X15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AA15" t="n">
         <v>21</v>
@@ -3179,40 +3179,40 @@
         <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH15" t="n">
         <v>8.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AK15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM15" t="n">
         <v>29</v>
       </c>
-      <c r="AL15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>34</v>
-      </c>
       <c r="AN15" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO15" t="n">
         <v>15</v>
@@ -3227,39 +3227,221 @@
         <v>67</v>
       </c>
       <c r="AS15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CbMON5fc</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Seoul</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Ulsan HD</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W16" t="n">
+        <v>8</v>
+      </c>
+      <c r="X16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS16" t="n">
         <v>201</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT16" t="n">
         <v>2.63</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU16" t="n">
         <v>8</v>
       </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
         <v>4.75</v>
       </c>
-      <c r="AX15" t="n">
+      <c r="AX16" t="n">
         <v>17</v>
       </c>
-      <c r="AY15" t="n">
+      <c r="AY16" t="n">
         <v>26</v>
       </c>
-      <c r="AZ15" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA15" t="n">
+      <c r="AZ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA16" t="n">
         <v>81</v>
       </c>
-      <c r="BB15" t="n">
+      <c r="BB16" t="n">
         <v>201</v>
       </c>
-      <c r="BC15" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD15" t="n">
+      <c r="BC16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD16" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -777,10 +777,10 @@
         <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -929,58 +929,58 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>4.75</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T3" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
         <v>15</v>
@@ -992,64 +992,64 @@
         <v>41</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
         <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AH3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI3" t="n">
         <v>8</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="n">
         <v>6</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS3" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
@@ -1058,19 +1058,19 @@
         <v>3.75</v>
       </c>
       <c r="AX3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ3" t="n">
         <v>41</v>
       </c>
       <c r="BA3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC3" t="n">
         <v>81</v>
@@ -1135,16 +1135,16 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S4" t="n">
         <v>1.36</v>
@@ -1317,16 +1317,16 @@
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R5" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S5" t="n">
         <v>1.36</v>
@@ -1475,10 +1475,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
         <v>4.75</v>
@@ -1666,7 +1666,7 @@
         <v>1.7</v>
       </c>
       <c r="J7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
         <v>2.25</v>
@@ -1699,10 +1699,10 @@
         <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W7" t="n">
         <v>13</v>
@@ -1735,13 +1735,13 @@
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH7" t="n">
         <v>7.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ7" t="n">
         <v>8.5</v>
@@ -1753,7 +1753,7 @@
         <v>13</v>
       </c>
       <c r="AM7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN7" t="n">
         <v>6.5</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J8" t="n">
         <v>2.75</v>
@@ -1869,10 +1869,10 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -1896,13 +1896,13 @@
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
         <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
         <v>11</v>
@@ -1917,13 +1917,13 @@
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH8" t="n">
         <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="n">
         <v>12</v>
@@ -1941,7 +1941,7 @@
         <v>4.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
         <v>21</v>
@@ -1968,10 +1968,10 @@
         <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ8" t="n">
         <v>51</v>
@@ -2021,16 +2021,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
         <v>2.3</v>
@@ -2051,22 +2051,22 @@
         <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R9" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S9" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U9" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V9" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W9" t="n">
         <v>11</v>
@@ -2102,13 +2102,13 @@
         <v>126</v>
       </c>
       <c r="AH9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK9" t="n">
         <v>29</v>
@@ -2123,7 +2123,7 @@
         <v>4.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
         <v>19</v>
@@ -2138,7 +2138,7 @@
         <v>101</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU9" t="n">
         <v>7</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J10" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -2233,10 +2233,10 @@
         <v>3.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R10" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>
@@ -2269,7 +2269,7 @@
         <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
@@ -2290,13 +2290,13 @@
         <v>8.5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
         <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM10" t="n">
         <v>29</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L11" t="n">
         <v>4.75</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L11" t="n">
-        <v>5</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2436,7 +2436,7 @@
         <v>8</v>
       </c>
       <c r="X11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y11" t="n">
         <v>8.5</v>
@@ -2460,7 +2460,7 @@
         <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="n">
         <v>201</v>
@@ -2469,7 +2469,7 @@
         <v>15</v>
       </c>
       <c r="AI11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ11" t="n">
         <v>15</v>
@@ -2478,10 +2478,10 @@
         <v>51</v>
       </c>
       <c r="AL11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN11" t="n">
         <v>3.75</v>
@@ -2499,7 +2499,7 @@
         <v>41</v>
       </c>
       <c r="AS11" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT11" t="n">
         <v>3.25</v>
@@ -2514,7 +2514,7 @@
         <v>6.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY11" t="n">
         <v>29</v>
@@ -2523,10 +2523,10 @@
         <v>81</v>
       </c>
       <c r="BA11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H12" t="n">
         <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
         <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
@@ -2615,25 +2615,25 @@
         <v>1.8</v>
       </c>
       <c r="W12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB12" t="n">
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
         <v>6</v>
@@ -2648,10 +2648,10 @@
         <v>351</v>
       </c>
       <c r="AH12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ12" t="n">
         <v>10</v>
@@ -2666,7 +2666,7 @@
         <v>34</v>
       </c>
       <c r="AN12" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO12" t="n">
         <v>17</v>
@@ -2681,7 +2681,7 @@
         <v>81</v>
       </c>
       <c r="AS12" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT12" t="n">
         <v>2.5</v>
@@ -2690,13 +2690,13 @@
         <v>8.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
@@ -2705,7 +2705,7 @@
         <v>51</v>
       </c>
       <c r="BA12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB12" t="n">
         <v>201</v>
@@ -2749,19 +2749,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H13" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
         <v>1.83</v>
       </c>
       <c r="K13" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L13" t="n">
         <v>6</v>
@@ -2791,10 +2791,10 @@
         <v>4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W13" t="n">
         <v>10</v>
@@ -2806,13 +2806,13 @@
         <v>8.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA13" t="n">
         <v>11</v>
       </c>
       <c r="AB13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="n">
         <v>21</v>
@@ -2836,10 +2836,10 @@
         <v>41</v>
       </c>
       <c r="AJ13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL13" t="n">
         <v>41</v>
@@ -2875,10 +2875,10 @@
         <v>41</v>
       </c>
       <c r="AW13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY13" t="n">
         <v>29</v>
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="H15" t="n">
         <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
         <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -3161,16 +3161,16 @@
         <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA15" t="n">
         <v>21</v>
@@ -3194,25 +3194,25 @@
         <v>201</v>
       </c>
       <c r="AH15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK15" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AL15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM15" t="n">
         <v>29</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO15" t="n">
         <v>15</v>
@@ -3221,7 +3221,7 @@
         <v>23</v>
       </c>
       <c r="AQ15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR15" t="n">
         <v>67</v>
@@ -3239,16 +3239,16 @@
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY15" t="n">
         <v>23</v>
       </c>
       <c r="AZ15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA15" t="n">
         <v>67</v>
@@ -3295,28 +3295,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
         <v>1.33</v>
@@ -3325,10 +3325,10 @@
         <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R16" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>
@@ -3343,19 +3343,19 @@
         <v>1.91</v>
       </c>
       <c r="W16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB16" t="n">
         <v>29</v>
@@ -3376,40 +3376,40 @@
         <v>251</v>
       </c>
       <c r="AH16" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
         <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM16" t="n">
         <v>34</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP16" t="n">
         <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR16" t="n">
         <v>67</v>
       </c>
       <c r="AS16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT16" t="n">
         <v>2.63</v>
@@ -3421,7 +3421,7 @@
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX16" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -771,16 +771,16 @@
         <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R2" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -789,22 +789,22 @@
         <v>2.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
         <v>19</v>
@@ -813,19 +813,19 @@
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH2" t="n">
         <v>9.5</v>
@@ -834,19 +834,19 @@
         <v>15</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO2" t="n">
         <v>13</v>
@@ -867,28 +867,28 @@
         <v>2.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ2" t="n">
         <v>51</v>
       </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -929,46 +929,46 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="J3" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="K3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.44</v>
       </c>
-      <c r="P3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.5</v>
-      </c>
       <c r="S3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U3" t="n">
         <v>2.1</v>
@@ -977,100 +977,100 @@
         <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
         <v>41</v>
       </c>
       <c r="AA3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
         <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
         <v>501</v>
       </c>
       <c r="AH3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI3" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AP3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AS3" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC3" t="n">
         <v>81</v>
@@ -1135,16 +1135,16 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R4" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S4" t="n">
         <v>1.36</v>
@@ -1293,40 +1293,40 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="R5" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="S5" t="n">
         <v>1.36</v>
@@ -1344,28 +1344,28 @@
         <v>8</v>
       </c>
       <c r="X5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
@@ -1374,19 +1374,19 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK5" t="n">
         <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
         <v>34</v>
@@ -1395,13 +1395,13 @@
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1419,13 +1419,13 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX5" t="n">
         <v>21</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
         <v>67</v>
@@ -1487,40 +1487,40 @@
         <v>2.3</v>
       </c>
       <c r="K6" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L6" t="n">
         <v>4.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R6" t="n">
         <v>2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U6" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V6" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
@@ -1538,10 +1538,10 @@
         <v>13</v>
       </c>
       <c r="AB6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
         <v>7</v>
@@ -1553,13 +1553,13 @@
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ6" t="n">
         <v>15</v>
@@ -1586,13 +1586,13 @@
         <v>29</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS6" t="n">
         <v>126</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU6" t="n">
         <v>8</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I7" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J7" t="n">
         <v>5</v>
@@ -1672,7 +1672,7 @@
         <v>2.25</v>
       </c>
       <c r="L7" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
@@ -1687,10 +1687,10 @@
         <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S7" t="n">
         <v>1.36</v>
@@ -1705,13 +1705,13 @@
         <v>1.91</v>
       </c>
       <c r="W7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z7" t="n">
         <v>51</v>
@@ -1759,7 +1759,7 @@
         <v>6.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
@@ -1786,13 +1786,13 @@
         <v>3.75</v>
       </c>
       <c r="AX7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY7" t="n">
         <v>19</v>
       </c>
       <c r="AZ7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA7" t="n">
         <v>51</v>
@@ -2039,10 +2039,10 @@
         <v>3.25</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
         <v>1.2</v>
@@ -2051,10 +2051,10 @@
         <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S9" t="n">
         <v>1.33</v>
@@ -2069,7 +2069,7 @@
         <v>2.25</v>
       </c>
       <c r="W9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X9" t="n">
         <v>13</v>
@@ -2117,7 +2117,7 @@
         <v>21</v>
       </c>
       <c r="AM9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN9" t="n">
         <v>4.75</v>
@@ -2135,7 +2135,7 @@
         <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT9" t="n">
         <v>3.25</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -2245,10 +2245,10 @@
         <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
         <v>11</v>
@@ -2260,10 +2260,10 @@
         <v>15</v>
       </c>
       <c r="Z10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
@@ -2281,22 +2281,22 @@
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH10" t="n">
         <v>6.5</v>
       </c>
       <c r="AI10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>9</v>
       </c>
       <c r="AK10" t="n">
         <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM10" t="n">
         <v>29</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I11" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="K11" t="n">
         <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2415,10 +2415,10 @@
         <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R11" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S11" t="n">
         <v>1.33</v>
@@ -2427,25 +2427,25 @@
         <v>3.25</v>
       </c>
       <c r="U11" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y11" t="n">
         <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB11" t="n">
         <v>23</v>
@@ -2454,76 +2454,76 @@
         <v>13</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
         <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>34</v>
       </c>
-      <c r="AM11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>26</v>
-      </c>
       <c r="AR11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT11" t="n">
         <v>3.25</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY11" t="n">
         <v>23</v>
       </c>
-      <c r="AY11" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ11" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB11" t="n">
         <v>151</v>
@@ -2567,40 +2567,40 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L12" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S12" t="n">
         <v>1.5</v>
@@ -2615,19 +2615,19 @@
         <v>1.8</v>
       </c>
       <c r="W12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X12" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y12" t="n">
         <v>13</v>
       </c>
-      <c r="Y12" t="n">
-        <v>11</v>
-      </c>
       <c r="Z12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA12" t="n">
         <v>29</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>26</v>
       </c>
       <c r="AB12" t="n">
         <v>41</v>
@@ -2639,7 +2639,7 @@
         <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
         <v>51</v>
@@ -2648,40 +2648,40 @@
         <v>351</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AL12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM12" t="n">
         <v>34</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AP12" t="n">
         <v>29</v>
       </c>
       <c r="AQ12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS12" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT12" t="n">
         <v>2.5</v>
@@ -2693,19 +2693,19 @@
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AX12" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB12" t="n">
         <v>201</v>
@@ -2749,7 +2749,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H13" t="n">
         <v>5</v>
@@ -2758,19 +2758,19 @@
         <v>7</v>
       </c>
       <c r="J13" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K13" t="n">
         <v>2.75</v>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O13" t="n">
         <v>1.13</v>
@@ -2803,7 +2803,7 @@
         <v>8.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z13" t="n">
         <v>10</v>
@@ -2815,7 +2815,7 @@
         <v>21</v>
       </c>
       <c r="AC13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD13" t="n">
         <v>10</v>
@@ -2848,7 +2848,7 @@
         <v>41</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO13" t="n">
         <v>6.5</v>
@@ -2857,7 +2857,7 @@
         <v>15</v>
       </c>
       <c r="AQ13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR13" t="n">
         <v>34</v>
@@ -2931,28 +2931,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H14" t="n">
         <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J14" t="n">
         <v>2.2</v>
       </c>
       <c r="K14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O14" t="n">
         <v>1.29</v>
@@ -2973,10 +2973,10 @@
         <v>2.75</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V14" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W14" t="n">
         <v>6.5</v>
@@ -3003,7 +3003,7 @@
         <v>7</v>
       </c>
       <c r="AE14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF14" t="n">
         <v>51</v>
@@ -3054,7 +3054,7 @@
         <v>9</v>
       </c>
       <c r="AV14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW14" t="n">
         <v>7</v>
@@ -3063,13 +3063,13 @@
         <v>29</v>
       </c>
       <c r="AY14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ14" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA14" t="n">
         <v>126</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>151</v>
       </c>
       <c r="BB14" t="n">
         <v>301</v>
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="H15" t="n">
         <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
         <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -3161,19 +3161,19 @@
         <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB15" t="n">
         <v>29</v>
@@ -3194,28 +3194,28 @@
         <v>201</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK15" t="n">
         <v>29</v>
       </c>
       <c r="AL15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
         <v>23</v>
@@ -3233,19 +3233,19 @@
         <v>2.75</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ15" t="n">
         <v>51</v>
@@ -3295,28 +3295,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
         <v>1.33</v>
@@ -3325,10 +3325,10 @@
         <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R16" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>
@@ -3337,25 +3337,25 @@
         <v>2.63</v>
       </c>
       <c r="U16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V16" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB16" t="n">
         <v>29</v>
@@ -3364,7 +3364,7 @@
         <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3373,31 +3373,31 @@
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO16" t="n">
         <v>11</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>13</v>
       </c>
       <c r="AP16" t="n">
         <v>23</v>
@@ -3415,28 +3415,28 @@
         <v>2.63</v>
       </c>
       <c r="AU16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AY16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB16" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC16" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD16"/>
+  <dimension ref="A1:BD17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,10 +759,10 @@
         <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -777,10 +777,10 @@
         <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -867,7 +867,7 @@
         <v>2.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GbZcGVuH</t>
+          <t>txT1cqOG</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>02:03</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>JAPAN - J1 LEAGUE</t>
+          <t>AUSTRALIA - A-LEAGUE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Verdy</t>
+          <t>Sydney FC</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Macarthur FC</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.4</v>
+        <v>1.65</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="I3" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>4.33</v>
+        <v>2.1</v>
       </c>
       <c r="K3" t="n">
-        <v>1.91</v>
+        <v>2.6</v>
       </c>
       <c r="L3" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>21</v>
       </c>
       <c r="O3" t="n">
-        <v>1.53</v>
+        <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>6</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.7</v>
+        <v>1.44</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>2.75</v>
       </c>
       <c r="S3" t="n">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="T3" t="n">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="W3" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="X3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z3" t="n">
         <v>15</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AA3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE3" t="n">
         <v>13</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AF3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV3" t="n">
         <v>41</v>
       </c>
-      <c r="AA3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK3" t="n">
+      <c r="AW3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX3" t="n">
         <v>21</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AY3" t="n">
         <v>23</v>
       </c>
-      <c r="AM3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB3" t="n">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="BC3" t="n">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="BD3" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>fqokIiB4</t>
+          <t>GbZcGVuH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>02:03</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,118 +1102,118 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Verdy</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="J4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
         <v>5</v>
       </c>
-      <c r="K4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W4" t="n">
-        <v>12</v>
-      </c>
-      <c r="X4" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AO4" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
         <v>34</v>
@@ -1222,37 +1222,37 @@
         <v>81</v>
       </c>
       <c r="AR4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS4" t="n">
-        <v>251</v>
+        <v>401</v>
       </c>
       <c r="AT4" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="AU4" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX4" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="BA4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8ddQgMlT</t>
+          <t>fqokIiB4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>JAPAN - J2 LEAGUE</t>
+          <t>JAPAN - J1 LEAGUE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Blaublitz</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fujieda MYFC</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.8</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="W5" t="n">
         <v>12</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>8</v>
-      </c>
       <c r="X5" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Z5" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
         <v>7</v>
       </c>
       <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL5" t="n">
         <v>15</v>
       </c>
-      <c r="AF5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI5" t="n">
+      <c r="AM5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY5" t="n">
         <v>21</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ5" t="n">
+      <c r="AZ5" t="n">
         <v>29</v>
       </c>
-      <c r="AR5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>67</v>
-      </c>
       <c r="BA5" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB5" t="n">
         <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>hUXdl0Cj</t>
+          <t>8ddQgMlT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1466,31 +1466,31 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Iwaki</t>
+          <t>Blaublitz</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kusatsu</t>
+          <t>Fujieda MYFC</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J6" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K6" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1499,22 +1499,22 @@
         <v>12</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U6" t="n">
         <v>1.73</v>
@@ -1523,16 +1523,16 @@
         <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
         <v>13</v>
@@ -1556,16 +1556,16 @@
         <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
         <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="n">
         <v>34</v>
@@ -1577,7 +1577,7 @@
         <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP6" t="n">
         <v>19</v>
@@ -1586,13 +1586,13 @@
         <v>29</v>
       </c>
       <c r="AR6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
         <v>126</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
         <v>8</v>
@@ -1601,7 +1601,7 @@
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX6" t="n">
         <v>23</v>
@@ -1613,7 +1613,7 @@
         <v>81</v>
       </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
         <v>201</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>nmHa8L3M</t>
+          <t>hUXdl0Cj</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,82 +1648,82 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Iwaki</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Okayama</t>
+          <t>Kusatsu</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
         <v>3.7</v>
       </c>
       <c r="I7" t="n">
-        <v>1.67</v>
+        <v>4.75</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="K7" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="R7" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V7" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="X7" t="n">
-        <v>26</v>
+        <v>8.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AB7" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD7" t="n">
         <v>7</v>
@@ -1735,46 +1735,46 @@
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AK7" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AL7" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AP7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>29</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>81</v>
-      </c>
       <c r="AR7" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AS7" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU7" t="n">
         <v>8</v>
@@ -1783,22 +1783,22 @@
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>8.5</v>
+        <v>23</v>
       </c>
       <c r="AY7" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="BA7" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KzQrC34c</t>
+          <t>nmHa8L3M</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,31 +1830,31 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Kofu</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mito</t>
+          <t>Okayama</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
-        <v>3.25</v>
+        <v>1.57</v>
       </c>
       <c r="J8" t="n">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="K8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L8" t="n">
         <v>2.2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.75</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1869,10 +1869,10 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -1881,106 +1881,106 @@
         <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AA8" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
         <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL8" t="n">
         <v>13</v>
       </c>
-      <c r="AF8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK8" t="n">
+      <c r="AM8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP8" t="n">
         <v>34</v>
       </c>
-      <c r="AL8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ8" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AS8" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="AT8" t="n">
         <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="AX8" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EwZhktcp</t>
+          <t>KzQrC34c</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,73 +2012,73 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Montedio Yamagata</t>
+          <t>Kofu</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Chiba</t>
+          <t>Mito</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="J9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T9" t="n">
         <v>3</v>
       </c>
-      <c r="K9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N9" t="n">
-        <v>13</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R9" t="n">
+      <c r="U9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V9" t="n">
         <v>2.1</v>
       </c>
-      <c r="S9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.25</v>
-      </c>
       <c r="W9" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="n">
         <v>17</v>
@@ -2087,46 +2087,46 @@
         <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH9" t="n">
         <v>11</v>
       </c>
       <c r="AI9" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP9" t="n">
         <v>21</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>19</v>
       </c>
       <c r="AQ9" t="n">
         <v>41</v>
@@ -2138,34 +2138,34 @@
         <v>126</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY9" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BD9" t="n">
         <v>51</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EZIiAsZ9</t>
+          <t>EwZhktcp</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,160 +2194,160 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Renofa Yamaguchi</t>
+          <t>Montedio Yamagata</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Chiba</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.33</v>
+        <v>2.38</v>
       </c>
       <c r="H10" t="n">
         <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N10" t="n">
+        <v>13</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W10" t="n">
+        <v>10</v>
+      </c>
+      <c r="X10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN10" t="n">
         <v>4.75</v>
       </c>
-      <c r="K10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" t="n">
-        <v>10</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P10" t="n">
+      <c r="AO10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT10" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q10" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W10" t="n">
-        <v>11</v>
-      </c>
-      <c r="X10" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y10" t="n">
+      <c r="AU10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX10" t="n">
         <v>15</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>10</v>
       </c>
       <c r="AY10" t="n">
         <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA10" t="n">
         <v>51</v>
       </c>
       <c r="BB10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC10" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BD10" t="n">
         <v>51</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2aFmBNJ3</t>
+          <t>EZIiAsZ9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,157 +2376,157 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Shimizu S-Pulse</t>
+          <t>Renofa Yamaguchi</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kumamoto</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.91</v>
+        <v>4.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="J11" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.73</v>
+        <v>2.35</v>
       </c>
       <c r="R11" t="n">
-        <v>2.08</v>
+        <v>1.57</v>
       </c>
       <c r="S11" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="T11" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.67</v>
       </c>
-      <c r="V11" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W11" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="X11" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX11" t="n">
         <v>10</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>19</v>
       </c>
       <c r="AY11" t="n">
         <v>23</v>
       </c>
       <c r="AZ11" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="BA11" t="n">
         <v>67</v>
       </c>
       <c r="BB11" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>tpRvDqki</t>
+          <t>2aFmBNJ3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2558,157 +2558,157 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tochigi SC</t>
+          <t>Shimizu S-Pulse</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tokushima</t>
+          <t>Kumamoto</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N12" t="n">
+        <v>13</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V12" t="n">
         <v>2.1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N12" t="n">
-        <v>9</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.8</v>
       </c>
       <c r="W12" t="n">
         <v>9</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC12" t="n">
         <v>13</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AD12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF12" t="n">
         <v>41</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AG12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM12" t="n">
         <v>29</v>
       </c>
-      <c r="AB12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK12" t="n">
+      <c r="AN12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP12" t="n">
         <v>19</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AQ12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX12" t="n">
         <v>19</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>12</v>
       </c>
       <c r="AY12" t="n">
         <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA12" t="n">
         <v>67</v>
       </c>
       <c r="BB12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8dIe91lG</t>
+          <t>tpRvDqki</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2740,160 +2740,160 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>V-Varen Nagasaki</t>
+          <t>Tochigi SC</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Tokushima</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9</v>
+      </c>
+      <c r="O13" t="n">
         <v>1.36</v>
       </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.8</v>
       </c>
-      <c r="K13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N13" t="n">
-        <v>19</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P13" t="n">
+      <c r="W13" t="n">
+        <v>9</v>
+      </c>
+      <c r="X13" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD13" t="n">
         <v>6</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T13" t="n">
-        <v>4</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W13" t="n">
-        <v>10</v>
-      </c>
-      <c r="X13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>17</v>
       </c>
       <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>41</v>
       </c>
-      <c r="AG13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>101</v>
-      </c>
       <c r="BA13" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB13" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC13" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BD13" t="n">
         <v>51</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>fghMf2ZM</t>
+          <t>8dIe91lG</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2922,160 +2922,160 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Vegalta Sendai</t>
+          <t>V-Varen Nagasaki</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Oita Trinita</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="I14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N14" t="n">
+        <v>21</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P14" t="n">
         <v>6</v>
       </c>
-      <c r="J14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="Q14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T14" t="n">
+        <v>4</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W14" t="n">
+        <v>10</v>
+      </c>
+      <c r="X14" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z14" t="n">
         <v>9.5</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X14" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z14" t="n">
+      <c r="AA14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD14" t="n">
         <v>11</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7</v>
       </c>
       <c r="AE14" t="n">
         <v>17</v>
       </c>
       <c r="AF14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AH14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP14" t="n">
         <v>15</v>
       </c>
-      <c r="AI14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL14" t="n">
+      <c r="AQ14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV14" t="n">
         <v>41</v>
       </c>
-      <c r="AM14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU14" t="n">
+      <c r="AW14" t="n">
         <v>9</v>
       </c>
-      <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>7</v>
-      </c>
       <c r="AX14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY14" t="n">
         <v>34</v>
       </c>
       <c r="AZ14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA14" t="n">
         <v>101</v>
       </c>
-      <c r="BA14" t="n">
-        <v>126</v>
-      </c>
       <c r="BB14" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BC14" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BD14" t="n">
         <v>51</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>KOPWLqP9</t>
+          <t>fghMf2ZM</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3099,42 +3099,42 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>JAPAN - J2 LEAGUE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pohang</t>
+          <t>Vegalta Sendai</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gimcheon Sangmu</t>
+          <t>Oita Trinita</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.35</v>
+        <v>1.6</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.29</v>
@@ -3155,76 +3155,76 @@
         <v>2.75</v>
       </c>
       <c r="U15" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y15" t="n">
         <v>8.5</v>
       </c>
-      <c r="X15" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z15" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AA15" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AB15" t="n">
         <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL15" t="n">
         <v>41</v>
       </c>
-      <c r="AG15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>23</v>
-      </c>
       <c r="AM15" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AP15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ15" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AR15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS15" t="n">
         <v>151</v>
@@ -3233,28 +3233,28 @@
         <v>2.75</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX15" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AY15" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ15" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA15" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BC15" t="n">
         <v>51</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CbMON5fc</t>
+          <t>KOPWLqP9</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3286,118 +3286,118 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Seoul</t>
+          <t>Pohang</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ulsan HD</t>
+          <t>Gimcheon Sangmu</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="H16" t="n">
         <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="R16" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="S16" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T16" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U16" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V16" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W16" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="X16" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Y16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AA16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB16" t="n">
         <v>29</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
       </c>
       <c r="AE16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI16" t="n">
         <v>15</v>
       </c>
-      <c r="AF16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO16" t="n">
         <v>13</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>11</v>
       </c>
       <c r="AP16" t="n">
         <v>23</v>
@@ -3412,36 +3412,218 @@
         <v>151</v>
       </c>
       <c r="AT16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CbMON5fc</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Seoul</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Ulsan HD</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N17" t="n">
+        <v>10</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T17" t="n">
         <v>2.63</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="U17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W17" t="n">
+        <v>7</v>
+      </c>
+      <c r="X17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU17" t="n">
         <v>8.5</v>
       </c>
-      <c r="AV16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW16" t="n">
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
         <v>5.5</v>
       </c>
-      <c r="AX16" t="n">
+      <c r="AX17" t="n">
         <v>21</v>
       </c>
-      <c r="AY16" t="n">
+      <c r="AY17" t="n">
         <v>29</v>
       </c>
-      <c r="AZ16" t="n">
+      <c r="AZ17" t="n">
         <v>67</v>
       </c>
-      <c r="BA16" t="n">
+      <c r="BA17" t="n">
         <v>101</v>
       </c>
-      <c r="BB16" t="n">
+      <c r="BB17" t="n">
         <v>251</v>
       </c>
-      <c r="BC16" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD16" t="n">
+      <c r="BC17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD17" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K2" t="n">
         <v>2.6</v>
       </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O2" t="n">
         <v>1.13</v>
@@ -789,10 +789,10 @@
         <v>4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W2" t="n">
         <v>12</v>
@@ -816,10 +816,10 @@
         <v>21</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
         <v>34</v>
@@ -828,37 +828,37 @@
         <v>101</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ2" t="n">
         <v>15</v>
       </c>
       <c r="AK2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
         <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP2" t="n">
         <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS2" t="n">
         <v>81</v>
@@ -876,16 +876,16 @@
         <v>251</v>
       </c>
       <c r="AX2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY2" t="n">
         <v>21</v>
       </c>
       <c r="AZ2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB2" t="n">
         <v>67</v>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
@@ -1162,22 +1162,22 @@
         <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
         <v>23</v>
       </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
@@ -1210,7 +1210,7 @@
         <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO4" t="n">
         <v>15</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
         <v>2.5</v>
@@ -1505,10 +1505,10 @@
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S6" t="n">
         <v>1.36</v>
@@ -1532,7 +1532,7 @@
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
         <v>15</v>
@@ -1544,7 +1544,7 @@
         <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1568,7 +1568,7 @@
         <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
         <v>34</v>
@@ -1595,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
@@ -1610,7 +1610,7 @@
         <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA6" t="n">
         <v>67</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
         <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
@@ -771,10 +771,10 @@
         <v>21</v>
       </c>
       <c r="O2" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q2" t="n">
         <v>1.44</v>
@@ -783,16 +783,16 @@
         <v>2.75</v>
       </c>
       <c r="S2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W2" t="n">
         <v>12</v>
@@ -834,7 +834,7 @@
         <v>26</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
@@ -849,13 +849,13 @@
         <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP2" t="n">
         <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
@@ -864,7 +864,7 @@
         <v>81</v>
       </c>
       <c r="AT2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU2" t="n">
         <v>7</v>
@@ -1111,46 +1111,46 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
         <v>2.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U4" t="n">
         <v>2</v>
@@ -1168,16 +1168,16 @@
         <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
         <v>23</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
@@ -1210,7 +1210,7 @@
         <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO4" t="n">
         <v>15</v>
@@ -1228,7 +1228,7 @@
         <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU4" t="n">
         <v>8.5</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J5" t="n">
         <v>3.75</v>
@@ -1308,13 +1308,13 @@
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.3</v>
@@ -1323,10 +1323,10 @@
         <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1335,16 +1335,16 @@
         <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V5" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
         <v>10</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
         <v>12</v>
@@ -1371,7 +1371,7 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
         <v>8</v>
@@ -1380,7 +1380,7 @@
         <v>11</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK5" t="n">
         <v>21</v>
@@ -1395,7 +1395,7 @@
         <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP5" t="n">
         <v>26</v>
@@ -1425,16 +1425,16 @@
         <v>4.33</v>
       </c>
       <c r="AY5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA5" t="n">
         <v>41</v>
       </c>
       <c r="BB5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC5" t="n">
         <v>151</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J6" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K6" t="n">
         <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1523,16 +1523,16 @@
         <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
         <v>15</v>
@@ -1547,7 +1547,7 @@
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
@@ -1559,25 +1559,25 @@
         <v>13</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
         <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP6" t="n">
         <v>19</v>
@@ -1595,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
@@ -1607,19 +1607,19 @@
         <v>6</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
         <v>81</v>
       </c>
       <c r="BC6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD6" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,7 +753,7 @@
         <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J2" t="n">
         <v>2.25</v>
@@ -762,13 +762,13 @@
         <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
@@ -795,7 +795,7 @@
         <v>2.5</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
         <v>11</v>
@@ -810,7 +810,7 @@
         <v>12</v>
       </c>
       <c r="AB2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="n">
         <v>21</v>
@@ -834,7 +834,7 @@
         <v>26</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
@@ -843,19 +843,19 @@
         <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="n">
         <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP2" t="n">
         <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
@@ -873,7 +873,7 @@
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AX2" t="n">
         <v>6.5</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>fqokIiB4</t>
+          <t>QFufM1k3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,95 +910,95 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>JAPAN - J1 LEAGUE</t>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Incheon</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Daejeon</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>1.73</v>
+        <v>2.75</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.98</v>
+        <v>2.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.88</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
         <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X3" t="n">
         <v>12</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA3" t="n">
         <v>23</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>41</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
@@ -1007,82 +1007,82 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AH3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AK3" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AL3" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AM3" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AP3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR3" t="n">
         <v>81</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>101</v>
       </c>
       <c r="AS3" t="n">
         <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW3" t="n">
         <v>51</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AX3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB3" t="n">
         <v>81</v>
       </c>
-      <c r="AX3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>29</v>
-      </c>
-      <c r="BB3" t="n">
+      <c r="BC3" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD3" t="n">
         <v>51</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>QFufM1k3</t>
+          <t>MsZ2KuKF</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1102,160 +1102,160 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Incheon</t>
+          <t>Jeju Utd</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Daejeon</t>
+          <t>Gwangju FC</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P4" t="n">
         <v>3.4</v>
       </c>
-      <c r="K4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.44</v>
       </c>
-      <c r="P4" t="n">
+      <c r="T4" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>401</v>
+        <v>251</v>
       </c>
       <c r="AH4" t="n">
         <v>7.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM4" t="n">
         <v>29</v>
       </c>
-      <c r="AL4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>41</v>
-      </c>
       <c r="AN4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AP4" t="n">
         <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR4" t="n">
         <v>81</v>
       </c>
       <c r="AS4" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW4" t="n">
         <v>51</v>
       </c>
       <c r="AX4" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AY4" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AZ4" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="BA4" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB4" t="n">
         <v>51</v>
       </c>
-      <c r="BB4" t="n">
-        <v>81</v>
-      </c>
       <c r="BC4" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BD4" t="n">
         <v>51</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MsZ2KuKF</t>
+          <t>U7xBIJlS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1284,55 +1284,55 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Jeju Utd</t>
+          <t>Jeonbuk</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gwangju FC</t>
+          <t>Daegu</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2.2</v>
+        <v>4.33</v>
       </c>
       <c r="J5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P5" t="n">
         <v>3.75</v>
       </c>
-      <c r="K5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.4</v>
-      </c>
       <c r="Q5" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="R5" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
         <v>1.73</v>
@@ -1341,76 +1341,76 @@
         <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="Y5" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AA5" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG5" t="n">
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AI5" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP5" t="n">
         <v>19</v>
       </c>
-      <c r="AM5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR5" t="n">
         <v>51</v>
       </c>
-      <c r="AR5" t="n">
-        <v>81</v>
-      </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU5" t="n">
         <v>8</v>
@@ -1419,209 +1419,27 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="AX5" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="AY5" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="BA5" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BC5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>U7xBIJlS</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>10/11/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>04:30</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Jeonbuk</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Daegu</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD6" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -750,7 +750,7 @@
         <v>1.73</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
         <v>4.2</v>
@@ -777,10 +777,10 @@
         <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="S2" t="n">
         <v>1.25</v>
@@ -813,10 +813,10 @@
         <v>19</v>
       </c>
       <c r="AC2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -846,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
         <v>8.5</v>
@@ -882,16 +882,16 @@
         <v>21</v>
       </c>
       <c r="AZ2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB2" t="n">
         <v>67</v>
       </c>
       <c r="BC2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -953,16 +953,16 @@
         <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H4" t="n">
         <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -1126,25 +1126,25 @@
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1153,10 +1153,10 @@
         <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W4" t="n">
         <v>10</v>
@@ -1165,19 +1165,19 @@
         <v>17</v>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA4" t="n">
         <v>29</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
@@ -1189,31 +1189,31 @@
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>9</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM4" t="n">
         <v>29</v>
       </c>
       <c r="AN4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
         <v>29</v>
@@ -1222,7 +1222,7 @@
         <v>67</v>
       </c>
       <c r="AR4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS4" t="n">
         <v>201</v>
@@ -1240,7 +1240,7 @@
         <v>51</v>
       </c>
       <c r="AX4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AY4" t="n">
         <v>12</v>
@@ -1293,19 +1293,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L5" t="n">
         <v>4.5</v>
@@ -1317,28 +1317,28 @@
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="S5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
@@ -1356,10 +1356,10 @@
         <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
@@ -1368,16 +1368,16 @@
         <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
         <v>15</v>
@@ -1392,13 +1392,13 @@
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
         <v>34</v>
@@ -1407,10 +1407,10 @@
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU5" t="n">
         <v>8</v>
@@ -1425,7 +1425,7 @@
         <v>6</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
         <v>29</v>
@@ -1434,7 +1434,7 @@
         <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC5" t="n">
         <v>201</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>QFufM1k3</t>
+          <t>b9yv0rWH</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Incheon</t>
+          <t>ASK Voitsberg</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Daejeon</t>
+          <t>Admira</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="I3" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T3" t="n">
         <v>2.75</v>
       </c>
-      <c r="J3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N3" t="n">
-        <v>8</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="U3" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT3" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q3" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AU3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW3" t="n">
         <v>81</v>
       </c>
-      <c r="AS3" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>51</v>
-      </c>
       <c r="AX3" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="AY3" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="AZ3" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
       <c r="BA3" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="BB3" t="n">
+        <v>65</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>250</v>
+      </c>
+      <c r="BD3" t="n">
         <v>81</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MsZ2KuKF</t>
+          <t>QFufM1k3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1102,82 +1102,82 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Jeju Utd</t>
+          <t>Incheon</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gwangju FC</t>
+          <t>Daejeon</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P4" t="n">
         <v>2.75</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="R4" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
@@ -1189,73 +1189,73 @@
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AL4" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AM4" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AP4" t="n">
         <v>29</v>
       </c>
       <c r="AQ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV4" t="n">
         <v>67</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
       </c>
       <c r="AW4" t="n">
         <v>51</v>
       </c>
       <c r="AX4" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ4" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BA4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BC4" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BD4" t="n">
         <v>51</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>U7xBIJlS</t>
+          <t>MsZ2KuKF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1284,85 +1284,85 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Jeonbuk</t>
+          <t>Jeju Utd</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Daegu</t>
+          <t>Gwangju FC</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>4.33</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="R5" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="X5" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
@@ -1371,75 +1371,257 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS5" t="n">
         <v>251</v>
       </c>
-      <c r="AH5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>151</v>
-      </c>
       <c r="AT5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="AX5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AZ5" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="BA5" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BB5" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BC5" t="n">
         <v>201</v>
       </c>
       <c r="BD5" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>U7xBIJlS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>04:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Jeonbuk</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Daegu</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD6" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>txT1cqOG</t>
+          <t>CQ2tj1Gj</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>06:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,85 +738,85 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sydney FC</t>
+          <t>Perth Glory</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Macarthur FC</t>
+          <t>Melbourne City</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W2" t="n">
+        <v>13</v>
+      </c>
+      <c r="X2" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y2" t="n">
         <v>11</v>
       </c>
-      <c r="X2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -825,46 +825,46 @@
         <v>34</v>
       </c>
       <c r="AG2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS2" t="n">
         <v>101</v>
       </c>
-      <c r="AH2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>81</v>
-      </c>
       <c r="AT2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU2" t="n">
         <v>7</v>
@@ -873,25 +873,25 @@
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AX2" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AZ2" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="BA2" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BB2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -1077,552 +1077,6 @@
       </c>
       <c r="BD3" t="n">
         <v>81</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>QFufM1k3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>10/11/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>04:30</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Incheon</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Daejeon</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>MsZ2KuKF</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>10/11/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>04:30</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Jeju Utd</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Gwangju FC</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N5" t="n">
-        <v>8</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>U7xBIJlS</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>10/11/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>04:30</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Jeonbuk</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Daegu</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -929,55 +929,55 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
         <v>1.88</v>
       </c>
       <c r="J3" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K3" t="n">
         <v>2.12</v>
       </c>
       <c r="L3" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="U3" t="n">
         <v>1.72</v>
       </c>
       <c r="V3" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="X3" t="n">
         <v>21</v>
@@ -989,13 +989,13 @@
         <v>55</v>
       </c>
       <c r="AA3" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AB3" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6.8</v>
@@ -1031,34 +1031,34 @@
         <v>5.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP3" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AR3" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS3" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AV3" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW3" t="n">
         <v>81</v>
       </c>
       <c r="AX3" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AY3" t="n">
         <v>9.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
         <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
         <v>2.38</v>
@@ -768,7 +768,7 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
         <v>1.17</v>
@@ -789,10 +789,10 @@
         <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W2" t="n">
         <v>13</v>
@@ -804,7 +804,7 @@
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA2" t="n">
         <v>21</v>
@@ -825,7 +825,7 @@
         <v>34</v>
       </c>
       <c r="AG2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH2" t="n">
         <v>11</v>
@@ -846,7 +846,7 @@
         <v>21</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
         <v>15</v>
@@ -855,7 +855,7 @@
         <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
@@ -876,10 +876,10 @@
         <v>351</v>
       </c>
       <c r="AX2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ2" t="n">
         <v>17</v>
@@ -1077,6 +1077,734 @@
       </c>
       <c r="BD3" t="n">
         <v>81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>tvOXsCw3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>BULGARIA - PARVA LIGA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Hebar</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CSKA 1948 Sofia</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W4" t="n">
+        <v>11</v>
+      </c>
+      <c r="X4" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SEI2KIGD</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Goztepe</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>276</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>OEyZdHWi</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Bandirmaspor</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Boluspor</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7</v>
+      </c>
+      <c r="X6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dSZtee14</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sanliurfaspor</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Genclerbirligi</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W7" t="n">
+        <v>8</v>
+      </c>
+      <c r="X7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,55 +747,55 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K2" t="n">
         <v>2.25</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.38</v>
       </c>
       <c r="L2" t="n">
         <v>2.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="T2" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="V2" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="W2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
         <v>17</v>
@@ -804,34 +804,34 @@
         <v>11</v>
       </c>
       <c r="Z2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB2" t="n">
         <v>29</v>
       </c>
-      <c r="AA2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>23</v>
-      </c>
       <c r="AC2" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI2" t="n">
         <v>12</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>13</v>
       </c>
       <c r="AJ2" t="n">
         <v>9</v>
@@ -840,49 +840,49 @@
         <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN2" t="n">
         <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AX2" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AY2" t="n">
         <v>12</v>
       </c>
       <c r="AZ2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA2" t="n">
         <v>41</v>
@@ -891,10 +891,10 @@
         <v>51</v>
       </c>
       <c r="BC2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -1129,10 +1129,10 @@
         <v>2.25</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SEI2KIGD</t>
+          <t>6Rf4zInC</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>RFS</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Riga FC</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>2.62</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="I5" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="W5" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="X5" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX5" t="n">
         <v>4.5</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF5" t="n">
+      <c r="AY5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>75</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>200</v>
+      </c>
+      <c r="BD5" t="n">
         <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>276</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>301</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OEyZdHWi</t>
+          <t>hlt5hKGb</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,134 +1456,134 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="J6" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="R6" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="S6" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V6" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
         <v>17</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM6" t="n">
         <v>34</v>
       </c>
-      <c r="AM6" t="n">
-        <v>41</v>
-      </c>
       <c r="AN6" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
@@ -1592,43 +1592,43 @@
         <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AX6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AZ6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB6" t="n">
         <v>81</v>
       </c>
-      <c r="BB6" t="n">
-        <v>101</v>
-      </c>
       <c r="BC6" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dSZtee14</t>
+          <t>SEI2KIGD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1643,60 +1643,60 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>2.63</v>
       </c>
       <c r="K7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q7" t="n">
         <v>2.05</v>
       </c>
-      <c r="L7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.25</v>
-      </c>
       <c r="R7" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="S7" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U7" t="n">
         <v>1.83</v>
@@ -1705,73 +1705,73 @@
         <v>1.83</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB7" t="n">
         <v>29</v>
       </c>
-      <c r="AA7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
       <c r="AC7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
         <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="n">
         <v>11</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK7" t="n">
+      <c r="AP7" t="n">
         <v>23</v>
       </c>
-      <c r="AL7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR7" t="n">
         <v>51</v>
       </c>
-      <c r="AR7" t="n">
-        <v>81</v>
-      </c>
       <c r="AS7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT7" t="n">
         <v>2.63</v>
@@ -1783,28 +1783,574 @@
         <v>51</v>
       </c>
       <c r="AW7" t="n">
+        <v>276</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>OEyZdHWi</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Bandirmaspor</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Boluspor</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
         <v>126</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AX8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>dSZtee14</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Sanliurfaspor</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Genclerbirligi</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W9" t="n">
+        <v>8</v>
+      </c>
+      <c r="X9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX9" t="n">
         <v>4.33</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AY9" t="n">
         <v>15</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="AZ9" t="n">
         <v>26</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BA9" t="n">
         <v>51</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BB9" t="n">
         <v>67</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BC9" t="n">
         <v>201</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BD9" t="n">
         <v>126</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>v5vVwY8d</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Veres-Rivne</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Rukh Lviv</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W10" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X10" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>45</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>80</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>250</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2_HT</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2_HT</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3_HT</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3_HT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3_HT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_3-3_HT</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1_HT</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2_HT</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2_HT</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3_HT</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CQ2tj1Gj</t>
+          <t>llRM5Mx9</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,158 +728,158 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06:45</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AUSTRALIA - A-LEAGUE</t>
+          <t>NETHERLANDS - EREDIVISIE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Perth Glory</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Melbourne City</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>2.75</v>
+        <v>1.91</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="S2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="V2" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="W2" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Z2" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AC2" t="n">
         <v>13</v>
       </c>
       <c r="AD2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI2" t="n">
         <v>7</v>
       </c>
-      <c r="AE2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH2" t="n">
+      <c r="AJ2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK2" t="n">
         <v>9.5</v>
       </c>
-      <c r="AI2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>21</v>
-      </c>
       <c r="AL2" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AM2" t="n">
         <v>23</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="AO2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY2" t="n">
         <v>17</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>451</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>12</v>
       </c>
       <c r="AZ2" t="n">
         <v>19</v>
@@ -888,19 +888,19 @@
         <v>41</v>
       </c>
       <c r="BB2" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BC2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>b9yv0rWH</t>
+          <t>CQ2tj1Gj</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>06:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AUSTRIA - 2. LIGA</t>
+          <t>AUSTRALIA - A-LEAGUE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ASK Voitsberg</t>
+          <t>Perth Glory</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Admira</t>
+          <t>Melbourne City</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>1.88</v>
+        <v>2.3</v>
       </c>
       <c r="J3" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="L3" t="n">
-        <v>2.47</v>
+        <v>2.88</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="R3" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="T3" t="n">
-        <v>2.67</v>
+        <v>3.25</v>
       </c>
       <c r="U3" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="W3" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="X3" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA3" t="n">
         <v>21</v>
       </c>
-      <c r="Y3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>35</v>
-      </c>
       <c r="AB3" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF3" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>450</v>
+        <v>126</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.7</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>9.25</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AM3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>400</v>
+        <v>126</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.67</v>
+        <v>3.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AV3" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="AW3" t="n">
-        <v>81</v>
+        <v>4.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>3.75</v>
+        <v>12</v>
       </c>
       <c r="AY3" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="AZ3" t="n">
-        <v>18.5</v>
+        <v>41</v>
       </c>
       <c r="BA3" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="BB3" t="n">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="BC3" t="n">
-        <v>250</v>
+        <v>401</v>
       </c>
       <c r="BD3" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>tvOXsCw3</t>
+          <t>b9yv0rWH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hebar</t>
+          <t>ASK Voitsberg</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>Admira</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.5</v>
+        <v>3.85</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="J4" t="n">
-        <v>6.5</v>
+        <v>4.25</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>2.25</v>
+        <v>2.57</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>7.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T4" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="W4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X4" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Y4" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AA4" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="AB4" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="AG4" t="n">
-        <v>1250</v>
+        <v>400</v>
       </c>
       <c r="AH4" t="n">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="AI4" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AK4" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>15</v>
       </c>
       <c r="AM4" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AN4" t="n">
-        <v>7.5</v>
+        <v>5.7</v>
       </c>
       <c r="AO4" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AP4" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="AQ4" t="n">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AR4" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AS4" t="n">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AV4" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AW4" t="n">
-        <v>51</v>
+        <v>3.85</v>
       </c>
       <c r="AX4" t="n">
-        <v>3.4</v>
+        <v>10.25</v>
       </c>
       <c r="AY4" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="AZ4" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="BA4" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="BB4" t="n">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="BC4" t="n">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="BD4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6Rf4zInC</t>
+          <t>tvOXsCw3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,170 +1274,170 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RFS</t>
+          <t>Hebar</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Riga FC</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.62</v>
+        <v>5.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.05</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P5" t="n">
         <v>3</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N5" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.88</v>
-      </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>2.15</v>
       </c>
       <c r="R5" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="S5" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>2.66</v>
+        <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>1.76</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>2.01</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>6.9</v>
+        <v>11</v>
       </c>
       <c r="X5" t="n">
-        <v>10.75</v>
+        <v>26</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.25</v>
+        <v>19</v>
       </c>
       <c r="Z5" t="n">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="AA5" t="n">
-        <v>18.5</v>
+        <v>51</v>
       </c>
       <c r="AB5" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>5.2</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK5" t="n">
         <v>11</v>
       </c>
-      <c r="AF5" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>22</v>
-      </c>
       <c r="AL5" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AM5" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.65</v>
+        <v>7.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AQ5" t="n">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="AR5" t="n">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="AS5" t="n">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU5" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>51</v>
+        <v>3.4</v>
       </c>
       <c r="AX5" t="n">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
-        <v>18.5</v>
+        <v>29</v>
       </c>
       <c r="BA5" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BB5" t="n">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="n">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="BD5" t="n">
         <v>51</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>hlt5hKGb</t>
+          <t>6Rf4zInC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1461,174 +1461,174 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>RFS</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Riga FC</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>2.92</v>
       </c>
       <c r="I6" t="n">
-        <v>3.3</v>
+        <v>2.52</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="L6" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
         <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>3.5</v>
+        <v>2.94</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="R6" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T6" t="n">
-        <v>2.75</v>
+        <v>2.42</v>
       </c>
       <c r="U6" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="W6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y6" t="n">
         <v>8</v>
       </c>
-      <c r="X6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9</v>
-      </c>
       <c r="Z6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB6" t="n">
         <v>21</v>
       </c>
-      <c r="AA6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>26</v>
-      </c>
       <c r="AC6" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AE6" t="n">
         <v>10</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AF6" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU6" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP6" t="n">
+      <c r="AV6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AY6" t="n">
         <v>21</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>17</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="BB6" t="n">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="BC6" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BD6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SEI2KIGD</t>
+          <t>CtRrBEgc</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,110 +1638,110 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Puszcza</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1.95</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="R7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC7" t="n">
         <v>10</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9</v>
       </c>
       <c r="AD7" t="n">
         <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="n">
         <v>13</v>
@@ -1759,13 +1759,13 @@
         <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
@@ -1774,43 +1774,43 @@
         <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>276</v>
+        <v>6</v>
       </c>
       <c r="AX7" t="n">
-        <v>5.5</v>
+        <v>21</v>
       </c>
       <c r="AY7" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="BA7" t="n">
         <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC7" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BD7" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OEyZdHWi</t>
+          <t>hlt5hKGb</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,134 +1820,134 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="J8" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.73</v>
       </c>
-      <c r="S8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.83</v>
-      </c>
       <c r="V8" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI8" t="n">
         <v>17</v>
       </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>21</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM8" t="n">
         <v>34</v>
       </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
       <c r="AN8" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
         <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
         <v>51</v>
@@ -1956,43 +1956,43 @@
         <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
         <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dSZtee14</t>
+          <t>SEI2KIGD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2007,54 +2007,54 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>2.63</v>
       </c>
       <c r="K9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q9" t="n">
         <v>2.05</v>
       </c>
-      <c r="L9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N9" t="n">
-        <v>9</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.25</v>
-      </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="S9" t="n">
         <v>1.44</v>
@@ -2069,73 +2069,73 @@
         <v>1.83</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB9" t="n">
         <v>29</v>
       </c>
-      <c r="AA9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>34</v>
-      </c>
       <c r="AC9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
         <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AI9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
         <v>11</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK9" t="n">
+      <c r="AP9" t="n">
         <v>23</v>
       </c>
-      <c r="AL9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT9" t="n">
         <v>2.63</v>
@@ -2147,209 +2147,573 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>126</v>
+        <v>5.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>4.33</v>
+        <v>21</v>
       </c>
       <c r="AY9" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="BA9" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="BC9" t="n">
-        <v>201</v>
+        <v>276</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>OEyZdHWi</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Bandirmaspor</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Boluspor</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>dSZtee14</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sanliurfaspor</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Genclerbirligi</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W11" t="n">
+        <v>8</v>
+      </c>
+      <c r="X11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>v5vVwY8d</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>10/11/2024</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Veres-Rivne</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Rukh Lviv</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G12" t="n">
         <v>3.4</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H12" t="n">
         <v>3.05</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I12" t="n">
         <v>2.15</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J12" t="n">
         <v>3.9</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K12" t="n">
         <v>2</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L12" t="n">
         <v>2.75</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M12" t="n">
         <v>1.05</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N12" t="n">
         <v>8.85</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O12" t="n">
         <v>1.37</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P12" t="n">
         <v>2.65</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q12" t="n">
         <v>2.07</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R12" t="n">
         <v>1.6</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S12" t="n">
         <v>1.42</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T12" t="n">
         <v>2.45</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U12" t="n">
         <v>1.8</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V12" t="n">
         <v>1.8</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W12" t="n">
         <v>9.25</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X12" t="n">
         <v>18</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y12" t="n">
         <v>11.75</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z12" t="n">
         <v>50</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA12" t="n">
         <v>32</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB12" t="n">
         <v>40</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC12" t="n">
         <v>7.8</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AD12" t="n">
         <v>5.9</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AE12" t="n">
         <v>15</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF12" t="n">
         <v>75</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AG12" t="n">
         <v>700</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AH12" t="n">
         <v>6.6</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AI12" t="n">
         <v>9.75</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AJ12" t="n">
         <v>8.75</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AK12" t="n">
         <v>21</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AL12" t="n">
         <v>19</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AM12" t="n">
         <v>32</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AN12" t="n">
         <v>5.2</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AO12" t="n">
         <v>19</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AP12" t="n">
         <v>26</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AQ12" t="n">
         <v>100</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AR12" t="n">
         <v>120</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AS12" t="n">
         <v>350</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AT12" t="n">
         <v>2.4</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="AU12" t="n">
         <v>7</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="AV12" t="n">
         <v>65</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="AW12" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC12" t="n">
         <v>81</v>
       </c>
-      <c r="AX10" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>45</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>80</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>250</v>
-      </c>
-      <c r="BD10" t="n">
+      <c r="BD12" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:BD15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>llRM5Mx9</t>
+          <t>tjxpzseC</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,170 +728,170 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EREDIVISIE</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="H2" t="n">
         <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>1.4</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N2" t="n">
+        <v>11</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W2" t="n">
         <v>6.5</v>
       </c>
-      <c r="K2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N2" t="n">
-        <v>15</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W2" t="n">
-        <v>19</v>
-      </c>
       <c r="X2" t="n">
-        <v>41</v>
+        <v>6.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>21</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="AA2" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="AB2" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
         <v>9</v>
       </c>
       <c r="AE2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP2" t="n">
         <v>19</v>
       </c>
-      <c r="AF2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ2" t="n">
+      <c r="AQ2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW2" t="n">
         <v>8.5</v>
       </c>
-      <c r="AK2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>126</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AX2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>151</v>
       </c>
-      <c r="AS2" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>19</v>
-      </c>
       <c r="BA2" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BC2" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CQ2tj1Gj</t>
+          <t>llRM5Mx9</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,170 +910,170 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>06:45</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AUSTRALIA - A-LEAGUE</t>
+          <t>NETHERLANDS - EREDIVISIE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Perth Glory</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Melbourne City</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="I3" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L3" t="n">
-        <v>2.88</v>
+        <v>1.91</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O3" t="n">
         <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q3" t="n">
         <v>1.67</v>
       </c>
       <c r="R3" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U3" t="n">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="W3" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AC3" t="n">
         <v>13</v>
       </c>
       <c r="AD3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI3" t="n">
         <v>7</v>
       </c>
-      <c r="AE3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>13</v>
-      </c>
       <c r="AJ3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK3" t="n">
         <v>9.5</v>
       </c>
-      <c r="AK3" t="n">
-        <v>21</v>
-      </c>
       <c r="AL3" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AM3" t="n">
         <v>23</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AQ3" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AS3" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU3" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA3" t="n">
         <v>41</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>51</v>
       </c>
       <c r="BB3" t="n">
         <v>101</v>
       </c>
       <c r="BC3" t="n">
-        <v>401</v>
+        <v>151</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>b9yv0rWH</t>
+          <t>CQ2tj1Gj</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>06:45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AUSTRIA - 2. LIGA</t>
+          <t>AUSTRALIA - A-LEAGUE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ASK Voitsberg</t>
+          <t>Perth Glory</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Admira</t>
+          <t>Melbourne City</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.85</v>
+        <v>2.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>1.93</v>
+        <v>2.35</v>
       </c>
       <c r="J4" t="n">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L4" t="n">
-        <v>2.57</v>
+        <v>2.88</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>7.3</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>3.35</v>
+        <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>1.88</v>
+        <v>2.2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="T4" t="n">
-        <v>2.65</v>
+        <v>3.4</v>
       </c>
       <c r="U4" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="V4" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="W4" t="n">
         <v>12</v>
       </c>
       <c r="X4" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AA4" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.3</v>
+        <v>15</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI4" t="n">
         <v>13</v>
       </c>
-      <c r="AF4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AI4" t="n">
+      <c r="AJ4" t="n">
         <v>9.5</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AK4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL4" t="n">
         <v>17</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AM4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO4" t="n">
         <v>15</v>
       </c>
-      <c r="AM4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>22</v>
-      </c>
       <c r="AP4" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>350</v>
+        <v>126</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.65</v>
+        <v>3.4</v>
       </c>
       <c r="AU4" t="n">
         <v>7</v>
       </c>
       <c r="AV4" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.85</v>
+        <v>4.75</v>
       </c>
       <c r="AX4" t="n">
-        <v>10.25</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
         <v>19</v>
       </c>
       <c r="AZ4" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="BB4" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="BC4" t="n">
-        <v>81</v>
+        <v>401</v>
       </c>
       <c r="BD4" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>tvOXsCw3</t>
+          <t>b9yv0rWH</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hebar</t>
+          <t>ASK Voitsberg</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>Admira</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.5</v>
+        <v>3.85</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="J5" t="n">
-        <v>6.5</v>
+        <v>4.25</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>2.25</v>
+        <v>2.57</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>7.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="R5" t="n">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="S5" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T5" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="W5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X5" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AA5" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="AB5" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="AG5" t="n">
-        <v>1250</v>
+        <v>400</v>
       </c>
       <c r="AH5" t="n">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="AI5" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AK5" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
         <v>15</v>
       </c>
       <c r="AM5" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>7.5</v>
+        <v>5.7</v>
       </c>
       <c r="AO5" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AP5" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="AQ5" t="n">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AR5" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AS5" t="n">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="AX5" t="n">
-        <v>8.5</v>
+        <v>10.25</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AZ5" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="BA5" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="BC5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6Rf4zInC</t>
+          <t>23J5EsoB</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>RFS</t>
+          <t>Liefering</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Riga FC</t>
+          <t>SK Rapid</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="H6" t="n">
-        <v>2.92</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.52</v>
+        <v>3.45</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>2.35</v>
       </c>
       <c r="K6" t="n">
-        <v>1.98</v>
+        <v>2.42</v>
       </c>
       <c r="L6" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>2.94</v>
+        <v>4.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.88</v>
+        <v>1.45</v>
       </c>
       <c r="R6" t="n">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="S6" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="T6" t="n">
-        <v>2.42</v>
+        <v>3.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.74</v>
+        <v>1.47</v>
       </c>
       <c r="V6" t="n">
-        <v>2.04</v>
+        <v>2.52</v>
       </c>
       <c r="W6" t="n">
-        <v>7.8</v>
+        <v>11.75</v>
       </c>
       <c r="X6" t="n">
         <v>12</v>
       </c>
       <c r="Y6" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="Z6" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="AA6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB6" t="n">
         <v>17.5</v>
       </c>
-      <c r="AB6" t="n">
-        <v>21</v>
-      </c>
       <c r="AC6" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>5.1</v>
+        <v>8.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG6" t="n">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="AH6" t="n">
-        <v>7</v>
+        <v>16.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>10.75</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>7.9</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="AL6" t="n">
-        <v>17.5</v>
+        <v>25</v>
       </c>
       <c r="AM6" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.65</v>
+        <v>4.2</v>
       </c>
       <c r="AO6" t="n">
-        <v>14.5</v>
+        <v>9</v>
       </c>
       <c r="AP6" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AR6" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="AS6" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.42</v>
+        <v>3.5</v>
       </c>
       <c r="AU6" t="n">
         <v>6.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
       <c r="AX6" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="BA6" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BB6" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="BC6" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CtRrBEgc</t>
+          <t>tvOXsCw3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Hebar</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Puszcza</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.9</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>1.55</v>
       </c>
       <c r="J7" t="n">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="K7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L7" t="n">
         <v>2.2</v>
       </c>
-      <c r="L7" t="n">
-        <v>4.33</v>
-      </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W7" t="n">
+        <v>12</v>
+      </c>
+      <c r="X7" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK7" t="n">
         <v>11</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W7" t="n">
+      <c r="AL7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN7" t="n">
         <v>7.5</v>
       </c>
-      <c r="X7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB7" t="n">
+      <c r="AO7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>26</v>
       </c>
-      <c r="AC7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>67</v>
-      </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB7" t="n">
         <v>201</v>
       </c>
       <c r="BC7" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="BD7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>hlt5hKGb</t>
+          <t>6Rf4zInC</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1825,174 +1825,174 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>RFS</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Riga FC</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.75</v>
+        <v>2.95</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>6.95</v>
       </c>
       <c r="O8" t="n">
         <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>3.5</v>
+        <v>2.94</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="R8" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>2.42</v>
       </c>
       <c r="U8" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC8" t="n">
         <v>9</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AD8" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AK8" t="n">
         <v>21</v>
       </c>
-      <c r="AA8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE8" t="n">
+      <c r="AL8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AX8" t="n">
         <v>13</v>
       </c>
-      <c r="AF8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>17</v>
-      </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="BC8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SEI2KIGD</t>
+          <t>CtRrBEgc</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,110 +2002,110 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Puszcza</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1.95</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="R9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC9" t="n">
         <v>10</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>9</v>
       </c>
       <c r="AD9" t="n">
         <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="n">
         <v>13</v>
@@ -2123,13 +2123,13 @@
         <v>4</v>
       </c>
       <c r="AO9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR9" t="n">
         <v>51</v>
@@ -2138,16 +2138,16 @@
         <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX9" t="n">
         <v>21</v>
@@ -2156,25 +2156,25 @@
         <v>29</v>
       </c>
       <c r="AZ9" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA9" t="n">
         <v>81</v>
       </c>
-      <c r="BA9" t="n">
-        <v>101</v>
-      </c>
       <c r="BB9" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC9" t="n">
-        <v>276</v>
+        <v>501</v>
       </c>
       <c r="BD9" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OEyZdHWi</t>
+          <t>8fZ390QF</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,95 +2184,95 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>S. Wola</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>15</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.8</v>
       </c>
-      <c r="H10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" t="n">
-        <v>10</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.83</v>
-      </c>
       <c r="V10" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W10" t="n">
-        <v>6.5</v>
+        <v>17</v>
       </c>
       <c r="X10" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD10" t="n">
         <v>8.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
         <v>17</v>
@@ -2281,82 +2281,82 @@
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK10" t="n">
         <v>11</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AL10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>21</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK10" t="n">
+      <c r="BA10" t="n">
         <v>41</v>
       </c>
-      <c r="AL10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ10" t="n">
+      <c r="BB10" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC10" t="n">
         <v>81</v>
       </c>
-      <c r="BA10" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>126</v>
-      </c>
       <c r="BD10" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dSZtee14</t>
+          <t>hlt5hKGb</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,155 +2366,155 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T11" t="n">
         <v>2.75</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N11" t="n">
-        <v>9</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U11" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V11" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
         <v>8</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AA11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB11" t="n">
         <v>26</v>
       </c>
-      <c r="AB11" t="n">
-        <v>34</v>
-      </c>
       <c r="AC11" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
         <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AI11" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AM11" t="n">
         <v>34</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX11" t="n">
         <v>17</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>15</v>
       </c>
       <c r="AY11" t="n">
         <v>26</v>
@@ -2523,22 +2523,22 @@
         <v>51</v>
       </c>
       <c r="BA11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC11" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD11" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>v5vVwY8d</t>
+          <t>SEI2KIGD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,172 +2548,718 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Veres-Rivne</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
         <v>3.4</v>
       </c>
-      <c r="H12" t="n">
-        <v>3.05</v>
-      </c>
       <c r="I12" t="n">
-        <v>2.15</v>
+        <v>3.7</v>
       </c>
       <c r="J12" t="n">
-        <v>3.9</v>
+        <v>2.75</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>8.85</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>2.65</v>
+        <v>3.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="R12" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="S12" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T12" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V12" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W12" t="n">
-        <v>9.25</v>
+        <v>7</v>
       </c>
       <c r="X12" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.75</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="AA12" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="AB12" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="AE12" t="n">
         <v>15</v>
       </c>
       <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>276</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>OEyZdHWi</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Bandirmaspor</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Boluspor</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>dSZtee14</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Sanliurfaspor</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Genclerbirligi</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W14" t="n">
+        <v>8</v>
+      </c>
+      <c r="X14" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>v5vVwY8d</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Veres-Rivne</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Rukh Lviv</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W15" t="n">
+        <v>9</v>
+      </c>
+      <c r="X15" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF15" t="n">
         <v>75</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG15" t="n">
         <v>700</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH15" t="n">
         <v>6.6</v>
       </c>
-      <c r="AI12" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK12" t="n">
+      <c r="AI15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AY15" t="n">
         <v>21</v>
       </c>
-      <c r="AL12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>100</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>45</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>80</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC12" t="n">
+      <c r="AZ15" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC15" t="n">
         <v>81</v>
       </c>
-      <c r="BD12" t="n">
+      <c r="BD15" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD15"/>
+  <dimension ref="A1:BD18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,7 +750,7 @@
         <v>1.4</v>
       </c>
       <c r="H2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
         <v>8</v>
@@ -762,7 +762,7 @@
         <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -777,10 +777,10 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R2" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -849,7 +849,7 @@
         <v>3.25</v>
       </c>
       <c r="AO2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP2" t="n">
         <v>19</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="J3" t="n">
         <v>6.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -980,7 +980,7 @@
         <v>19</v>
       </c>
       <c r="X3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y3" t="n">
         <v>21</v>
@@ -998,7 +998,7 @@
         <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE3" t="n">
         <v>19</v>
@@ -1022,10 +1022,10 @@
         <v>9.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN3" t="n">
         <v>8.5</v>
@@ -1034,7 +1034,7 @@
         <v>34</v>
       </c>
       <c r="AP3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ3" t="n">
         <v>126</v>
@@ -1058,7 +1058,7 @@
         <v>3.4</v>
       </c>
       <c r="AX3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY3" t="n">
         <v>17</v>
@@ -1070,7 +1070,7 @@
         <v>41</v>
       </c>
       <c r="BB3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC3" t="n">
         <v>151</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>b9yv0rWH</t>
+          <t>23J5EsoB</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,160 +1284,160 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ASK Voitsberg</t>
+          <t>Liefering</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Admira</t>
+          <t>SK Rapid</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.85</v>
+        <v>1.85</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.93</v>
+        <v>3.45</v>
       </c>
       <c r="J5" t="n">
-        <v>4.25</v>
+        <v>2.35</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>2.42</v>
       </c>
       <c r="L5" t="n">
-        <v>2.57</v>
+        <v>3.7</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>7.3</v>
+        <v>9.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
       <c r="P5" t="n">
-        <v>3.35</v>
+        <v>4.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="R5" t="n">
-        <v>1.88</v>
+        <v>2.55</v>
       </c>
       <c r="S5" t="n">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
       <c r="T5" t="n">
-        <v>2.65</v>
+        <v>3.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.7</v>
+        <v>1.47</v>
       </c>
       <c r="V5" t="n">
-        <v>2.05</v>
+        <v>2.52</v>
       </c>
       <c r="W5" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="X5" t="n">
         <v>12</v>
       </c>
-      <c r="X5" t="n">
-        <v>22</v>
-      </c>
       <c r="Y5" t="n">
-        <v>12.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z5" t="n">
-        <v>60</v>
+        <v>17.5</v>
       </c>
       <c r="AA5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF5" t="n">
         <v>35</v>
       </c>
-      <c r="AB5" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>55</v>
-      </c>
       <c r="AG5" t="n">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.4</v>
+        <v>16.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>9.5</v>
+        <v>23</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8.25</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="AL5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AM5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.7</v>
+        <v>4.2</v>
       </c>
       <c r="AO5" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="AQ5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS5" t="n">
         <v>120</v>
       </c>
-      <c r="AR5" t="n">
-        <v>150</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>350</v>
-      </c>
       <c r="AT5" t="n">
-        <v>2.65</v>
+        <v>3.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.85</v>
+        <v>5.8</v>
       </c>
       <c r="AX5" t="n">
-        <v>10.25</v>
+        <v>17.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="BA5" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="BB5" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="BC5" t="n">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="BD5" t="n">
         <v>81</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>23J5EsoB</t>
+          <t>tvOXsCw3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>AUSTRIA - 2. LIGA</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Liefering</t>
+          <t>Hebar</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SK Rapid</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I6" t="n">
-        <v>3.45</v>
+        <v>1.6</v>
       </c>
       <c r="J6" t="n">
-        <v>2.35</v>
+        <v>6.5</v>
       </c>
       <c r="K6" t="n">
-        <v>2.42</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>3.7</v>
+        <v>2.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W6" t="n">
+        <v>11</v>
+      </c>
+      <c r="X6" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU6" t="n">
         <v>9.5</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="W6" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="X6" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD6" t="n">
+      <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX6" t="n">
         <v>8.5</v>
       </c>
-      <c r="AE6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>175</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI6" t="n">
+      <c r="AY6" t="n">
         <v>23</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="BA6" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="BB6" t="n">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="BC6" t="n">
-        <v>500</v>
+        <v>51</v>
       </c>
       <c r="BD6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>tvOXsCw3</t>
+          <t>foAPxz5e</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hebar</t>
+          <t>Teplice</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>Ceske Budejovice</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>1.67</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I7" t="n">
-        <v>1.55</v>
+        <v>5.25</v>
       </c>
       <c r="J7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
         <v>6.5</v>
       </c>
-      <c r="K7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W7" t="n">
-        <v>12</v>
-      </c>
-      <c r="X7" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AX7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>81</v>
       </c>
-      <c r="AG7" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>26</v>
-      </c>
       <c r="BA7" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
         <v>201</v>
       </c>
       <c r="BC7" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6Rf4zInC</t>
+          <t>CYQvljnL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>RFS</t>
+          <t>Koge</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Riga FC</t>
+          <t>Hvidovre IF</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="H8" t="n">
-        <v>2.95</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.4</v>
+        <v>1.57</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L8" t="n">
-        <v>2.95</v>
+        <v>2.1</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>6.95</v>
+        <v>15</v>
       </c>
       <c r="O8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S8" t="n">
         <v>1.29</v>
       </c>
-      <c r="P8" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.39</v>
-      </c>
       <c r="T8" t="n">
-        <v>2.42</v>
+        <v>3.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="V8" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="W8" t="n">
-        <v>7.4</v>
+        <v>19</v>
       </c>
       <c r="X8" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK8" t="n">
         <v>12</v>
       </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AK8" t="n">
+      <c r="AL8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM8" t="n">
         <v>21</v>
       </c>
-      <c r="AL8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>20</v>
-      </c>
       <c r="AN8" t="n">
-        <v>4.8</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ8" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AR8" t="n">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="AS8" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.42</v>
+        <v>3.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.35</v>
+        <v>3.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AY8" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ8" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="BA8" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="BB8" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="BC8" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CtRrBEgc</t>
+          <t>6Rf4zInC</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>RFS</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Puszcza</t>
+          <t>Riga FC</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.9</v>
+        <v>2.62</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>2.95</v>
       </c>
       <c r="I9" t="n">
-        <v>4.1</v>
+        <v>2.55</v>
       </c>
       <c r="J9" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>4.33</v>
+        <v>3.15</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>6.95</v>
       </c>
       <c r="O9" t="n">
         <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>3.5</v>
+        <v>2.94</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="R9" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T9" t="n">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="U9" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="V9" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X9" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC9" t="n">
         <v>9</v>
       </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>10</v>
-      </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>5.2</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>10.25</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AG9" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AH9" t="n">
-        <v>12</v>
+        <v>7.1</v>
       </c>
       <c r="AI9" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY9" t="n">
         <v>21</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ9" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="BC9" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="BD9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8fZ390QF</t>
+          <t>dKcukrSO</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>S. Wola</t>
+          <t>Perak</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Wisla</t>
+          <t>Johor DT</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.5</v>
+        <v>30</v>
       </c>
       <c r="H10" t="n">
-        <v>4.33</v>
+        <v>8.5</v>
       </c>
       <c r="I10" t="n">
-        <v>1.53</v>
+        <v>1.04</v>
       </c>
       <c r="J10" t="n">
-        <v>5.5</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>2.4</v>
+        <v>3.85</v>
       </c>
       <c r="L10" t="n">
-        <v>2.05</v>
+        <v>1.22</v>
       </c>
       <c r="M10" t="n">
+        <v>41</v>
+      </c>
+      <c r="N10" t="n">
+        <v>26</v>
+      </c>
+      <c r="O10" t="n">
         <v>1.03</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="T10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W10" t="n">
+        <v>120</v>
+      </c>
+      <c r="X10" t="n">
+        <v>600</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>120</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>350</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>350</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>200</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>300</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>450</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>500</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY10" t="n">
         <v>15</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W10" t="n">
-        <v>17</v>
-      </c>
-      <c r="X10" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>17</v>
-      </c>
       <c r="AZ10" t="n">
-        <v>21</v>
+        <v>5.9</v>
       </c>
       <c r="BA10" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="BB10" t="n">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="BC10" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD10" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>hlt5hKGb</t>
+          <t>CtRrBEgc</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,41 +2366,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Puszcza</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="K11" t="n">
         <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -2427,25 +2427,25 @@
         <v>2.75</v>
       </c>
       <c r="U11" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB11" t="n">
         <v>26</v>
@@ -2457,43 +2457,43 @@
         <v>6.5</v>
       </c>
       <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>13</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AK11" t="n">
         <v>41</v>
       </c>
-      <c r="AG11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH11" t="n">
+      <c r="AL11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO11" t="n">
         <v>10</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>12</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
@@ -2511,25 +2511,25 @@
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX11" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AY11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA11" t="n">
         <v>81</v>
       </c>
       <c r="BB11" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC11" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD11" t="n">
         <v>81</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SEI2KIGD</t>
+          <t>8fZ390QF</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,95 +2548,95 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>S. Wola</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="H12" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N12" t="n">
+        <v>15</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T12" t="n">
         <v>3.4</v>
       </c>
-      <c r="I12" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N12" t="n">
-        <v>10</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W12" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="X12" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="Z12" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AA12" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AB12" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
         <v>15</v>
@@ -2645,46 +2645,46 @@
         <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI12" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="AL12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO12" t="n">
         <v>29</v>
       </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>11</v>
-      </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AR12" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS12" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="AU12" t="n">
         <v>8</v>
@@ -2693,34 +2693,34 @@
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="AX12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>21</v>
       </c>
-      <c r="AY12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>67</v>
-      </c>
       <c r="BA12" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB12" t="n">
         <v>101</v>
       </c>
-      <c r="BB12" t="n">
-        <v>201</v>
-      </c>
       <c r="BC12" t="n">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="BD12" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>OEyZdHWi</t>
+          <t>hlt5hKGb</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,134 +2730,134 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="J13" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="R13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U13" t="n">
         <v>1.73</v>
       </c>
-      <c r="S13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.83</v>
-      </c>
       <c r="V13" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="X13" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="n">
         <v>17</v>
       </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
       </c>
       <c r="AE13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI13" t="n">
         <v>17</v>
       </c>
-      <c r="AF13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>21</v>
-      </c>
       <c r="AJ13" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM13" t="n">
         <v>34</v>
       </c>
-      <c r="AM13" t="n">
-        <v>41</v>
-      </c>
       <c r="AN13" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP13" t="n">
         <v>21</v>
       </c>
       <c r="AQ13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR13" t="n">
         <v>51</v>
@@ -2866,43 +2866,43 @@
         <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV13" t="n">
         <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX13" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AY13" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AZ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA13" t="n">
         <v>81</v>
       </c>
-      <c r="BA13" t="n">
-        <v>101</v>
-      </c>
       <c r="BB13" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC13" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD13" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dSZtee14</t>
+          <t>nH2ZGd9c</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,47 +2912,47 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Jedinstvo U.</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>2.35</v>
       </c>
       <c r="K14" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L14" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>6.3</v>
       </c>
       <c r="O14" t="n">
         <v>1.4</v>
@@ -2961,305 +2961,851 @@
         <v>2.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R14" t="n">
         <v>1.62</v>
       </c>
       <c r="S14" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="T14" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="U14" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="V14" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="W14" t="n">
-        <v>8</v>
+        <v>5.7</v>
       </c>
       <c r="X14" t="n">
-        <v>13</v>
+        <v>7.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>29</v>
+        <v>13.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>26</v>
+        <v>15.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.5</v>
+        <v>6.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="AG14" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH14" t="n">
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AJ14" t="n">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="AL14" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>8.75</v>
       </c>
       <c r="AP14" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AQ14" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AR14" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="AS14" t="n">
-        <v>201</v>
+        <v>300</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="AU14" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AV14" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.33</v>
+        <v>6.2</v>
       </c>
       <c r="AX14" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="AY14" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AZ14" t="n">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="BA14" t="n">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="BB14" t="n">
-        <v>201</v>
+        <v>500</v>
       </c>
       <c r="BC14" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD14" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>SEI2KIGD</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Goztepe</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W15" t="n">
+        <v>7</v>
+      </c>
+      <c r="X15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>276</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>OEyZdHWi</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Bandirmaspor</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Boluspor</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W16" t="n">
+        <v>7</v>
+      </c>
+      <c r="X16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>dSZtee14</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Sanliurfaspor</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Genclerbirligi</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>v5vVwY8d</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>10/11/2024</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Veres-Rivne</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Rukh Lviv</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G18" t="n">
         <v>3.3</v>
       </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="H18" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I18" t="n">
         <v>2.22</v>
       </c>
-      <c r="J15" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="L15" t="n">
+      <c r="J18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" t="n">
         <v>2.85</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M18" t="n">
         <v>1.05</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N18" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W18" t="n">
         <v>8.75</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W15" t="n">
+      <c r="X18" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>9</v>
       </c>
-      <c r="X15" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>45</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK15" t="n">
+      <c r="AK18" t="n">
         <v>22</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL18" t="n">
         <v>20</v>
       </c>
-      <c r="AM15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN15" t="n">
+      <c r="AM18" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN18" t="n">
         <v>5.1</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO18" t="n">
         <v>18</v>
       </c>
-      <c r="AP15" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ15" t="n">
+      <c r="AP18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>90</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR18" t="n">
         <v>120</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS18" t="n">
         <v>300</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT18" t="n">
         <v>2.4</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU18" t="n">
         <v>6.9</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV18" t="n">
         <v>65</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AW18" t="n">
         <v>4.05</v>
       </c>
-      <c r="AX15" t="n">
+      <c r="AX18" t="n">
         <v>11.75</v>
       </c>
-      <c r="AY15" t="n">
+      <c r="AY18" t="n">
         <v>21</v>
       </c>
-      <c r="AZ15" t="n">
+      <c r="AZ18" t="n">
         <v>50</v>
       </c>
-      <c r="BA15" t="n">
+      <c r="BA18" t="n">
         <v>90</v>
       </c>
-      <c r="BB15" t="n">
+      <c r="BB18" t="n">
         <v>300</v>
       </c>
-      <c r="BC15" t="n">
+      <c r="BC18" t="n">
         <v>81</v>
       </c>
-      <c r="BD15" t="n">
+      <c r="BD18" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD18"/>
+  <dimension ref="A1:BD24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I2" t="n">
         <v>8</v>
@@ -759,7 +759,7 @@
         <v>1.91</v>
       </c>
       <c r="K2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L2" t="n">
         <v>7.5</v>
@@ -783,10 +783,10 @@
         <v>2.05</v>
       </c>
       <c r="S2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U2" t="n">
         <v>2.05</v>
@@ -801,7 +801,7 @@
         <v>6.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
         <v>9</v>
@@ -855,7 +855,7 @@
         <v>19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
@@ -864,7 +864,7 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU2" t="n">
         <v>9.5</v>
@@ -885,7 +885,7 @@
         <v>151</v>
       </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB2" t="n">
         <v>351</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="J3" t="n">
         <v>6.5</v>
@@ -944,7 +944,7 @@
         <v>2.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -971,43 +971,43 @@
         <v>3.4</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X3" t="n">
         <v>34</v>
       </c>
       <c r="Y3" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE3" t="n">
         <v>21</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>19</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH3" t="n">
         <v>7.5</v>
@@ -1016,7 +1016,7 @@
         <v>7</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK3" t="n">
         <v>9.5</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CQ2tj1Gj</t>
+          <t>23J5EsoB</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>06:45</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AUSTRALIA - A-LEAGUE</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Perth Glory</t>
+          <t>Liefering</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Melbourne City</t>
+          <t>SK Rapid</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J4" t="n">
         <v>2.35</v>
       </c>
-      <c r="J4" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K4" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="L4" t="n">
-        <v>2.88</v>
+        <v>3.7</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="W4" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="X4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA4" t="n">
         <v>13</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W4" t="n">
-        <v>12</v>
-      </c>
-      <c r="X4" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>21</v>
-      </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AE4" t="n">
         <v>12</v>
       </c>
       <c r="AF4" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AG4" t="n">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="AL4" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AM4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AN4" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AR4" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AS4" t="n">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.75</v>
+        <v>5.8</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="BA4" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="BB4" t="n">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="BC4" t="n">
-        <v>401</v>
+        <v>500</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>23J5EsoB</t>
+          <t>Y7qgs7z1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AUSTRIA - 2. LIGA</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Liefering</t>
+          <t>Cercle Brugge KSV</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>SK Rapid</t>
+          <t>Anderlecht</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>3.45</v>
+        <v>2.55</v>
       </c>
       <c r="J5" t="n">
-        <v>2.35</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="R5" t="n">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="T5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U5" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="V5" t="n">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="W5" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.5</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AD5" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>12</v>
       </c>
       <c r="AF5" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="AH5" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM5" t="n">
         <v>23</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>25</v>
-      </c>
       <c r="AN5" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AV5" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.8</v>
+        <v>4.75</v>
       </c>
       <c r="AX5" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AY5" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AZ5" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="BA5" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="BB5" t="n">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="BC5" t="n">
-        <v>500</v>
+        <v>401</v>
       </c>
       <c r="BD5" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>tvOXsCw3</t>
+          <t>2Prys2jn</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hebar</t>
+          <t>Waregem</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>RAAL La Louviere</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="J6" t="n">
-        <v>6.5</v>
+        <v>2.63</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>1.88</v>
       </c>
       <c r="R6" t="n">
-        <v>1.65</v>
+        <v>1.98</v>
       </c>
       <c r="S6" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="T6" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="V6" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
+        <v>8</v>
+      </c>
+      <c r="X6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC6" t="n">
         <v>11</v>
       </c>
-      <c r="X6" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y6" t="n">
+      <c r="AD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI6" t="n">
         <v>19</v>
       </c>
-      <c r="Z6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
         <v>34</v>
       </c>
       <c r="AN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU6" t="n">
         <v>7.5</v>
       </c>
-      <c r="AO6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ6" t="n">
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB6" t="n">
         <v>151</v>
       </c>
-      <c r="AR6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>201</v>
-      </c>
       <c r="BC6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>foAPxz5e</t>
+          <t>tvOXsCw3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Teplice</t>
+          <t>Hebar</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ceske Budejovice</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.67</v>
+        <v>5.25</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>5.25</v>
+        <v>1.62</v>
       </c>
       <c r="J7" t="n">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W7" t="n">
         <v>11</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="n">
         <v>7.5</v>
       </c>
-      <c r="X7" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y7" t="n">
+      <c r="AE7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX7" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AY7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA7" t="n">
         <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>101</v>
       </c>
       <c r="BB7" t="n">
         <v>201</v>
       </c>
       <c r="BC7" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="BD7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CYQvljnL</t>
+          <t>foAPxz5e</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1825,174 +1825,174 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Koge</t>
+          <t>Teplice</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Hvidovre IF</t>
+          <t>Ceske Budejovice</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I8" t="n">
         <v>5.25</v>
       </c>
-      <c r="H8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.57</v>
-      </c>
       <c r="J8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L8" t="n">
         <v>5</v>
       </c>
-      <c r="K8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.1</v>
-      </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE8" t="n">
         <v>15</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W8" t="n">
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP8" t="n">
         <v>19</v>
       </c>
-      <c r="X8" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z8" t="n">
+      <c r="AQ8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR8" t="n">
         <v>51</v>
       </c>
-      <c r="AA8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD8" t="n">
+      <c r="AS8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU8" t="n">
         <v>8</v>
       </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO8" t="n">
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX8" t="n">
         <v>26</v>
       </c>
-      <c r="AP8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ8" t="n">
+      <c r="AY8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>81</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="BA8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD8" t="n">
         <v>81</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6Rf4zInC</t>
+          <t>CYQvljnL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>RFS</t>
+          <t>Koge</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Riga FC</t>
+          <t>Hvidovre IF</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.62</v>
+        <v>5.25</v>
       </c>
       <c r="H9" t="n">
-        <v>2.95</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.55</v>
+        <v>1.53</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L9" t="n">
-        <v>3.15</v>
+        <v>2.1</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>6.95</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.29</v>
       </c>
-      <c r="P9" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.39</v>
-      </c>
       <c r="T9" t="n">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="V9" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="W9" t="n">
-        <v>7.6</v>
+        <v>19</v>
       </c>
       <c r="X9" t="n">
-        <v>11.75</v>
+        <v>29</v>
       </c>
       <c r="Y9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD9" t="n">
         <v>8</v>
       </c>
-      <c r="Z9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC9" t="n">
+      <c r="AE9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH9" t="n">
         <v>9</v>
       </c>
-      <c r="AD9" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>7.1</v>
-      </c>
       <c r="AI9" t="n">
-        <v>10.75</v>
+        <v>9</v>
       </c>
       <c r="AJ9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX9" t="n">
         <v>8</v>
       </c>
-      <c r="AK9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>14</v>
-      </c>
       <c r="AY9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>21</v>
       </c>
-      <c r="AZ9" t="n">
-        <v>65</v>
-      </c>
       <c r="BA9" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="BB9" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="BC9" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD9" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dKcukrSO</t>
+          <t>EFrbtCyi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Perak</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Johor DT</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>30</v>
+        <v>1.69</v>
       </c>
       <c r="H10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6</v>
+      </c>
+      <c r="X10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y10" t="n">
         <v>8.5</v>
       </c>
-      <c r="I10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="J10" t="n">
-        <v>20</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M10" t="n">
-        <v>41</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="Z10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX10" t="n">
         <v>26</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P10" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="T10" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W10" t="n">
-        <v>120</v>
-      </c>
-      <c r="X10" t="n">
-        <v>600</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>350</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>350</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>200</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>300</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>120</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>450</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>500</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>3.75</v>
-      </c>
       <c r="AY10" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AZ10" t="n">
-        <v>5.9</v>
+        <v>101</v>
       </c>
       <c r="BA10" t="n">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="BB10" t="n">
-        <v>175</v>
+        <v>301</v>
       </c>
       <c r="BC10" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD10" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CtRrBEgc</t>
+          <t>bXoQehsQ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,170 +2366,170 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Puszcza</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H11" t="n">
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>13</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V11" t="n">
         <v>2.2</v>
       </c>
-      <c r="L11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="W11" t="n">
+        <v>12</v>
+      </c>
+      <c r="X11" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y11" t="n">
         <v>11</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X11" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z11" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AB11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
         <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>51</v>
       </c>
-      <c r="AG11" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>34</v>
-      </c>
       <c r="AR11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS11" t="n">
         <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA11" t="n">
         <v>51</v>
       </c>
-      <c r="AW11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA11" t="n">
+      <c r="BB11" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC11" t="n">
         <v>81</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>501</v>
       </c>
       <c r="BD11" t="n">
         <v>81</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8fZ390QF</t>
+          <t>COwwzBK6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,170 +2548,170 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>S. Wola</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Wisla</t>
+          <t>Preussen Munster</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5.5</v>
+        <v>1.67</v>
       </c>
       <c r="H12" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.55</v>
+        <v>4.75</v>
       </c>
       <c r="J12" t="n">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="K12" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L12" t="n">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O12" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="R12" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="S12" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="V12" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="W12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC12" t="n">
         <v>17</v>
-      </c>
-      <c r="X12" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>13</v>
       </c>
       <c r="AD12" t="n">
         <v>8</v>
       </c>
       <c r="AE12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>15</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AK12" t="n">
         <v>51</v>
       </c>
-      <c r="AG12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ12" t="n">
+      <c r="AL12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO12" t="n">
         <v>8.5</v>
       </c>
-      <c r="AK12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>23</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AR12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU12" t="n">
         <v>7.5</v>
       </c>
-      <c r="AO12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8</v>
-      </c>
       <c r="AV12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>7.5</v>
+        <v>23</v>
       </c>
       <c r="AY12" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="BA12" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB12" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC12" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>hlt5hKGb</t>
+          <t>WQgvYlkJ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,65 +2730,65 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="J13" t="n">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L13" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="R13" t="n">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="S13" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="T13" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="U13" t="n">
         <v>1.73</v>
@@ -2800,28 +2800,28 @@
         <v>8</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AA13" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AB13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="n">
         <v>41</v>
@@ -2830,43 +2830,43 @@
         <v>201</v>
       </c>
       <c r="AH13" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>17</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>12</v>
-      </c>
       <c r="AK13" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AL13" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AP13" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ13" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AR13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS13" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="AU13" t="n">
         <v>8</v>
@@ -2875,22 +2875,22 @@
         <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX13" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AY13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ13" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB13" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC13" t="n">
         <v>81</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>nH2ZGd9c</t>
+          <t>OYkMMmYO</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,179 +2912,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Hannover II</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Jedinstvo U.</t>
+          <t>Ingolstadt</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.75</v>
+        <v>2.88</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="I14" t="n">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="J14" t="n">
-        <v>2.35</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
-        <v>2.07</v>
+        <v>2.5</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>2.63</v>
       </c>
       <c r="M14" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>6.3</v>
+        <v>19</v>
       </c>
       <c r="O14" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P14" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U14" t="n">
         <v>1.4</v>
       </c>
-      <c r="P14" t="n">
+      <c r="V14" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.7</v>
-      </c>
       <c r="W14" t="n">
-        <v>5.7</v>
+        <v>15</v>
       </c>
       <c r="X14" t="n">
-        <v>7.3</v>
+        <v>19</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z14" t="n">
-        <v>13.5</v>
+        <v>34</v>
       </c>
       <c r="AA14" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AB14" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.3</v>
+        <v>21</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="AF14" t="n">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="AG14" t="n">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AI14" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="AM14" t="n">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>8.75</v>
+        <v>15</v>
       </c>
       <c r="AP14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ14" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AR14" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AS14" t="n">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="AV14" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AW14" t="n">
-        <v>6.2</v>
+        <v>4.75</v>
       </c>
       <c r="AX14" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="AY14" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="AZ14" t="n">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="BA14" t="n">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="BB14" t="n">
-        <v>500</v>
+        <v>81</v>
       </c>
       <c r="BC14" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="BD14" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SEI2KIGD</t>
+          <t>6Rf4zInC</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>RFS</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Riga FC</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.8</v>
+        <v>2.02</v>
       </c>
       <c r="J15" t="n">
-        <v>2.6</v>
+        <v>3.95</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="L15" t="n">
-        <v>4.33</v>
+        <v>2.62</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>7.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P15" t="n">
-        <v>3.4</v>
+        <v>2.97</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.03</v>
+        <v>1.87</v>
       </c>
       <c r="R15" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S15" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T15" t="n">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="U15" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="V15" t="n">
-        <v>1.83</v>
+        <v>2.01</v>
       </c>
       <c r="W15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X15" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC15" t="n">
         <v>9</v>
       </c>
-      <c r="Y15" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10</v>
-      </c>
       <c r="AD15" t="n">
-        <v>6.5</v>
+        <v>5.3</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AF15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>100</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>70</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC15" t="n">
         <v>51</v>
       </c>
-      <c r="AG15" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="BD15" t="n">
         <v>51</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>276</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>301</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>OEyZdHWi</t>
+          <t>dKcukrSO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Perak</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Johor DT</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.95</v>
+        <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>8.5</v>
       </c>
       <c r="I16" t="n">
-        <v>3.6</v>
+        <v>1.04</v>
       </c>
       <c r="J16" t="n">
-        <v>2.75</v>
+        <v>20</v>
       </c>
       <c r="K16" t="n">
-        <v>2.1</v>
+        <v>3.85</v>
       </c>
       <c r="L16" t="n">
-        <v>4.33</v>
+        <v>1.22</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>41</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="O16" t="n">
-        <v>1.36</v>
+        <v>1.03</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.1</v>
+        <v>1.17</v>
       </c>
       <c r="R16" t="n">
-        <v>1.7</v>
+        <v>3.82</v>
       </c>
       <c r="S16" t="n">
-        <v>1.44</v>
+        <v>1.12</v>
       </c>
       <c r="T16" t="n">
-        <v>2.63</v>
+        <v>5.3</v>
       </c>
       <c r="U16" t="n">
-        <v>1.83</v>
+        <v>2.79</v>
       </c>
       <c r="V16" t="n">
-        <v>1.83</v>
+        <v>1.42</v>
       </c>
       <c r="W16" t="n">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="X16" t="n">
-        <v>9</v>
+        <v>600</v>
       </c>
       <c r="Y16" t="n">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>350</v>
       </c>
       <c r="AA16" t="n">
-        <v>17</v>
+        <v>500</v>
       </c>
       <c r="AB16" t="n">
-        <v>29</v>
+        <v>350</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.5</v>
+        <v>24</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="AE16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>200</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>300</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>450</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>500</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY16" t="n">
         <v>15</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AZ16" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>24</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>175</v>
+      </c>
+      <c r="BC16" t="n">
         <v>51</v>
       </c>
-      <c r="AG16" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="BD16" t="n">
         <v>51</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dSZtee14</t>
+          <t>CtRrBEgc</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3458,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Puszcza</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="K17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q17" t="n">
         <v>2</v>
       </c>
-      <c r="L17" t="n">
-        <v>3</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N17" t="n">
-        <v>8</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="R17" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S17" t="n">
         <v>1.4</v>
       </c>
-      <c r="P17" t="n">
+      <c r="T17" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="W17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y17" t="n">
         <v>8.5</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>15</v>
       </c>
-      <c r="Y17" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>34</v>
-      </c>
       <c r="AA17" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AB17" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
         <v>6.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF17" t="n">
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH17" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="AI17" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AK17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP17" t="n">
         <v>21</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AQ17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX17" t="n">
         <v>21</v>
       </c>
-      <c r="AM17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP17" t="n">
+      <c r="AY17" t="n">
         <v>29</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AZ17" t="n">
         <v>67</v>
       </c>
-      <c r="AR17" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>41</v>
-      </c>
       <c r="BA17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB17" t="n">
         <v>201</v>
       </c>
       <c r="BC17" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD17" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>v5vVwY8d</t>
+          <t>8fZ390QF</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,172 +3640,1264 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Veres-Rivne</t>
+          <t>S. Wola</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="H18" t="n">
-        <v>2.95</v>
+        <v>4.2</v>
       </c>
       <c r="I18" t="n">
-        <v>2.22</v>
+        <v>1.55</v>
       </c>
       <c r="J18" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L18" t="n">
-        <v>2.85</v>
+        <v>2.05</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>8.6</v>
+        <v>15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>2.6</v>
+        <v>4.33</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="R18" t="n">
-        <v>1.57</v>
+        <v>2.15</v>
       </c>
       <c r="S18" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="T18" t="n">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="U18" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="V18" t="n">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="W18" t="n">
-        <v>8.75</v>
+        <v>17</v>
       </c>
       <c r="X18" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y18" t="n">
         <v>17</v>
       </c>
-      <c r="Y18" t="n">
-        <v>11.5</v>
-      </c>
       <c r="Z18" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AA18" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AB18" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.6</v>
+        <v>13</v>
       </c>
       <c r="AD18" t="n">
-        <v>5.8</v>
+        <v>8</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>700</v>
+        <v>201</v>
       </c>
       <c r="AH18" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AI18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AL18" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AM18" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.1</v>
+        <v>7.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AP18" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AQ18" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="AR18" t="n">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="AS18" t="n">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="AU18" t="n">
-        <v>6.9</v>
+        <v>8</v>
       </c>
       <c r="AV18" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>4.05</v>
+        <v>3.6</v>
       </c>
       <c r="AX18" t="n">
-        <v>11.75</v>
+        <v>7.5</v>
       </c>
       <c r="AY18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ18" t="n">
         <v>21</v>
       </c>
-      <c r="AZ18" t="n">
-        <v>50</v>
-      </c>
       <c r="BA18" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="BB18" t="n">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="BC18" t="n">
         <v>81</v>
       </c>
       <c r="BD18" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>hlt5hKGb</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Pacos Ferreira</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>FC Porto B</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N19" t="n">
+        <v>11</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2</v>
+      </c>
+      <c r="W19" t="n">
+        <v>8</v>
+      </c>
+      <c r="X19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nH2ZGd9c</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Napredak</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Jedinstvo U.</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W20" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="X20" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>35</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>175</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SEI2KIGD</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Goztepe</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N21" t="n">
+        <v>11</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W21" t="n">
+        <v>7</v>
+      </c>
+      <c r="X21" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>276</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>OEyZdHWi</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Bandirmaspor</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Boluspor</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N22" t="n">
+        <v>9</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W22" t="n">
+        <v>7</v>
+      </c>
+      <c r="X22" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>dSZtee14</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Sanliurfaspor</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Genclerbirligi</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N23" t="n">
+        <v>9</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W23" t="n">
+        <v>8</v>
+      </c>
+      <c r="X23" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>v5vVwY8d</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Veres-Rivne</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Rukh Lviv</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W24" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X24" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>100</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD24" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD24"/>
+  <dimension ref="A1:BD31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="H2" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -771,28 +771,28 @@
         <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="R2" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="S2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W2" t="n">
         <v>6.5</v>
@@ -801,10 +801,10 @@
         <v>6.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA2" t="n">
         <v>12</v>
@@ -816,7 +816,7 @@
         <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE2" t="n">
         <v>21</v>
@@ -825,13 +825,13 @@
         <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH2" t="n">
         <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="n">
         <v>21</v>
@@ -846,16 +846,16 @@
         <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP2" t="n">
         <v>19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
@@ -864,19 +864,19 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
@@ -885,10 +885,10 @@
         <v>151</v>
       </c>
       <c r="BA2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
         <v>501</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>23J5EsoB</t>
+          <t>4duqSCvB</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AUSTRIA - 2. LIGA</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Liefering</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SK Rapid</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L4" t="n">
         <v>4</v>
       </c>
-      <c r="I4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.7</v>
-      </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="R4" t="n">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="T4" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
-        <v>2.52</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>11.75</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC4" t="n">
         <v>12</v>
       </c>
-      <c r="Y4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="AD4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE4" t="n">
         <v>13</v>
       </c>
-      <c r="AB4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>12</v>
-      </c>
       <c r="AF4" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="AH4" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AM4" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="BA4" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="BD4" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Y7qgs7z1</t>
+          <t>23J5EsoB</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cercle Brugge KSV</t>
+          <t>Liefering</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Anderlecht</t>
+          <t>SK Rapid</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.55</v>
+        <v>3.45</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>2.35</v>
       </c>
       <c r="K5" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="L5" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P5" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="R5" t="n">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="S5" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="T5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="V5" t="n">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="W5" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AE5" t="n">
         <v>12</v>
       </c>
       <c r="AF5" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AG5" t="n">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="AL5" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AS5" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.75</v>
+        <v>5.8</v>
       </c>
       <c r="AX5" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="BA5" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="BB5" t="n">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="BC5" t="n">
-        <v>401</v>
+        <v>500</v>
       </c>
       <c r="BD5" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2Prys2jn</t>
+          <t>Y7qgs7z1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1461,126 +1461,126 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Waregem</t>
+          <t>Cercle Brugge KSV</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>RAAL La Louviere</t>
+          <t>Anderlecht</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="H6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>15</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T6" t="n">
         <v>3.4</v>
       </c>
-      <c r="I6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="U6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W6" t="n">
         <v>11</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2</v>
-      </c>
-      <c r="W6" t="n">
-        <v>8</v>
-      </c>
       <c r="X6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y6" t="n">
         <v>10</v>
       </c>
-      <c r="Y6" t="n">
-        <v>9</v>
-      </c>
       <c r="Z6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA6" t="n">
         <v>19</v>
       </c>
-      <c r="AA6" t="n">
-        <v>17</v>
-      </c>
       <c r="AB6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AD6" t="n">
         <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AH6" t="n">
         <v>11</v>
       </c>
       <c r="AI6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL6" t="n">
         <v>19</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>26</v>
-      </c>
       <c r="AM6" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ6" t="n">
         <v>41</v>
@@ -1589,46 +1589,46 @@
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY6" t="n">
         <v>19</v>
       </c>
-      <c r="AY6" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>401</v>
+      </c>
+      <c r="BD6" t="n">
         <v>151</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>tvOXsCw3</t>
+          <t>2Prys2jn</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hebar</t>
+          <t>Waregem</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>RAAL La Louviere</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>1.62</v>
+        <v>3.25</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>2.63</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2</v>
+      </c>
+      <c r="W7" t="n">
         <v>8</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC7" t="n">
         <v>11</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AD7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL7" t="n">
         <v>26</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>15</v>
       </c>
       <c r="AM7" t="n">
         <v>34</v>
       </c>
       <c r="AN7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="AP7" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS7" t="n">
         <v>126</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB7" t="n">
         <v>151</v>
       </c>
-      <c r="AS7" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>201</v>
-      </c>
       <c r="BC7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>foAPxz5e</t>
+          <t>AJFlvUxS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Teplice</t>
+          <t>CSKA Sofia</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ceske Budejovice</t>
+          <t>Krumovgrad</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.67</v>
+        <v>1.3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>5.5</v>
       </c>
       <c r="I8" t="n">
-        <v>5.25</v>
+        <v>8.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="K8" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>2.63</v>
       </c>
       <c r="V8" t="n">
-        <v>1.95</v>
+        <v>1.44</v>
       </c>
       <c r="W8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z8" t="n">
         <v>7.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>13</v>
       </c>
       <c r="AA8" t="n">
         <v>13</v>
       </c>
       <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>26</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AK8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU8" t="n">
         <v>11</v>
       </c>
-      <c r="AD8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8</v>
-      </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW8" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="AX8" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AY8" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AZ8" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="BA8" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BC8" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="BD8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CYQvljnL</t>
+          <t>foAPxz5e</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2007,174 +2007,174 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Koge</t>
+          <t>Teplice</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Hvidovre IF</t>
+          <t>Ceske Budejovice</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I9" t="n">
         <v>5.25</v>
       </c>
-      <c r="H9" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.53</v>
-      </c>
       <c r="J9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L9" t="n">
         <v>5</v>
       </c>
-      <c r="K9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.1</v>
-      </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE9" t="n">
         <v>15</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W9" t="n">
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP9" t="n">
         <v>19</v>
       </c>
-      <c r="X9" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD9" t="n">
+      <c r="AQ9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU9" t="n">
         <v>8</v>
       </c>
-      <c r="AE9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX9" t="n">
         <v>26</v>
       </c>
-      <c r="AP9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ9" t="n">
+      <c r="AY9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>81</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="BA9" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD9" t="n">
         <v>81</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EFrbtCyi</t>
+          <t>dxiyacpf</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,170 +2184,170 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Aalborg</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.69</v>
+        <v>2.45</v>
       </c>
       <c r="H10" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N10" t="n">
+        <v>12</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN10" t="n">
         <v>4.5</v>
       </c>
-      <c r="J10" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W10" t="n">
-        <v>6</v>
-      </c>
-      <c r="X10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z10" t="n">
+      <c r="AO10" t="n">
         <v>13</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>451</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>9.5</v>
       </c>
       <c r="AP10" t="n">
         <v>21</v>
       </c>
       <c r="AQ10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
         <v>51</v>
       </c>
       <c r="AS10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB10" t="n">
         <v>151</v>
       </c>
-      <c r="AT10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>301</v>
-      </c>
       <c r="BC10" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD10" t="n">
         <v>151</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bXoQehsQ</t>
+          <t>4vCd6uhK</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,41 +2366,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Randers FC</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
         <v>2.25</v>
       </c>
       <c r="L11" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2415,10 +2415,10 @@
         <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R11" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S11" t="n">
         <v>1.33</v>
@@ -2433,31 +2433,31 @@
         <v>2.2</v>
       </c>
       <c r="W11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AA11" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC11" t="n">
         <v>13</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
         <v>41</v>
@@ -2466,40 +2466,40 @@
         <v>151</v>
       </c>
       <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>9.5</v>
       </c>
-      <c r="AI11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>9</v>
-      </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM11" t="n">
         <v>23</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT11" t="n">
         <v>3.25</v>
@@ -2511,13 +2511,13 @@
         <v>41</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ11" t="n">
         <v>41</v>
@@ -2529,16 +2529,16 @@
         <v>126</v>
       </c>
       <c r="BC11" t="n">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="BD11" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>COwwzBK6</t>
+          <t>CYQvljnL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,47 +2548,47 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Koge</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Preussen Munster</t>
+          <t>Hvidovre IF</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.67</v>
+        <v>5.25</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>4.75</v>
+        <v>1.57</v>
       </c>
       <c r="J12" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
         <v>2.5</v>
       </c>
       <c r="L12" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O12" t="n">
         <v>1.17</v>
@@ -2609,31 +2609,31 @@
         <v>3.5</v>
       </c>
       <c r="U12" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W12" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="X12" t="n">
-        <v>9.5</v>
+        <v>29</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="Z12" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AA12" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD12" t="n">
         <v>8</v>
@@ -2645,43 +2645,43 @@
         <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AI12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO12" t="n">
         <v>26</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AP12" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AQ12" t="n">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="AR12" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AS12" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT12" t="n">
         <v>3.5</v>
@@ -2693,34 +2693,34 @@
         <v>41</v>
       </c>
       <c r="AW12" t="n">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="AX12" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AZ12" t="n">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="BA12" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BB12" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD12" t="n">
         <v>151</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>WQgvYlkJ</t>
+          <t>tlHArU9r</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,107 +2730,107 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="G13" t="n">
         <v>1.55</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I13" t="n">
         <v>5.25</v>
       </c>
       <c r="J13" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K13" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L13" t="n">
+        <v>5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N13" t="n">
+        <v>19</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P13" t="n">
         <v>5.5</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N13" t="n">
-        <v>15</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4.5</v>
-      </c>
       <c r="Q13" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="R13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V13" t="n">
         <v>2.25</v>
       </c>
-      <c r="S13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2</v>
-      </c>
       <c r="W13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X13" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="Y13" t="n">
         <v>8.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB13" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AC13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE13" t="n">
         <v>13</v>
       </c>
-      <c r="AD13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>15</v>
-      </c>
       <c r="AF13" t="n">
         <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2842,67 +2842,67 @@
         <v>51</v>
       </c>
       <c r="AL13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT13" t="n">
         <v>3.75</v>
       </c>
-      <c r="AO13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3.4</v>
-      </c>
       <c r="AU13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW13" t="n">
         <v>7</v>
       </c>
       <c r="AX13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY13" t="n">
         <v>26</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>29</v>
       </c>
       <c r="AZ13" t="n">
         <v>81</v>
       </c>
       <c r="BA13" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB13" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC13" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD13" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>OYkMMmYO</t>
+          <t>EFrbtCyi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2917,174 +2917,174 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hannover II</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ingolstadt</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.88</v>
+        <v>1.73</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="K14" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T14" t="n">
         <v>2.63</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W14" t="n">
+        <v>6</v>
+      </c>
+      <c r="X14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE14" t="n">
         <v>19</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P14" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W14" t="n">
+      <c r="AF14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>15</v>
       </c>
-      <c r="X14" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z14" t="n">
+      <c r="AK14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>34</v>
       </c>
-      <c r="AA14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>41</v>
-      </c>
       <c r="AR14" t="n">
         <v>51</v>
       </c>
       <c r="AS14" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU14" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AV14" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AY14" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AZ14" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="BA14" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BB14" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="BC14" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BD14" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6Rf4zInC</t>
+          <t>SbKGTYio</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>RFS</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Riga FC</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>2.02</v>
+        <v>2.55</v>
       </c>
       <c r="J15" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>2.62</v>
+        <v>3.25</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>7.1</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>2.97</v>
+        <v>3.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="R15" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="S15" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="T15" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="U15" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
-        <v>2.01</v>
+        <v>1.91</v>
       </c>
       <c r="W15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X15" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AA15" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AB15" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AC15" t="n">
         <v>9</v>
       </c>
       <c r="AD15" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AH15" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="AI15" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7.1</v>
+        <v>10</v>
       </c>
       <c r="AK15" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AL15" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AM15" t="n">
-        <v>19.5</v>
+        <v>34</v>
       </c>
       <c r="AN15" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO15" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ15" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AR15" t="n">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="AS15" t="n">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.47</v>
+        <v>2.63</v>
       </c>
       <c r="AU15" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="AV15" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AY15" t="n">
-        <v>17.5</v>
+        <v>26</v>
       </c>
       <c r="AZ15" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="BA15" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="BB15" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="BC15" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD15" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dKcukrSO</t>
+          <t>bXoQehsQ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Perak</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Johor DT</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M16" t="n">
         <v>1.04</v>
       </c>
-      <c r="J16" t="n">
-        <v>20</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M16" t="n">
-        <v>41</v>
-      </c>
       <c r="N16" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="O16" t="n">
-        <v>1.03</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>8.800000000000001</v>
+        <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.17</v>
+        <v>1.83</v>
       </c>
       <c r="R16" t="n">
-        <v>3.82</v>
+        <v>2.03</v>
       </c>
       <c r="S16" t="n">
-        <v>1.12</v>
+        <v>1.36</v>
       </c>
       <c r="T16" t="n">
-        <v>5.3</v>
+        <v>3</v>
       </c>
       <c r="U16" t="n">
-        <v>2.79</v>
+        <v>1.67</v>
       </c>
       <c r="V16" t="n">
-        <v>1.42</v>
+        <v>2.1</v>
       </c>
       <c r="W16" t="n">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="X16" t="n">
-        <v>600</v>
+        <v>17</v>
       </c>
       <c r="Y16" t="n">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>350</v>
+        <v>29</v>
       </c>
       <c r="AA16" t="n">
-        <v>500</v>
+        <v>23</v>
       </c>
       <c r="AB16" t="n">
-        <v>350</v>
+        <v>29</v>
       </c>
       <c r="AC16" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AD16" t="n">
-        <v>24</v>
+        <v>6.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>600</v>
+        <v>151</v>
       </c>
       <c r="AH16" t="n">
-        <v>10.75</v>
+        <v>9</v>
       </c>
       <c r="AI16" t="n">
-        <v>6.3</v>
+        <v>12</v>
       </c>
       <c r="AJ16" t="n">
-        <v>13.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>5.3</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AM16" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AN16" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="AO16" t="n">
-        <v>300</v>
+        <v>17</v>
       </c>
       <c r="AP16" t="n">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>450</v>
+        <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>500</v>
+        <v>67</v>
       </c>
       <c r="AS16" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="AT16" t="n">
-        <v>5.9</v>
+        <v>3</v>
       </c>
       <c r="AU16" t="n">
-        <v>13.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>3.75</v>
+        <v>12</v>
       </c>
       <c r="AY16" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>5.9</v>
+        <v>41</v>
       </c>
       <c r="BA16" t="n">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="BB16" t="n">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="BC16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CtRrBEgc</t>
+          <t>COwwzBK6</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,158 +3458,158 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Puszcza</t>
+          <t>Preussen Munster</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N17" t="n">
+        <v>17</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T17" t="n">
         <v>3.5</v>
       </c>
-      <c r="I17" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>11</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U17" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="V17" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="X17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y17" t="n">
         <v>8.5</v>
       </c>
       <c r="Z17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>15</v>
       </c>
-      <c r="AA17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>13</v>
-      </c>
       <c r="AK17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL17" t="n">
         <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN17" t="n">
         <v>4</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AP17" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AQ17" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AR17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS17" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ17" t="n">
         <v>67</v>
@@ -3618,10 +3618,10 @@
         <v>81</v>
       </c>
       <c r="BB17" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC17" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BD17" t="n">
         <v>81</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>8fZ390QF</t>
+          <t>WQgvYlkJ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,41 +3640,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>S. Wola</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Wisla</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.5</v>
+        <v>1.55</v>
       </c>
       <c r="H18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
-        <v>1.55</v>
+        <v>5.25</v>
       </c>
       <c r="J18" t="n">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="K18" t="n">
         <v>2.4</v>
       </c>
       <c r="L18" t="n">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
@@ -3683,16 +3683,16 @@
         <v>15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P18" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R18" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S18" t="n">
         <v>1.3</v>
@@ -3701,28 +3701,28 @@
         <v>3.4</v>
       </c>
       <c r="U18" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V18" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="X18" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="Y18" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="AA18" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AB18" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AC18" t="n">
         <v>13</v>
@@ -3734,46 +3734,46 @@
         <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG18" t="n">
         <v>201</v>
       </c>
       <c r="AH18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO18" t="n">
         <v>8</v>
       </c>
-      <c r="AI18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>23</v>
       </c>
-      <c r="AN18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ18" t="n">
+      <c r="AR18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS18" t="n">
         <v>101</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>201</v>
       </c>
       <c r="AT18" t="n">
         <v>3.4</v>
@@ -3785,22 +3785,22 @@
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="AX18" t="n">
-        <v>7.5</v>
+        <v>26</v>
       </c>
       <c r="AY18" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AZ18" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="BA18" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BB18" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC18" t="n">
         <v>81</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>hlt5hKGb</t>
+          <t>OYkMMmYO</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,170 +3822,170 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Hannover II</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Ingolstadt</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="I19" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="J19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L19" t="n">
         <v>2.75</v>
       </c>
-      <c r="K19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4</v>
-      </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
+        <v>19</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P19" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W19" t="n">
+        <v>15</v>
+      </c>
+      <c r="X19" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y19" t="n">
         <v>11</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2</v>
-      </c>
-      <c r="W19" t="n">
+      <c r="Z19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD19" t="n">
         <v>8</v>
       </c>
-      <c r="X19" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z19" t="n">
+      <c r="AE19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM19" t="n">
         <v>19</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AN19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY19" t="n">
         <v>17</v>
       </c>
-      <c r="AB19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM19" t="n">
+      <c r="AZ19" t="n">
         <v>34</v>
       </c>
-      <c r="AN19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>51</v>
-      </c>
       <c r="BA19" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB19" t="n">
         <v>81</v>
       </c>
-      <c r="BB19" t="n">
-        <v>151</v>
-      </c>
       <c r="BC19" t="n">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="BD19" t="n">
         <v>81</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>nH2ZGd9c</t>
+          <t>6Rf4zInC</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,167 +4004,167 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>RFS</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Jedinstvo U.</t>
+          <t>Riga FC</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>4.5</v>
+        <v>2.02</v>
       </c>
       <c r="J20" t="n">
-        <v>2.35</v>
+        <v>3.95</v>
       </c>
       <c r="K20" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>2.62</v>
       </c>
       <c r="M20" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>6.3</v>
+        <v>11.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P20" t="n">
-        <v>2.75</v>
+        <v>3.33</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.2</v>
+        <v>1.87</v>
       </c>
       <c r="R20" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="S20" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="T20" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="U20" t="n">
-        <v>2.05</v>
+        <v>1.76</v>
       </c>
       <c r="V20" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="W20" t="n">
-        <v>5.7</v>
+        <v>9</v>
       </c>
       <c r="X20" t="n">
-        <v>7.3</v>
+        <v>16</v>
       </c>
       <c r="Y20" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AI20" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>25</v>
-      </c>
       <c r="AJ20" t="n">
-        <v>15.5</v>
+        <v>7.1</v>
       </c>
       <c r="AK20" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="AL20" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="AM20" t="n">
-        <v>65</v>
+        <v>19.5</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>8.75</v>
+        <v>20</v>
       </c>
       <c r="AP20" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AQ20" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="AR20" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AS20" t="n">
         <v>300</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.9</v>
+        <v>6.6</v>
       </c>
       <c r="AV20" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AW20" t="n">
-        <v>6.2</v>
+        <v>3.95</v>
       </c>
       <c r="AX20" t="n">
-        <v>28</v>
+        <v>10.5</v>
       </c>
       <c r="AY20" t="n">
-        <v>35</v>
+        <v>17.5</v>
       </c>
       <c r="AZ20" t="n">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="BA20" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="BB20" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="BC20" t="n">
         <v>51</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SEI2KIGD</t>
+          <t>dKcukrSO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,179 +4186,179 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Perak</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Johor DT</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.95</v>
+        <v>32</v>
       </c>
       <c r="H21" t="n">
-        <v>3.5</v>
+        <v>8.25</v>
       </c>
       <c r="I21" t="n">
-        <v>3.8</v>
+        <v>1.04</v>
       </c>
       <c r="J21" t="n">
-        <v>2.6</v>
+        <v>22</v>
       </c>
       <c r="K21" t="n">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="L21" t="n">
-        <v>4.33</v>
+        <v>1.22</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>41</v>
       </c>
       <c r="N21" t="n">
+        <v>26</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P21" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="T21" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W21" t="n">
+        <v>120</v>
+      </c>
+      <c r="X21" t="n">
+        <v>600</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>150</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>350</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>200</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AL21" t="n">
         <v>11</v>
       </c>
-      <c r="O21" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P21" t="n">
+      <c r="AM21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>37</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>350</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>150</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>450</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>500</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>110</v>
+      </c>
+      <c r="AW21" t="n">
         <v>3.4</v>
       </c>
-      <c r="Q21" t="n">
-        <v>2</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W21" t="n">
-        <v>7</v>
-      </c>
-      <c r="X21" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE21" t="n">
+      <c r="AX21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY21" t="n">
         <v>15</v>
       </c>
-      <c r="AF21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ21" t="n">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="BA21" t="n">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="BB21" t="n">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="BC21" t="n">
-        <v>276</v>
+        <v>51</v>
       </c>
       <c r="BD21" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>OEyZdHWi</t>
+          <t>CtRrBEgc</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,95 +4368,95 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Puszcza</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H22" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L22" t="n">
         <v>4.33</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="R22" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="S22" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="T22" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="U22" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V22" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="W22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X22" t="n">
         <v>9</v>
       </c>
       <c r="Y22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z22" t="n">
         <v>17</v>
       </c>
       <c r="AA22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
@@ -4465,13 +4465,13 @@
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ22" t="n">
         <v>13</v>
@@ -4489,13 +4489,13 @@
         <v>4</v>
       </c>
       <c r="AO22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR22" t="n">
         <v>51</v>
@@ -4504,10 +4504,10 @@
         <v>151</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV22" t="n">
         <v>51</v>
@@ -4525,22 +4525,22 @@
         <v>67</v>
       </c>
       <c r="BA22" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB22" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC22" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD22" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>dSZtee14</t>
+          <t>8fZ390QF</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,179 +4550,179 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>S. Wola</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="H23" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="I23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N23" t="n">
+        <v>15</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R23" t="n">
         <v>2.15</v>
       </c>
-      <c r="J23" t="n">
-        <v>4</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="S23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V23" t="n">
         <v>2</v>
       </c>
-      <c r="L23" t="n">
-        <v>3</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N23" t="n">
-        <v>9</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W23" t="n">
+        <v>17</v>
+      </c>
+      <c r="X23" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD23" t="n">
         <v>8</v>
       </c>
-      <c r="X23" t="n">
+      <c r="AE23" t="n">
         <v>15</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="AF23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK23" t="n">
         <v>12</v>
       </c>
-      <c r="Z23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA23" t="n">
+      <c r="AL23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO23" t="n">
         <v>29</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>19</v>
       </c>
       <c r="AP23" t="n">
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR23" t="n">
         <v>101</v>
       </c>
       <c r="AS23" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AX23" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="AY23" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AZ23" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="BA23" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BB23" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="BC23" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD23" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>v5vVwY8d</t>
+          <t>hlt5hKGb</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4737,167 +4737,1441 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Veres-Rivne</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.45</v>
+        <v>2.05</v>
       </c>
       <c r="H24" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>2.12</v>
+        <v>3.5</v>
       </c>
       <c r="J24" t="n">
-        <v>3.9</v>
+        <v>2.75</v>
       </c>
       <c r="K24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N24" t="n">
+        <v>11</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V24" t="n">
         <v>2</v>
       </c>
-      <c r="L24" t="n">
+      <c r="W24" t="n">
+        <v>8</v>
+      </c>
+      <c r="X24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT24" t="n">
         <v>2.75</v>
       </c>
-      <c r="M24" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N24" t="n">
+      <c r="AU24" t="n">
         <v>8</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="W24" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="X24" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AO24" t="n">
+      <c r="AV24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX24" t="n">
         <v>19</v>
       </c>
-      <c r="AP24" t="n">
+      <c r="AY24" t="n">
         <v>26</v>
       </c>
-      <c r="AQ24" t="n">
-        <v>100</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ24" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="BA24" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="BB24" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="BC24" t="n">
         <v>81</v>
       </c>
       <c r="BD24" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>nH2ZGd9c</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Napredak</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Jedinstvo U.</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L25" t="n">
+        <v>5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W25" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="X25" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>28</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>35</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>175</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>r1o3fI1c</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Cordoba</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Castellon</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N26" t="n">
+        <v>12</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>UuUsdS4b</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>10:15</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Sion</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Luzern</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N27" t="n">
+        <v>9</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W27" t="n">
+        <v>8</v>
+      </c>
+      <c r="X27" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>6VAznXIN</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>10:15</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Wil</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Schaffhausen</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N28" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W28" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X28" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>vkpFTMgR</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I29" t="n">
+        <v>6</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L29" t="n">
+        <v>6</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N29" t="n">
+        <v>19</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2</v>
+      </c>
+      <c r="W29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>hfTkgZVG</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Erzurumspor</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>7</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X30" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>v5vVwY8d</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Veres-Rivne</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Rukh Lviv</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N31" t="n">
+        <v>8</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W31" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X31" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>100</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD31" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD31"/>
+  <dimension ref="A1:BD34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,7 +762,7 @@
         <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -777,10 +777,10 @@
         <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="R2" t="n">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -807,7 +807,7 @@
         <v>9.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="n">
         <v>29</v>
@@ -816,7 +816,7 @@
         <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>21</v>
@@ -828,7 +828,7 @@
         <v>401</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
         <v>34</v>
@@ -888,7 +888,7 @@
         <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC2" t="n">
         <v>501</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4duqSCvB</t>
+          <t>tn61bvVr</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,59 +1092,59 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>NETHERLANDS - EREDIVISIE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>G.A. Eagles</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.95</v>
+        <v>2.63</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="J4" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O4" t="n">
         <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S4" t="n">
         <v>1.36</v>
@@ -1153,28 +1153,28 @@
         <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W4" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="X4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y4" t="n">
         <v>10</v>
       </c>
-      <c r="Y4" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
         <v>12</v>
@@ -1183,7 +1183,7 @@
         <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF4" t="n">
         <v>41</v>
@@ -1192,40 +1192,40 @@
         <v>151</v>
       </c>
       <c r="AH4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI4" t="n">
         <v>13</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AJ4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL4" t="n">
         <v>21</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>29</v>
-      </c>
       <c r="AM4" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT4" t="n">
         <v>3</v>
@@ -1237,19 +1237,19 @@
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB4" t="n">
         <v>151</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>23J5EsoB</t>
+          <t>pGKV307L</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AUSTRIA - 2. LIGA</t>
+          <t>NETHERLANDS - EREDIVISIE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Liefering</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>SK Rapid</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.45</v>
+        <v>2.38</v>
       </c>
       <c r="J5" t="n">
-        <v>2.35</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>4.8</v>
+        <v>4.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="S5" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="T5" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="V5" t="n">
-        <v>2.52</v>
+        <v>2.25</v>
       </c>
       <c r="W5" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.75</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.5</v>
+        <v>29</v>
       </c>
       <c r="AA5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC5" t="n">
         <v>13</v>
       </c>
-      <c r="AB5" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AD5" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
         <v>12</v>
       </c>
       <c r="AF5" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="AH5" t="n">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK5" t="n">
         <v>23</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>50</v>
-      </c>
       <c r="AL5" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AV5" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AY5" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AZ5" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="BA5" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="BB5" t="n">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="BC5" t="n">
-        <v>500</v>
+        <v>451</v>
       </c>
       <c r="BD5" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Y7qgs7z1</t>
+          <t>4duqSCvB</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,170 +1456,170 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cercle Brugge KSV</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Anderlecht</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="K6" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA6" t="n">
         <v>15</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W6" t="n">
-        <v>11</v>
-      </c>
-      <c r="X6" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>19</v>
       </c>
       <c r="AB6" t="n">
         <v>23</v>
       </c>
       <c r="AC6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO6" t="n">
         <v>11</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>13</v>
       </c>
       <c r="AP6" t="n">
         <v>19</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AY6" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AZ6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2Prys2jn</t>
+          <t>AFHdRkek</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>AUSTRIA - BUNDESLIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Waregem</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>RAAL La Louviere</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.95</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
-        <v>11</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2</v>
-      </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AB7" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS7" t="n">
         <v>201</v>
       </c>
-      <c r="AH7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ7" t="n">
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX7" t="n">
         <v>12</v>
       </c>
-      <c r="AK7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>19</v>
-      </c>
       <c r="AY7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB7" t="n">
         <v>151</v>
       </c>
       <c r="BC7" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AJFlvUxS</t>
+          <t>vXQQWBXR</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>AUSTRIA - BUNDESLIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CSKA Sofia</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Krumovgrad</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N8" t="n">
+        <v>15</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S8" t="n">
         <v>1.3</v>
       </c>
-      <c r="H8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="T8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>17</v>
+      </c>
+      <c r="X8" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>8.5</v>
       </c>
-      <c r="J8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="AK8" t="n">
         <v>13</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P8" t="n">
+      <c r="AL8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT8" t="n">
         <v>3.4</v>
       </c>
-      <c r="Q8" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z8" t="n">
+      <c r="AU8" t="n">
         <v>7.5</v>
       </c>
-      <c r="AA8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH8" t="n">
+      <c r="AV8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY8" t="n">
         <v>17</v>
       </c>
-      <c r="AI8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ8" t="n">
+      <c r="AZ8" t="n">
         <v>26</v>
       </c>
-      <c r="AK8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>301</v>
-      </c>
       <c r="BA8" t="n">
-        <v>301</v>
+        <v>41</v>
       </c>
       <c r="BB8" t="n">
-        <v>501</v>
+        <v>101</v>
       </c>
       <c r="BC8" t="n">
-        <v>51</v>
+        <v>451</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>foAPxz5e</t>
+          <t>23J5EsoB</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,170 +2002,170 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Teplice</t>
+          <t>Liefering</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ceske Budejovice</t>
+          <t>SK Rapid</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="J9" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="K9" t="n">
-        <v>2.25</v>
+        <v>2.42</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="P9" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>1.47</v>
       </c>
       <c r="R9" t="n">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="S9" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="T9" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="V9" t="n">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>11.75</v>
       </c>
       <c r="X9" t="n">
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z9" t="n">
-        <v>13</v>
+        <v>18.5</v>
       </c>
       <c r="AA9" t="n">
         <v>13</v>
       </c>
       <c r="AB9" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>8.25</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>11.75</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="AG9" t="n">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AJ9" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AX9" t="n">
         <v>17</v>
       </c>
-      <c r="AK9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP9" t="n">
+      <c r="AY9" t="n">
         <v>19</v>
       </c>
-      <c r="AQ9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ9" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="BA9" t="n">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="BC9" t="n">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="BD9" t="n">
         <v>81</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dxiyacpf</t>
+          <t>Y7qgs7z1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,95 +2184,95 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>Cercle Brugge KSV</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Aalborg</t>
+          <t>Anderlecht</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L10" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="S10" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="T10" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="U10" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="V10" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="W10" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="X10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA10" t="n">
         <v>19</v>
       </c>
       <c r="AB10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
         <v>12</v>
@@ -2281,10 +2281,10 @@
         <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI10" t="n">
         <v>15</v>
@@ -2293,22 +2293,22 @@
         <v>10</v>
       </c>
       <c r="AK10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO10" t="n">
         <v>13</v>
       </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
@@ -2317,37 +2317,37 @@
         <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT10" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB10" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BC10" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="BD10" t="n">
         <v>151</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4vCd6uhK</t>
+          <t>2Prys2jn</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,95 +2366,95 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Waregem</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Randers FC</t>
+          <t>RAAL La Louviere</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="K11" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q11" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" t="n">
         <v>1.73</v>
       </c>
-      <c r="R11" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.62</v>
-      </c>
       <c r="V11" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
+        <v>8</v>
+      </c>
+      <c r="X11" t="n">
         <v>10</v>
       </c>
-      <c r="X11" t="n">
-        <v>13</v>
-      </c>
       <c r="Y11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB11" t="n">
         <v>26</v>
       </c>
       <c r="AC11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
@@ -2463,31 +2463,31 @@
         <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI11" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL11" t="n">
         <v>26</v>
       </c>
-      <c r="AL11" t="n">
-        <v>19</v>
-      </c>
       <c r="AM11" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
@@ -2502,43 +2502,43 @@
         <v>126</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
         <v>7.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AY11" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC11" t="n">
-        <v>451</v>
+        <v>81</v>
       </c>
       <c r="BD11" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CYQvljnL</t>
+          <t>AJFlvUxS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Koge</t>
+          <t>CSKA Sofia</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Hvidovre IF</t>
+          <t>Krumovgrad</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5.25</v>
+        <v>1.3</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="I12" t="n">
-        <v>1.57</v>
+        <v>8.5</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="K12" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="L12" t="n">
-        <v>2.1</v>
+        <v>9.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.57</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>2.35</v>
+        <v>1.88</v>
       </c>
       <c r="S12" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="T12" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U12" t="n">
-        <v>1.62</v>
+        <v>2.63</v>
       </c>
       <c r="V12" t="n">
-        <v>2.2</v>
+        <v>1.44</v>
       </c>
       <c r="W12" t="n">
-        <v>19</v>
+        <v>5.5</v>
       </c>
       <c r="X12" t="n">
-        <v>29</v>
+        <v>5.5</v>
       </c>
       <c r="Y12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH12" t="n">
         <v>17</v>
       </c>
-      <c r="Z12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>9</v>
-      </c>
       <c r="AI12" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="AJ12" t="n">
-        <v>8.5</v>
+        <v>26</v>
       </c>
       <c r="AK12" t="n">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="AL12" t="n">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="AM12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP12" t="n">
         <v>21</v>
       </c>
-      <c r="AN12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV12" t="n">
         <v>81</v>
       </c>
-      <c r="AR12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>41</v>
-      </c>
       <c r="AW12" t="n">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="AX12" t="n">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="AY12" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AZ12" t="n">
-        <v>21</v>
+        <v>301</v>
       </c>
       <c r="BA12" t="n">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="BB12" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="BC12" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD12" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>tlHArU9r</t>
+          <t>foAPxz5e</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,107 +2730,107 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>Teplice</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>Ceske Budejovice</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H13" t="n">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J13" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="K13" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="R13" t="n">
-        <v>2.5</v>
+        <v>2.03</v>
       </c>
       <c r="S13" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="T13" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="V13" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="W13" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="X13" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y13" t="n">
         <v>8.5</v>
       </c>
       <c r="Z13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA13" t="n">
         <v>13</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AB13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC13" t="n">
         <v>11</v>
       </c>
-      <c r="AB13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>19</v>
-      </c>
       <c r="AD13" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2842,67 +2842,67 @@
         <v>51</v>
       </c>
       <c r="AL13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN13" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AO13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP13" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AQ13" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AR13" t="n">
         <v>41</v>
       </c>
       <c r="AS13" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW13" t="n">
         <v>7</v>
       </c>
       <c r="AX13" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AY13" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ13" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD13" t="n">
         <v>81</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>EFrbtCyi</t>
+          <t>dxiyacpf</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,170 +2912,170 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Aalborg</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1.73</v>
       </c>
-      <c r="H14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="R14" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN14" t="n">
         <v>4.5</v>
       </c>
-      <c r="J14" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N14" t="n">
-        <v>9</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W14" t="n">
-        <v>6</v>
-      </c>
-      <c r="X14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z14" t="n">
+      <c r="AO14" t="n">
         <v>13</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>451</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>9.5</v>
       </c>
       <c r="AP14" t="n">
         <v>21</v>
       </c>
       <c r="AQ14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR14" t="n">
         <v>51</v>
       </c>
       <c r="AS14" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB14" t="n">
         <v>151</v>
       </c>
-      <c r="AT14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>301</v>
-      </c>
       <c r="BC14" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD14" t="n">
         <v>151</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SbKGTYio</t>
+          <t>4vCd6uhK</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3099,117 +3099,117 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Randers FC</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="H15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N15" t="n">
+        <v>13</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T15" t="n">
         <v>3.25</v>
       </c>
-      <c r="I15" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N15" t="n">
-        <v>9</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="V15" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="W15" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="X15" t="n">
         <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA15" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AB15" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK15" t="n">
         <v>26</v>
       </c>
       <c r="AL15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM15" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AN15" t="n">
         <v>4.75</v>
@@ -3218,55 +3218,55 @@
         <v>15</v>
       </c>
       <c r="AP15" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR15" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS15" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY15" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB15" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC15" t="n">
-        <v>126</v>
+        <v>451</v>
       </c>
       <c r="BD15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>bXoQehsQ</t>
+          <t>CYQvljnL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,95 +3276,95 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Koge</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hvidovre IF</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="I16" t="n">
-        <v>2.25</v>
+        <v>1.57</v>
       </c>
       <c r="J16" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>15</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T16" t="n">
         <v>3.5</v>
       </c>
-      <c r="K16" t="n">
+      <c r="U16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V16" t="n">
         <v>2.2</v>
       </c>
-      <c r="L16" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N16" t="n">
-        <v>12</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W16" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="X16" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y16" t="n">
         <v>17</v>
       </c>
-      <c r="Y16" t="n">
-        <v>11</v>
-      </c>
       <c r="Z16" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AA16" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AB16" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
@@ -3379,76 +3379,76 @@
         <v>9</v>
       </c>
       <c r="AI16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK16" t="n">
         <v>12</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK16" t="n">
+      <c r="AL16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM16" t="n">
         <v>21</v>
       </c>
-      <c r="AL16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>23</v>
-      </c>
       <c r="AN16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO16" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AR16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS16" t="n">
         <v>151</v>
       </c>
       <c r="AT16" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AU16" t="n">
         <v>7.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="AX16" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AY16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ16" t="n">
         <v>21</v>
       </c>
-      <c r="AZ16" t="n">
-        <v>41</v>
-      </c>
       <c r="BA16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB16" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC16" t="n">
         <v>126</v>
       </c>
-      <c r="BC16" t="n">
-        <v>81</v>
-      </c>
       <c r="BD16" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>COwwzBK6</t>
+          <t>tlHArU9r</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,65 +3458,65 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Preussen Munster</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="I17" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J17" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="K17" t="n">
         <v>2.5</v>
       </c>
       <c r="L17" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O17" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R17" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="S17" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T17" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U17" t="n">
         <v>1.57</v>
@@ -3525,7 +3525,7 @@
         <v>2.25</v>
       </c>
       <c r="W17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X17" t="n">
         <v>9.5</v>
@@ -3537,16 +3537,16 @@
         <v>13</v>
       </c>
       <c r="AA17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE17" t="n">
         <v>13</v>
@@ -3558,13 +3558,13 @@
         <v>126</v>
       </c>
       <c r="AH17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>17</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>15</v>
       </c>
       <c r="AK17" t="n">
         <v>51</v>
@@ -3579,22 +3579,22 @@
         <v>4</v>
       </c>
       <c r="AO17" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AP17" t="n">
         <v>15</v>
       </c>
       <c r="AQ17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR17" t="n">
         <v>41</v>
       </c>
       <c r="AS17" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU17" t="n">
         <v>7.5</v>
@@ -3603,7 +3603,7 @@
         <v>41</v>
       </c>
       <c r="AW17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX17" t="n">
         <v>23</v>
@@ -3612,7 +3612,7 @@
         <v>26</v>
       </c>
       <c r="AZ17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA17" t="n">
         <v>81</v>
@@ -3624,13 +3624,13 @@
         <v>351</v>
       </c>
       <c r="BD17" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>WQgvYlkJ</t>
+          <t>EFrbtCyi</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3645,109 +3645,109 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.55</v>
+        <v>1.73</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="I18" t="n">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="J18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K18" t="n">
         <v>2.1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.4</v>
       </c>
       <c r="L18" t="n">
         <v>5.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="P18" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="R18" t="n">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="S18" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="T18" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.73</v>
       </c>
-      <c r="V18" t="n">
-        <v>2</v>
-      </c>
       <c r="W18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AB18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI18" t="n">
         <v>23</v>
       </c>
-      <c r="AC18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE18" t="n">
+      <c r="AJ18" t="n">
         <v>15</v>
       </c>
-      <c r="AF18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>17</v>
-      </c>
       <c r="AK18" t="n">
         <v>51</v>
       </c>
@@ -3758,61 +3758,61 @@
         <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ18" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AR18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS18" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="AU18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX18" t="n">
         <v>26</v>
       </c>
       <c r="AY18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA18" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB18" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC18" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BD18" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OYkMMmYO</t>
+          <t>SbKGTYio</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,77 +3822,77 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Hannover II</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ingolstadt</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H19" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="I19" t="n">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L19" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="P19" t="n">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="Q19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S19" t="n">
         <v>1.44</v>
       </c>
-      <c r="R19" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.25</v>
-      </c>
       <c r="T19" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="U19" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="V19" t="n">
-        <v>2.75</v>
+        <v>1.91</v>
       </c>
       <c r="W19" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="X19" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
         <v>11</v>
@@ -3901,100 +3901,100 @@
         <v>29</v>
       </c>
       <c r="AA19" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AB19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL19" t="n">
         <v>21</v>
       </c>
-      <c r="AC19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>15</v>
-      </c>
       <c r="AM19" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AN19" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO19" t="n">
         <v>15</v>
       </c>
       <c r="AP19" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AQ19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR19" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS19" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AY19" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AZ19" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BA19" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB19" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BC19" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BD19" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6Rf4zInC</t>
+          <t>bXoQehsQ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,179 +4004,179 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>RFS</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Riga FC</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="H20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L20" t="n">
         <v>3</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.62</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>11.4</v>
+        <v>12</v>
       </c>
       <c r="O20" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>3.33</v>
+        <v>3.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="R20" t="n">
-        <v>1.78</v>
+        <v>2.03</v>
       </c>
       <c r="S20" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="T20" t="n">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="U20" t="n">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="V20" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="W20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="Z20" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AA20" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AB20" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AD20" t="n">
-        <v>5.3</v>
+        <v>6.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AF20" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="AH20" t="n">
-        <v>6.4</v>
+        <v>9.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AJ20" t="n">
-        <v>7.1</v>
+        <v>9.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AL20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX20" t="n">
         <v>13</v>
       </c>
-      <c r="AM20" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>100</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AY20" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AZ20" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BA20" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="BB20" t="n">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="BC20" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD20" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>dKcukrSO</t>
+          <t>COwwzBK6</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,179 +4186,179 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Perak</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Johor DT</t>
+          <t>Preussen Munster</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>32</v>
+        <v>1.73</v>
       </c>
       <c r="H21" t="n">
-        <v>8.25</v>
+        <v>3.9</v>
       </c>
       <c r="I21" t="n">
-        <v>1.04</v>
+        <v>4.5</v>
       </c>
       <c r="J21" t="n">
-        <v>22</v>
+        <v>2.25</v>
       </c>
       <c r="K21" t="n">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.22</v>
+        <v>4.5</v>
       </c>
       <c r="M21" t="n">
-        <v>41</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
+        <v>15</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI21" t="n">
         <v>26</v>
       </c>
-      <c r="O21" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P21" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="R21" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="T21" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W21" t="n">
-        <v>120</v>
-      </c>
-      <c r="X21" t="n">
-        <v>600</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>150</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>350</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>400</v>
-      </c>
-      <c r="AC21" t="n">
+      <c r="AJ21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY21" t="n">
         <v>23</v>
       </c>
-      <c r="AD21" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>200</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>37</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>350</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>150</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>450</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>500</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>110</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>15</v>
-      </c>
       <c r="AZ21" t="n">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="BA21" t="n">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="BB21" t="n">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="BC21" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BD21" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CtRrBEgc</t>
+          <t>WQgvYlkJ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,170 +4368,170 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Puszcza</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.91</v>
+        <v>1.53</v>
       </c>
       <c r="H22" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N22" t="n">
+        <v>17</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T22" t="n">
         <v>3.5</v>
       </c>
-      <c r="I22" t="n">
-        <v>4</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L22" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N22" t="n">
-        <v>11</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U22" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V22" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W22" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="X22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y22" t="n">
         <v>8.5</v>
       </c>
       <c r="Z22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC22" t="n">
         <v>17</v>
       </c>
-      <c r="AA22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>10</v>
-      </c>
       <c r="AD22" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
       </c>
       <c r="AF22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG22" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AH22" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AI22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ22" t="n">
         <v>21</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>34</v>
-      </c>
       <c r="AR22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS22" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW22" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AX22" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AY22" t="n">
         <v>29</v>
       </c>
       <c r="AZ22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA22" t="n">
         <v>81</v>
       </c>
       <c r="BB22" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC22" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD22" t="n">
         <v>81</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>8fZ390QF</t>
+          <t>OYkMMmYO</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,170 +4550,170 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>S. Wola</t>
+          <t>Hannover II</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Wisla</t>
+          <t>Ingolstadt</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I23" t="n">
-        <v>1.57</v>
+        <v>2.25</v>
       </c>
       <c r="J23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N23" t="n">
+        <v>19</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P23" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W23" t="n">
+        <v>15</v>
+      </c>
+      <c r="X23" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN23" t="n">
         <v>5.5</v>
       </c>
-      <c r="K23" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N23" t="n">
-        <v>15</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2</v>
-      </c>
-      <c r="W23" t="n">
+      <c r="AO23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP23" t="n">
         <v>17</v>
       </c>
-      <c r="X23" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK23" t="n">
+      <c r="AQ23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX23" t="n">
         <v>12</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>7.5</v>
       </c>
       <c r="AY23" t="n">
         <v>17</v>
       </c>
       <c r="AZ23" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="BA23" t="n">
         <v>41</v>
       </c>
       <c r="BB23" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC23" t="n">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="BD23" t="n">
         <v>81</v>
@@ -4722,7 +4722,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>hlt5hKGb</t>
+          <t>dKcukrSO</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,179 +4732,179 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Perak</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Johor DT</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.05</v>
+        <v>27</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>7.8</v>
       </c>
       <c r="I24" t="n">
-        <v>3.5</v>
+        <v>1.06</v>
       </c>
       <c r="J24" t="n">
-        <v>2.75</v>
+        <v>17.5</v>
       </c>
       <c r="K24" t="n">
-        <v>2.2</v>
+        <v>3.45</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>1.27</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>41</v>
       </c>
       <c r="N24" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="O24" t="n">
-        <v>1.29</v>
+        <v>1.04</v>
       </c>
       <c r="P24" t="n">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.93</v>
+        <v>1.16</v>
       </c>
       <c r="R24" t="n">
-        <v>1.93</v>
+        <v>3.9</v>
       </c>
       <c r="S24" t="n">
-        <v>1.4</v>
+        <v>1.13</v>
       </c>
       <c r="T24" t="n">
-        <v>2.75</v>
+        <v>5.1</v>
       </c>
       <c r="U24" t="n">
-        <v>1.73</v>
+        <v>2.32</v>
       </c>
       <c r="V24" t="n">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="W24" t="n">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="X24" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>350</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>600</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>250</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AL24" t="n">
         <v>10</v>
       </c>
-      <c r="Y24" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ24" t="n">
+      <c r="AM24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>200</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>100</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>450</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>500</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AU24" t="n">
         <v>12</v>
       </c>
-      <c r="AK24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>8</v>
-      </c>
       <c r="AV24" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AW24" t="n">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="AX24" t="n">
-        <v>19</v>
+        <v>3.9</v>
       </c>
       <c r="AY24" t="n">
-        <v>26</v>
+        <v>14.5</v>
       </c>
       <c r="AZ24" t="n">
-        <v>51</v>
+        <v>6.7</v>
       </c>
       <c r="BA24" t="n">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="BB24" t="n">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="BC24" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD24" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>nH2ZGd9c</t>
+          <t>Ai3AESrh</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,179 +4914,179 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Jagiellonia</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Jedinstvo U.</t>
+          <t>Rakow</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="J25" t="n">
-        <v>2.35</v>
+        <v>3.75</v>
       </c>
       <c r="K25" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L25" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N25" t="n">
+        <v>10</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W25" t="n">
+        <v>10</v>
+      </c>
+      <c r="X25" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN25" t="n">
         <v>5</v>
       </c>
-      <c r="M25" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N25" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W25" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="X25" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG25" t="n">
+      <c r="AO25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS25" t="n">
         <v>201</v>
       </c>
-      <c r="AH25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>300</v>
-      </c>
       <c r="AT25" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="AU25" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AV25" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AW25" t="n">
-        <v>6.2</v>
+        <v>4.33</v>
       </c>
       <c r="AX25" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AY25" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AZ25" t="n">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="BA25" t="n">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="BB25" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="BC25" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD25" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>r1o3fI1c</t>
+          <t>8fZ390QF</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,47 +5096,47 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>S. Wola</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>5.75</v>
       </c>
       <c r="H26" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="I26" t="n">
-        <v>3.2</v>
+        <v>1.53</v>
       </c>
       <c r="J26" t="n">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="K26" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L26" t="n">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O26" t="n">
         <v>1.22</v>
@@ -5145,121 +5145,121 @@
         <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R26" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S26" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T26" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U26" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="V26" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="W26" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="X26" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL26" t="n">
         <v>12</v>
       </c>
-      <c r="Y26" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z26" t="n">
+      <c r="AM26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ26" t="n">
         <v>21</v>
       </c>
-      <c r="AA26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>51</v>
-      </c>
       <c r="BA26" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BB26" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BC26" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD26" t="n">
         <v>81</v>
@@ -5268,7 +5268,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>UuUsdS4b</t>
+          <t>pMm9mJ3d</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,65 +5278,65 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Leczna</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.4</v>
+        <v>1.73</v>
       </c>
       <c r="H27" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="I27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L27" t="n">
+        <v>5</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N27" t="n">
+        <v>11</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T27" t="n">
         <v>3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N27" t="n">
-        <v>9</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.63</v>
       </c>
       <c r="U27" t="n">
         <v>1.83</v>
@@ -5345,31 +5345,31 @@
         <v>1.83</v>
       </c>
       <c r="W27" t="n">
+        <v>7</v>
+      </c>
+      <c r="X27" t="n">
         <v>8</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Y27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC27" t="n">
         <v>11</v>
       </c>
-      <c r="Y27" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>9</v>
-      </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF27" t="n">
         <v>51</v>
@@ -5378,43 +5378,43 @@
         <v>251</v>
       </c>
       <c r="AH27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO27" t="n">
         <v>9</v>
       </c>
-      <c r="AI27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK27" t="n">
+      <c r="AP27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ27" t="n">
         <v>29</v>
       </c>
-      <c r="AL27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>41</v>
-      </c>
       <c r="AR27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS27" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU27" t="n">
         <v>8</v>
@@ -5423,19 +5423,19 @@
         <v>51</v>
       </c>
       <c r="AW27" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="AX27" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AY27" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ27" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA27" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB27" t="n">
         <v>201</v>
@@ -5450,7 +5450,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6VAznXIN</t>
+          <t>nH2ZGd9c</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5460,167 +5460,167 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Wil</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Schaffhausen</t>
+          <t>Jedinstvo U.</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.95</v>
+        <v>1.52</v>
       </c>
       <c r="H28" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I28" t="n">
-        <v>3.55</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
-        <v>2.57</v>
+        <v>2.07</v>
       </c>
       <c r="K28" t="n">
         <v>2.15</v>
       </c>
       <c r="L28" t="n">
-        <v>3.95</v>
+        <v>6.3</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>7.7</v>
+        <v>6.6</v>
       </c>
       <c r="O28" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="P28" t="n">
-        <v>3.45</v>
+        <v>2.87</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.82</v>
+        <v>2.07</v>
       </c>
       <c r="R28" t="n">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="S28" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="T28" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="U28" t="n">
-        <v>1.7</v>
+        <v>2.12</v>
       </c>
       <c r="V28" t="n">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="W28" t="n">
-        <v>7.8</v>
+        <v>5.6</v>
       </c>
       <c r="X28" t="n">
-        <v>9.75</v>
+        <v>6.4</v>
       </c>
       <c r="Y28" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU28" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>37</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>7.1</v>
-      </c>
       <c r="AV28" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AW28" t="n">
-        <v>5.4</v>
+        <v>7.5</v>
       </c>
       <c r="AX28" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AY28" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="AZ28" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="BA28" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="BB28" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="BC28" t="n">
         <v>51</v>
@@ -5632,7 +5632,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>vkpFTMgR</t>
+          <t>r1o3fI1c</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5647,174 +5647,174 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.45</v>
+        <v>2.05</v>
       </c>
       <c r="H29" t="n">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.95</v>
+        <v>2.63</v>
       </c>
       <c r="K29" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L29" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M29" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N29" t="n">
+        <v>12</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W29" t="n">
+        <v>9</v>
+      </c>
+      <c r="X29" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z29" t="n">
         <v>19</v>
       </c>
-      <c r="O29" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T29" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V29" t="n">
-        <v>2</v>
-      </c>
-      <c r="W29" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X29" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z29" t="n">
+      <c r="AA29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO29" t="n">
         <v>11</v>
       </c>
-      <c r="AA29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH29" t="n">
+      <c r="AP29" t="n">
         <v>19</v>
       </c>
-      <c r="AI29" t="n">
+      <c r="AQ29" t="n">
         <v>34</v>
       </c>
-      <c r="AJ29" t="n">
+      <c r="AR29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX29" t="n">
         <v>19</v>
       </c>
-      <c r="AK29" t="n">
+      <c r="AY29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA29" t="n">
         <v>67</v>
       </c>
-      <c r="AL29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>101</v>
-      </c>
       <c r="BB29" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC29" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BD29" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>hfTkgZVG</t>
+          <t>UuUsdS4b</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5824,74 +5824,74 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H30" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="I30" t="n">
         <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K30" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L30" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M30" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O30" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S30" t="n">
         <v>1.44</v>
       </c>
-      <c r="P30" t="n">
+      <c r="T30" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q30" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V30" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W30" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="X30" t="n">
         <v>11</v>
@@ -5906,97 +5906,97 @@
         <v>21</v>
       </c>
       <c r="AB30" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC30" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD30" t="n">
         <v>6</v>
       </c>
       <c r="AE30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF30" t="n">
         <v>51</v>
       </c>
       <c r="AG30" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI30" t="n">
         <v>15</v>
       </c>
       <c r="AJ30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM30" t="n">
         <v>34</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>41</v>
       </c>
       <c r="AN30" t="n">
         <v>4.33</v>
       </c>
       <c r="AO30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP30" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA30" t="n">
         <v>81</v>
       </c>
-      <c r="AS30" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>101</v>
-      </c>
       <c r="BB30" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC30" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD30" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>v5vVwY8d</t>
+          <t>6VAznXIN</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6006,172 +6006,718 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Veres-Rivne</t>
+          <t>Wil</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>Schaffhausen</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N31" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P31" t="n">
         <v>3.45</v>
       </c>
-      <c r="H31" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N31" t="n">
-        <v>8</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2.6</v>
-      </c>
       <c r="Q31" t="n">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="R31" t="n">
-        <v>1.57</v>
+        <v>1.93</v>
       </c>
       <c r="S31" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="T31" t="n">
-        <v>2.42</v>
+        <v>2.8</v>
       </c>
       <c r="U31" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="V31" t="n">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="W31" t="n">
-        <v>9.25</v>
+        <v>7.8</v>
       </c>
       <c r="X31" t="n">
-        <v>18</v>
+        <v>9.75</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="AA31" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="AB31" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AC31" t="n">
         <v>7.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="AE31" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AG31" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="AH31" t="n">
-        <v>6.3</v>
+        <v>11.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>9.5</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9</v>
+        <v>11.75</v>
       </c>
       <c r="AK31" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AL31" t="n">
-        <v>19.5</v>
+        <v>30</v>
       </c>
       <c r="AM31" t="n">
         <v>35</v>
       </c>
       <c r="AN31" t="n">
-        <v>5.2</v>
+        <v>3.9</v>
       </c>
       <c r="AO31" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AP31" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="AQ31" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AR31" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AS31" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="AU31" t="n">
         <v>7.1</v>
       </c>
       <c r="AV31" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW31" t="n">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="AX31" t="n">
-        <v>11.25</v>
+        <v>19</v>
       </c>
       <c r="AY31" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AZ31" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="BA31" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="BB31" t="n">
         <v>300</v>
       </c>
       <c r="BC31" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>vkpFTMgR</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L32" t="n">
+        <v>6</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N32" t="n">
+        <v>19</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2</v>
+      </c>
+      <c r="W32" t="n">
+        <v>9</v>
+      </c>
+      <c r="X32" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>276</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>hfTkgZVG</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Erzurumspor</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>7</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X33" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR33" t="n">
         <v>81</v>
       </c>
-      <c r="BD31" t="n">
+      <c r="AS33" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>h844hXNk</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Shakhtar Donetsk</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>FK Zorya Luhansk</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I34" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="L34" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N34" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W34" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="X34" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>450</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>175</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>65</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>55</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>500</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>450</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD34" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD27"/>
+  <dimension ref="A1:BD29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2_HT</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2_HT</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3_HT</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3_HT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3_HT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_3-3_HT</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1_HT</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2_HT</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2_HT</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3_HT</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CEnSxfJ0</t>
+          <t>xMovyDqH</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,83 +728,83 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ENGLAND - PREMIER LEAGUE</t>
+          <t>GERMANY - BUNDESLIGA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
+        <v>10</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y2" t="n">
         <v>11</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W2" t="n">
-        <v>12</v>
-      </c>
-      <c r="X2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>12</v>
-      </c>
       <c r="Z2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA2" t="n">
         <v>23</v>
@@ -813,10 +813,10 @@
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -828,31 +828,31 @@
         <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM2" t="n">
         <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO2" t="n">
         <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
@@ -864,7 +864,7 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU2" t="n">
         <v>7.5</v>
@@ -873,34 +873,34 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC2" t="n">
         <v>501</v>
       </c>
-      <c r="AX2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>126</v>
-      </c>
       <c r="BD2" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UkaNveph</t>
+          <t>voUq51fn</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GERMANY - BUNDESLIGA</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.73</v>
+        <v>5.25</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="J3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
         <v>2.3</v>
       </c>
-      <c r="K3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="R3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W3" t="n">
+        <v>11</v>
+      </c>
+      <c r="X3" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL3" t="n">
         <v>15</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W3" t="n">
-        <v>9</v>
-      </c>
-      <c r="X3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>34</v>
       </c>
       <c r="AM3" t="n">
         <v>34</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="AO3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU3" t="n">
         <v>9</v>
       </c>
-      <c r="AP3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AV3" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>401</v>
+        <v>3.6</v>
       </c>
       <c r="AX3" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ3" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="BA3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB3" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BC3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>xMovyDqH</t>
+          <t>CMriQj9N</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>GERMANY - BUNDESLIGA</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
         <v>3.4</v>
       </c>
       <c r="K4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P4" t="n">
         <v>2.2</v>
       </c>
-      <c r="L4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="Q4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X4" t="n">
         <v>10</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2</v>
-      </c>
-      <c r="W4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>15</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH4" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AI4" t="n">
         <v>13</v>
       </c>
-      <c r="AF4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU4" t="n">
         <v>9.5</v>
       </c>
-      <c r="AK4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR4" t="n">
+      <c r="AV4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>67</v>
       </c>
-      <c r="AS4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>23</v>
-      </c>
       <c r="BA4" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BB4" t="n">
-        <v>67</v>
+        <v>401</v>
       </c>
       <c r="BC4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>voUq51fn</t>
+          <t>MXB9rYOi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,53 +1274,53 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Ath Bilbao</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.25</v>
+        <v>4.33</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="J5" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q5" t="n">
         <v>2.2</v>
@@ -1335,37 +1335,37 @@
         <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA5" t="n">
         <v>41</v>
       </c>
       <c r="AB5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>67</v>
@@ -1377,37 +1377,37 @@
         <v>6</v>
       </c>
       <c r="AI5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ5" t="n">
         <v>9</v>
       </c>
       <c r="AK5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
         <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AP5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AS5" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT5" t="n">
         <v>2.5</v>
@@ -1419,25 +1419,25 @@
         <v>67</v>
       </c>
       <c r="AW5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC5" t="n">
         <v>126</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>34</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>201</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CMriQj9N</t>
+          <t>SfSfmjNS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,116 +1456,116 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Central Cordoba</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Estudiantes L.P.</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U6" t="n">
         <v>2.5</v>
       </c>
-      <c r="H6" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.25</v>
-      </c>
       <c r="V6" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AB6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC6" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG6" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH6" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
         <v>34</v>
@@ -1574,52 +1574,52 @@
         <v>51</v>
       </c>
       <c r="AN6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW6" t="n">
         <v>4.33</v>
       </c>
-      <c r="AO6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW6" t="n">
+      <c r="AX6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA6" t="n">
         <v>126</v>
       </c>
-      <c r="AX6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>67</v>
-      </c>
       <c r="BB6" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC6" t="n">
         <v>126</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>401</v>
       </c>
       <c r="BD6" t="n">
         <v>126</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MXB9rYOi</t>
+          <t>K4JJS7L7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1643,165 +1643,165 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Royale Union SG</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ath Bilbao</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.33</v>
+        <v>2.15</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.91</v>
+        <v>3.2</v>
       </c>
       <c r="J7" t="n">
-        <v>4.75</v>
+        <v>2.88</v>
       </c>
       <c r="K7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V7" t="n">
         <v>2.05</v>
       </c>
-      <c r="L7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.75</v>
-      </c>
       <c r="W7" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="X7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
         <v>21</v>
       </c>
-      <c r="Y7" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>41</v>
-      </c>
       <c r="AA7" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AB7" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
         <v>6.5</v>
       </c>
       <c r="AE7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI7" t="n">
         <v>17</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AJ7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA7" t="n">
         <v>67</v>
       </c>
-      <c r="AG7" t="n">
-        <v>451</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>41</v>
-      </c>
       <c r="BB7" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BD7" t="n">
         <v>151</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>K4JJS7L7</t>
+          <t>v9jpqT5l</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1830,160 +1830,160 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Royale Union SG</t>
+          <t>Beerschot VA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Club Brugge KV</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.25</v>
+        <v>7.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>6.25</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>1.29</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>8</v>
       </c>
       <c r="K8" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L8" t="n">
-        <v>3.5</v>
+        <v>1.73</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="R8" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="S8" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="T8" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="V8" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="X8" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD8" t="n">
         <v>12</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AE8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>9</v>
       </c>
-      <c r="Z8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AK8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM8" t="n">
         <v>23</v>
       </c>
-      <c r="AC8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG8" t="n">
+      <c r="AN8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>151</v>
       </c>
-      <c r="AH8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>41</v>
-      </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AS8" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>501</v>
+        <v>3.4</v>
       </c>
       <c r="AX8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY8" t="n">
         <v>15</v>
       </c>
       <c r="AZ8" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="BA8" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="BB8" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BC8" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>v9jpqT5l</t>
+          <t>OxhQKBZq</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2007,174 +2007,174 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Beerschot VA</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Club Brugge KV</t>
+          <t>Patro Eisden</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>7.5</v>
+        <v>2.63</v>
       </c>
       <c r="H9" t="n">
-        <v>6.25</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>1.29</v>
+        <v>2.35</v>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T9" t="n">
         <v>2.75</v>
       </c>
-      <c r="L9" t="n">
+      <c r="U9" t="n">
         <v>1.73</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N9" t="n">
-        <v>19</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.95</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA9" t="n">
         <v>21</v>
       </c>
-      <c r="X9" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>51</v>
-      </c>
       <c r="AB9" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH9" t="n">
         <v>8.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK9" t="n">
-        <v>8.5</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AM9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP9" t="n">
         <v>23</v>
       </c>
-      <c r="AN9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>41</v>
-      </c>
       <c r="AQ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS9" t="n">
         <v>151</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AT9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB9" t="n">
         <v>151</v>
       </c>
-      <c r="AS9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>15</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>34</v>
-      </c>
       <c r="BC9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OxhQKBZq</t>
+          <t>z3jqt0XO</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>CHILE - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>Copiapo</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Patro Eisden</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.63</v>
+        <v>9.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>15</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R10" t="n">
         <v>2.35</v>
       </c>
-      <c r="J10" t="n">
+      <c r="S10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W10" t="n">
+        <v>26</v>
+      </c>
+      <c r="X10" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
         <v>3.4</v>
       </c>
-      <c r="K10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>11</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2</v>
-      </c>
-      <c r="W10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X10" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO10" t="n">
+      <c r="AX10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>15</v>
       </c>
-      <c r="AP10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>23</v>
-      </c>
       <c r="BA10" t="n">
         <v>41</v>
       </c>
       <c r="BB10" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BC10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD10" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Y56rITS7</t>
+          <t>lnlXr2m6</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,143 +2366,143 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CROATIA - HNL</t>
+          <t>CHILE - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>U. De Chile</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Osijek</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="H11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>15</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T11" t="n">
         <v>3.4</v>
       </c>
-      <c r="I11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N11" t="n">
-        <v>10</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U11" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V11" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AA11" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AB11" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE11" t="n">
         <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="n">
         <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AR11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS11" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="AU11" t="n">
         <v>8</v>
@@ -2511,34 +2511,34 @@
         <v>51</v>
       </c>
       <c r="AW11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>81</v>
       </c>
-      <c r="AX11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>29</v>
-      </c>
       <c r="BA11" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB11" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC11" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BD11" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>riIfnK0l</t>
+          <t>EPakFfxI</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Aarhus</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="I12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P12" t="n">
         <v>2.5</v>
       </c>
-      <c r="J12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N12" t="n">
-        <v>10</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
       <c r="Q12" t="n">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="R12" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.67</v>
       </c>
-      <c r="S12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W12" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y12" t="n">
         <v>13</v>
       </c>
-      <c r="Y12" t="n">
-        <v>10</v>
-      </c>
       <c r="Z12" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AA12" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AB12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AE12" t="n">
         <v>17</v>
       </c>
       <c r="AF12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG12" t="n">
         <v>351</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AI12" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AJ12" t="n">
         <v>10</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
         <v>21</v>
       </c>
       <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP12" t="n">
         <v>34</v>
       </c>
-      <c r="AN12" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA12" t="n">
         <v>81</v>
       </c>
-      <c r="AS12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>451</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>51</v>
-      </c>
       <c r="BB12" t="n">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="BC12" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BD12" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>OtMzynX5</t>
+          <t>Y56rITS7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,26 +2730,26 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>CROATIA - HNL</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Orense</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tecnico U.</t>
+          <t>Osijek</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H13" t="n">
         <v>3.3</v>
@@ -2761,79 +2761,79 @@
         <v>2.75</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S13" t="n">
         <v>1.44</v>
       </c>
-      <c r="P13" t="n">
+      <c r="T13" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q13" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="V13" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="W13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z13" t="n">
         <v>17</v>
       </c>
       <c r="AA13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
       </c>
       <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI13" t="n">
         <v>19</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>17</v>
       </c>
       <c r="AJ13" t="n">
         <v>13</v>
@@ -2842,7 +2842,7 @@
         <v>41</v>
       </c>
       <c r="AL13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM13" t="n">
         <v>41</v>
@@ -2851,58 +2851,58 @@
         <v>4</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP13" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ13" t="n">
         <v>41</v>
       </c>
       <c r="AR13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>67</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="BA13" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB13" t="n">
         <v>201</v>
       </c>
-      <c r="AT13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA13" t="n">
+      <c r="BC13" t="n">
         <v>81</v>
       </c>
-      <c r="BB13" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>301</v>
-      </c>
       <c r="BD13" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>G8nEO93C</t>
+          <t>riIfnK0l</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,179 +2912,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Stuttgart II</t>
+          <t>Aarhus</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Unterhaching</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="J14" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L14" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX14" t="n">
         <v>15</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X14" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG14" t="n">
+      <c r="AY14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>451</v>
+      </c>
+      <c r="BD14" t="n">
         <v>151</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>h02NFqht</t>
+          <t>jHL2pbV0</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Kecskemeti TE</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Nordsjaelland</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X15" t="n">
         <v>10</v>
       </c>
-      <c r="H15" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="J15" t="n">
-        <v>8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N15" t="n">
+      <c r="Y15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA15" t="n">
         <v>13</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W15" t="n">
+      <c r="AB15" t="n">
         <v>21</v>
       </c>
-      <c r="X15" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>51</v>
-      </c>
       <c r="AC15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE15" t="n">
         <v>12</v>
       </c>
-      <c r="AD15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>21</v>
-      </c>
       <c r="AF15" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="AH15" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AI15" t="n">
-        <v>6.5</v>
+        <v>23</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AK15" t="n">
-        <v>8.5</v>
+        <v>41</v>
       </c>
       <c r="AL15" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AM15" t="n">
         <v>29</v>
       </c>
       <c r="AN15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO15" t="n">
         <v>9.5</v>
       </c>
-      <c r="AO15" t="n">
-        <v>41</v>
-      </c>
       <c r="AP15" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="AR15" t="n">
-        <v>201</v>
+        <v>41</v>
       </c>
       <c r="AS15" t="n">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU15" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA15" t="n">
         <v>67</v>
       </c>
-      <c r="AW15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>17</v>
-      </c>
       <c r="BB15" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BC15" t="n">
+        <v>401</v>
+      </c>
+      <c r="BD15" t="n">
         <v>151</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>lGTWRra3</t>
+          <t>OtMzynX5</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3281,165 +3281,165 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Netanya</t>
+          <t>Orense</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Maccabi Petah Tikva</t>
+          <t>Tecnico U.</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="J16" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="P16" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="R16" t="n">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="S16" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="T16" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="U16" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="V16" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="W16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X16" t="n">
         <v>9.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB16" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG16" t="n">
-        <v>201</v>
+        <v>1250</v>
       </c>
       <c r="AH16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>12</v>
       </c>
-      <c r="AI16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>13</v>
-      </c>
       <c r="AK16" t="n">
         <v>41</v>
       </c>
       <c r="AL16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN16" t="n">
         <v>4</v>
       </c>
       <c r="AO16" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AP16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX16" t="n">
         <v>21</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AY16" t="n">
         <v>34</v>
       </c>
-      <c r="AR16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ16" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="BA16" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB16" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="BC16" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BD16" t="n">
         <v>51</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>8tSKGIj2</t>
+          <t>G8nEO93C</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,41 +3458,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sakhnin</t>
+          <t>Stuttgart II</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Unterhaching</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="I17" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="J17" t="n">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="K17" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L17" t="n">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -3501,10 +3501,10 @@
         <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q17" t="n">
         <v>1.7</v>
@@ -3519,118 +3519,118 @@
         <v>3.4</v>
       </c>
       <c r="U17" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="V17" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="W17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA17" t="n">
         <v>15</v>
       </c>
-      <c r="X17" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>41</v>
-      </c>
       <c r="AB17" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AC17" t="n">
         <v>15</v>
       </c>
       <c r="AD17" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH17" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AI17" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AK17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO17" t="n">
         <v>11</v>
       </c>
-      <c r="AL17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>29</v>
-      </c>
       <c r="AP17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>34</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AR17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS17" t="n">
         <v>101</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>201</v>
       </c>
       <c r="AT17" t="n">
         <v>3.4</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW17" t="n">
-        <v>51</v>
+        <v>5.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="AY17" t="n">
-        <v>7.5</v>
+        <v>23</v>
       </c>
       <c r="AZ17" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="BA17" t="n">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="BB17" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BC17" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BD17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>hlQMX31k</t>
+          <t>h02NFqht</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,170 +3640,170 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Atlante</t>
+          <t>Kecskemeti TE</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dorados de Sinaloa</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>10</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I18" t="n">
         <v>1.33</v>
       </c>
-      <c r="H18" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>8</v>
       </c>
-      <c r="J18" t="n">
-        <v>1.78</v>
-      </c>
       <c r="K18" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L18" t="n">
-        <v>6.9</v>
+        <v>1.83</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="O18" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="R18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S18" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="T18" t="n">
-        <v>3.28</v>
+        <v>3.25</v>
       </c>
       <c r="U18" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="V18" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W18" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="X18" t="n">
-        <v>6.3</v>
+        <v>41</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.5</v>
+        <v>26</v>
       </c>
       <c r="Z18" t="n">
-        <v>8.25</v>
+        <v>101</v>
       </c>
       <c r="AA18" t="n">
-        <v>11.25</v>
+        <v>67</v>
       </c>
       <c r="AB18" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="AC18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE18" t="n">
         <v>21</v>
       </c>
       <c r="AF18" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="AG18" t="n">
-        <v>800</v>
+        <v>351</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="AI18" t="n">
-        <v>55</v>
+        <v>6.5</v>
       </c>
       <c r="AJ18" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AK18" t="n">
-        <v>200</v>
+        <v>8.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="AM18" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.1</v>
+        <v>9.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>5.8</v>
+        <v>41</v>
       </c>
       <c r="AP18" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="AQ18" t="n">
-        <v>15.5</v>
+        <v>201</v>
       </c>
       <c r="AR18" t="n">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="AS18" t="n">
-        <v>200</v>
+        <v>351</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="AU18" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AW18" t="n">
-        <v>51</v>
+        <v>3.25</v>
       </c>
       <c r="AX18" t="n">
-        <v>8.75</v>
+        <v>6.5</v>
       </c>
       <c r="AY18" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="AZ18" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="BA18" t="n">
-        <v>350</v>
+        <v>41</v>
       </c>
       <c r="BB18" t="n">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="BC18" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="BD18" t="n">
         <v>51</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2iJ65AsH</t>
+          <t>lGTWRra3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,170 +3822,170 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Union Touarga</t>
+          <t>Netanya</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Berkane</t>
+          <t>Maccabi Petah Tikva</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.75</v>
+        <v>1.9</v>
       </c>
       <c r="H19" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="I19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N19" t="n">
+        <v>11</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V19" t="n">
         <v>2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.53</v>
       </c>
       <c r="W19" t="n">
         <v>8</v>
       </c>
       <c r="X19" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="Y19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA19" t="n">
         <v>15</v>
       </c>
-      <c r="Z19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>41</v>
-      </c>
       <c r="AB19" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="AC19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
         <v>5.5</v>
       </c>
-      <c r="AD19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO19" t="n">
+      <c r="AX19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY19" t="n">
         <v>26</v>
       </c>
-      <c r="AP19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AZ19" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB19" t="n">
         <v>151</v>
       </c>
-      <c r="AS19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>81</v>
-      </c>
       <c r="BC19" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BD19" t="n">
         <v>51</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0MixBDln</t>
+          <t>8tSKGIj2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4009,174 +4009,174 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NORWAY - ELITESERIEN</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Sakhnin</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.33</v>
+        <v>4.75</v>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="J20" t="n">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="K20" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L20" t="n">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="R20" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="S20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U20" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V20" t="n">
         <v>1.91</v>
       </c>
       <c r="W20" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="X20" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="Z20" t="n">
-        <v>8.5</v>
+        <v>51</v>
       </c>
       <c r="AA20" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AB20" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AC20" t="n">
         <v>15</v>
       </c>
       <c r="AD20" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="n">
         <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM20" t="n">
         <v>23</v>
       </c>
-      <c r="AI20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK20" t="n">
+      <c r="AN20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>101</v>
       </c>
-      <c r="AL20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN20" t="n">
+      <c r="AR20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT20" t="n">
         <v>3.4</v>
       </c>
-      <c r="AO20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP20" t="n">
+      <c r="AU20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY20" t="n">
         <v>17</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS20" t="n">
+      <c r="AZ20" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB20" t="n">
         <v>101</v>
       </c>
-      <c r="AT20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>151</v>
-      </c>
       <c r="BC20" t="n">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="BD20" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vXfRAprH</t>
+          <t>hlQMX31k</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,179 +4186,179 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Atlante</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Legia</t>
+          <t>Dorados de Sinaloa</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.1</v>
+        <v>1.35</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>4.65</v>
       </c>
       <c r="I21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L21" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N21" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P21" t="n">
         <v>3.6</v>
       </c>
-      <c r="J21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.25</v>
-      </c>
       <c r="Q21" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="R21" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V21" t="n">
         <v>1.7</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.91</v>
       </c>
       <c r="W21" t="n">
         <v>7</v>
       </c>
       <c r="X21" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD21" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y21" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC21" t="n">
+      <c r="AE21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>175</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU21" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>8</v>
-      </c>
       <c r="AV21" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AW21" t="n">
-        <v>81</v>
+        <v>8.25</v>
       </c>
       <c r="AX21" t="n">
-        <v>5.5</v>
+        <v>40</v>
       </c>
       <c r="AY21" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="AZ21" t="n">
-        <v>29</v>
+        <v>300</v>
       </c>
       <c r="BA21" t="n">
-        <v>67</v>
+        <v>300</v>
       </c>
       <c r="BB21" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="BC21" t="n">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="BD21" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0IHCtzVh</t>
+          <t>2iJ65AsH</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,179 +4368,179 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Union Touarga</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Berkane</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="H22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L22" t="n">
         <v>3</v>
       </c>
-      <c r="I22" t="n">
+      <c r="M22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q22" t="n">
         <v>2.88</v>
       </c>
-      <c r="J22" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N22" t="n">
-        <v>7</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.6</v>
-      </c>
       <c r="R22" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="S22" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T22" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U22" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="V22" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="W22" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="X22" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Y22" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Z22" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AA22" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AB22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AD22" t="n">
         <v>6</v>
       </c>
       <c r="AE22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK22" t="n">
         <v>19</v>
       </c>
-      <c r="AF22" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI22" t="n">
+      <c r="AL22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX22" t="n">
         <v>13</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK22" t="n">
+      <c r="AY22" t="n">
         <v>29</v>
       </c>
-      <c r="AL22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>17</v>
-      </c>
       <c r="AZ22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA22" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB22" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BC22" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c r="BD22" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IHA4v55M</t>
+          <t>0MixBDln</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,170 +4550,170 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>NORWAY - ELITESERIEN</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H23" t="n">
         <v>5</v>
       </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
       <c r="I23" t="n">
-        <v>1.62</v>
+        <v>9.5</v>
       </c>
       <c r="J23" t="n">
-        <v>5</v>
+        <v>1.73</v>
       </c>
       <c r="K23" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="L23" t="n">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
+        <v>17</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W23" t="n">
+        <v>8</v>
+      </c>
+      <c r="X23" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC23" t="n">
         <v>15</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T23" t="n">
+      <c r="AD23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN23" t="n">
         <v>3.4</v>
       </c>
-      <c r="U23" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W23" t="n">
+      <c r="AO23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ23" t="n">
         <v>15</v>
       </c>
-      <c r="X23" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>81</v>
-      </c>
       <c r="AR23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS23" t="n">
         <v>101</v>
       </c>
-      <c r="AS23" t="n">
+      <c r="AT23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>151</v>
       </c>
-      <c r="AT23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW23" t="n">
+      <c r="BA23" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC23" t="n">
         <v>501</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>23</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>41</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>101</v>
       </c>
       <c r="BD23" t="n">
         <v>151</v>
@@ -4722,7 +4722,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>WYZgjdUp</t>
+          <t>IHA4v55M</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,179 +4732,179 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.38</v>
+        <v>5</v>
       </c>
       <c r="H24" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>7.5</v>
+        <v>1.62</v>
       </c>
       <c r="J24" t="n">
-        <v>1.83</v>
+        <v>5</v>
       </c>
       <c r="K24" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="L24" t="n">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O24" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P24" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="R24" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="S24" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="T24" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="U24" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V24" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W24" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="X24" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD24" t="n">
         <v>7.5</v>
       </c>
-      <c r="Y24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC24" t="n">
+      <c r="AE24" t="n">
         <v>15</v>
       </c>
-      <c r="AD24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>17</v>
-      </c>
       <c r="AF24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG24" t="n">
         <v>201</v>
       </c>
       <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ24" t="n">
         <v>23</v>
       </c>
-      <c r="AI24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS24" t="n">
+      <c r="BA24" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB24" t="n">
         <v>101</v>
       </c>
-      <c r="AT24" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW24" t="n">
+      <c r="BC24" t="n">
         <v>501</v>
       </c>
-      <c r="AX24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>201</v>
-      </c>
       <c r="BD24" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>fZcRkIPF</t>
+          <t>hW8u48wo</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,170 +4914,170 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Radomlje</t>
+          <t>U. Cluj</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mura</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="H25" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="J25" t="n">
-        <v>2.85</v>
+        <v>3.5</v>
       </c>
       <c r="K25" t="n">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="L25" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="O25" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P25" t="n">
-        <v>2.92</v>
+        <v>2.63</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.07</v>
+        <v>2.4</v>
       </c>
       <c r="R25" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="S25" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="T25" t="n">
-        <v>2.67</v>
+        <v>2.38</v>
       </c>
       <c r="U25" t="n">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="W25" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="X25" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="Y25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z25" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AA25" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AB25" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AC25" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AD25" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AF25" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AG25" t="n">
-        <v>600</v>
+        <v>351</v>
       </c>
       <c r="AH25" t="n">
-        <v>8.75</v>
+        <v>7</v>
       </c>
       <c r="AI25" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AJ25" t="n">
         <v>11</v>
       </c>
       <c r="AK25" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AL25" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AM25" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.15</v>
+        <v>4.75</v>
       </c>
       <c r="AO25" t="n">
-        <v>11.75</v>
+        <v>17</v>
       </c>
       <c r="AP25" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AQ25" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AR25" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS25" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.67</v>
+        <v>2.38</v>
       </c>
       <c r="AU25" t="n">
-        <v>7.1</v>
+        <v>8.5</v>
       </c>
       <c r="AV25" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AW25" t="n">
-        <v>51</v>
+        <v>4.5</v>
       </c>
       <c r="AX25" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AY25" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AZ25" t="n">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="BA25" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BB25" t="n">
-        <v>120</v>
+        <v>251</v>
       </c>
       <c r="BC25" t="n">
-        <v>300</v>
+        <v>51</v>
       </c>
       <c r="BD25" t="n">
         <v>51</v>
@@ -5086,7 +5086,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4tJ2RJXA</t>
+          <t>WYZgjdUp</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,354 +5096,718 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K26" t="n">
         <v>2.6</v>
       </c>
-      <c r="H26" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N26" t="n">
+        <v>17</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V26" t="n">
         <v>2</v>
       </c>
-      <c r="L26" t="n">
+      <c r="W26" t="n">
+        <v>9</v>
+      </c>
+      <c r="X26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN26" t="n">
         <v>3.5</v>
       </c>
-      <c r="M26" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N26" t="n">
-        <v>8</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X26" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE26" t="n">
+      <c r="AO26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP26" t="n">
         <v>15</v>
       </c>
-      <c r="AF26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ26" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="AR26" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AS26" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU26" t="n">
         <v>8.5</v>
       </c>
       <c r="AV26" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW26" t="n">
-        <v>81</v>
+        <v>8.5</v>
       </c>
       <c r="AX26" t="n">
-        <v>4.75</v>
+        <v>34</v>
       </c>
       <c r="AY26" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AZ26" t="n">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="BA26" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BB26" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BC26" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BD26" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>SMMWTz3d</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>SLOVENIA - PRVA LIGA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Primorje</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Celje</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>6</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N27" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W27" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>35</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>250</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>250</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4tJ2RJXA</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Albacete</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>R. Oviedo</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N28" t="n">
+        <v>8</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>CtwKjz1M</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>10/11/2024</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>14:30</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>SPAIN - LALIGA2</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Tenerife</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Levante</t>
         </is>
       </c>
-      <c r="G27" t="n">
+      <c r="G29" t="n">
         <v>2.3</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H29" t="n">
         <v>3.25</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I29" t="n">
         <v>3.1</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J29" t="n">
         <v>3.1</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K29" t="n">
         <v>2</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L29" t="n">
         <v>4</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M29" t="n">
         <v>1.08</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N29" t="n">
         <v>8</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O29" t="n">
         <v>1.4</v>
       </c>
-      <c r="P27" t="n">
+      <c r="P29" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q29" t="n">
         <v>2.3</v>
       </c>
-      <c r="R27" t="n">
+      <c r="R29" t="n">
         <v>1.6</v>
       </c>
-      <c r="S27" t="n">
+      <c r="S29" t="n">
         <v>1.5</v>
       </c>
-      <c r="T27" t="n">
+      <c r="T29" t="n">
         <v>2.5</v>
       </c>
-      <c r="U27" t="n">
+      <c r="U29" t="n">
         <v>2</v>
       </c>
-      <c r="V27" t="n">
+      <c r="V29" t="n">
         <v>1.73</v>
       </c>
-      <c r="W27" t="n">
+      <c r="W29" t="n">
         <v>6.5</v>
       </c>
-      <c r="X27" t="n">
+      <c r="X29" t="n">
         <v>10</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="Y29" t="n">
         <v>10</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="Z29" t="n">
         <v>21</v>
       </c>
-      <c r="AA27" t="n">
+      <c r="AA29" t="n">
         <v>21</v>
       </c>
-      <c r="AB27" t="n">
+      <c r="AB29" t="n">
         <v>34</v>
       </c>
-      <c r="AC27" t="n">
+      <c r="AC29" t="n">
         <v>8</v>
       </c>
-      <c r="AD27" t="n">
+      <c r="AD29" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE27" t="n">
+      <c r="AE29" t="n">
         <v>17</v>
       </c>
-      <c r="AF27" t="n">
+      <c r="AF29" t="n">
         <v>67</v>
       </c>
-      <c r="AG27" t="n">
+      <c r="AG29" t="n">
         <v>351</v>
       </c>
-      <c r="AH27" t="n">
+      <c r="AH29" t="n">
         <v>8</v>
       </c>
-      <c r="AI27" t="n">
+      <c r="AI29" t="n">
         <v>15</v>
       </c>
-      <c r="AJ27" t="n">
+      <c r="AJ29" t="n">
         <v>12</v>
       </c>
-      <c r="AK27" t="n">
+      <c r="AK29" t="n">
         <v>34</v>
       </c>
-      <c r="AL27" t="n">
+      <c r="AL29" t="n">
         <v>29</v>
       </c>
-      <c r="AM27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN27" t="n">
+      <c r="AM29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN29" t="n">
         <v>4.33</v>
       </c>
-      <c r="AO27" t="n">
+      <c r="AO29" t="n">
         <v>13</v>
       </c>
-      <c r="AP27" t="n">
+      <c r="AP29" t="n">
         <v>26</v>
       </c>
-      <c r="AQ27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR27" t="n">
+      <c r="AQ29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR29" t="n">
         <v>67</v>
       </c>
-      <c r="AS27" t="n">
+      <c r="AS29" t="n">
         <v>201</v>
       </c>
-      <c r="AT27" t="n">
+      <c r="AT29" t="n">
         <v>2.5</v>
       </c>
-      <c r="AU27" t="n">
+      <c r="AU29" t="n">
         <v>8.5</v>
       </c>
-      <c r="AV27" t="n">
+      <c r="AV29" t="n">
         <v>67</v>
       </c>
-      <c r="AW27" t="n">
+      <c r="AW29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC29" t="n">
         <v>81</v>
       </c>
-      <c r="AX27" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD27" t="n">
+      <c r="BD29" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD24"/>
+  <dimension ref="A1:BD23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>xMovyDqH</t>
+          <t>b59ZhlYj</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>GERMANY - BUNDESLIGA</t>
+          <t>FRANCE - LIGUE 1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>St Etienne</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.8</v>
+        <v>1.33</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="I2" t="n">
-        <v>2.45</v>
+        <v>7.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>1.73</v>
       </c>
       <c r="K2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N2" t="n">
+        <v>21</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T2" t="n">
+        <v>4</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V2" t="n">
         <v>2.1</v>
       </c>
-      <c r="L2" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="W2" t="n">
+        <v>11</v>
+      </c>
+      <c r="X2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA2" t="n">
         <v>10</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2</v>
-      </c>
-      <c r="W2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X2" t="n">
+      <c r="AB2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>15</v>
       </c>
-      <c r="Y2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z2" t="n">
+      <c r="AR2" t="n">
         <v>29</v>
       </c>
-      <c r="AA2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>67</v>
-      </c>
       <c r="AS2" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="AX2" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AY2" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
         <v>151</v>
       </c>
       <c r="BC2" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CMriQj9N</t>
+          <t>xMovyDqH</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>GERMANY - BUNDESLIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.45</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.3</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.67</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.36</v>
+        <v>1.9</v>
       </c>
       <c r="S3" t="n">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>1.75</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="X3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y3" t="n">
         <v>10</v>
       </c>
-      <c r="Y3" t="n">
-        <v>11</v>
-      </c>
       <c r="Z3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK3" t="n">
         <v>23</v>
       </c>
-      <c r="AA3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>41</v>
-      </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AO3" t="n">
         <v>15</v>
       </c>
       <c r="AP3" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>401</v>
+        <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="BB3" t="n">
-        <v>451</v>
+        <v>151</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MXB9rYOi</t>
+          <t>KtcJltA5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,164 +1092,164 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ath Bilbao</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.33</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>1.91</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L4" t="n">
         <v>4.75</v>
       </c>
-      <c r="K4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.63</v>
-      </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
+        <v>11</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W4" t="n">
+        <v>7</v>
+      </c>
+      <c r="X4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU4" t="n">
         <v>8</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W4" t="n">
-        <v>10</v>
-      </c>
-      <c r="X4" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>451</v>
-      </c>
-      <c r="AH4" t="n">
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
         <v>6</v>
       </c>
-      <c r="AI4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO4" t="n">
+      <c r="AX4" t="n">
         <v>23</v>
       </c>
-      <c r="AP4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ4" t="n">
+      <c r="AY4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>81</v>
       </c>
-      <c r="AR4" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>41</v>
-      </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB4" t="n">
         <v>201</v>
@@ -1258,13 +1258,13 @@
         <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SfSfmjNS</t>
+          <t>QP8QvjOG</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Central Cordoba</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Estudiantes L.P.</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K5" t="n">
-        <v>1.8</v>
+        <v>2.38</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>2.38</v>
       </c>
       <c r="M5" t="n">
-        <v>1.17</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.73</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="Q5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T5" t="n">
         <v>3.4</v>
       </c>
-      <c r="R5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.05</v>
-      </c>
       <c r="U5" t="n">
-        <v>2.5</v>
+        <v>1.62</v>
       </c>
       <c r="V5" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="X5" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="n">
         <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB5" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>4.75</v>
+        <v>15</v>
       </c>
       <c r="AD5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN5" t="n">
         <v>6</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>451</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.75</v>
       </c>
       <c r="AO5" t="n">
         <v>21</v>
       </c>
       <c r="AP5" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS5" t="n">
         <v>151</v>
       </c>
-      <c r="AS5" t="n">
-        <v>501</v>
-      </c>
       <c r="AT5" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="AU5" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AV5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB5" t="n">
         <v>101</v>
       </c>
-      <c r="AW5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>501</v>
-      </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>401</v>
       </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>K4JJS7L7</t>
+          <t>SfSfmjNS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,173 +1456,173 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Royale Union SG</t>
+          <t>Central Cordoba</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Estudiantes L.P.</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="I6" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L6" t="n">
         <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.17</v>
       </c>
       <c r="N6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI6" t="n">
         <v>11</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X6" t="n">
+      <c r="AJ6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU6" t="n">
         <v>11</v>
       </c>
-      <c r="Y6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN6" t="n">
+      <c r="AV6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW6" t="n">
         <v>4.33</v>
       </c>
-      <c r="AO6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>5</v>
-      </c>
       <c r="AX6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA6" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BC6" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
@@ -1657,19 +1657,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
         <v>6.25</v>
       </c>
       <c r="I7" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="J7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L7" t="n">
         <v>1.73</v>
@@ -1681,28 +1681,28 @@
         <v>19</v>
       </c>
       <c r="O7" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S7" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T7" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W7" t="n">
         <v>21</v>
@@ -1711,7 +1711,7 @@
         <v>41</v>
       </c>
       <c r="Y7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z7" t="n">
         <v>101</v>
@@ -1723,37 +1723,37 @@
         <v>51</v>
       </c>
       <c r="AC7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD7" t="n">
         <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF7" t="n">
         <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AH7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ7" t="n">
         <v>9</v>
       </c>
       <c r="AK7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AL7" t="n">
         <v>11</v>
       </c>
       <c r="AM7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN7" t="n">
         <v>10</v>
@@ -1765,31 +1765,31 @@
         <v>41</v>
       </c>
       <c r="AQ7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AR7" t="n">
         <v>151</v>
       </c>
       <c r="AS7" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AX7" t="n">
         <v>6</v>
       </c>
       <c r="AY7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ7" t="n">
         <v>15</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H8" t="n">
         <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1863,16 +1863,16 @@
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -1887,16 +1887,16 @@
         <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X8" t="n">
         <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA8" t="n">
         <v>21</v>
@@ -1920,19 +1920,19 @@
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
         <v>10</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM8" t="n">
         <v>29</v>
@@ -1959,22 +1959,22 @@
         <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
         <v>23</v>
       </c>
       <c r="AZ8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
         <v>67</v>
@@ -2027,7 +2027,7 @@
         <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="J9" t="n">
         <v>7.5</v>
@@ -2036,7 +2036,7 @@
         <v>2.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
@@ -2051,7 +2051,7 @@
         <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R9" t="n">
         <v>2.35</v>
@@ -2203,19 +2203,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="H10" t="n">
         <v>4.2</v>
       </c>
       <c r="I10" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K10" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L10" t="n">
         <v>5.5</v>
@@ -2233,7 +2233,7 @@
         <v>4.33</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R10" t="n">
         <v>2.1</v>
@@ -2260,7 +2260,7 @@
         <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA10" t="n">
         <v>12</v>
@@ -2311,13 +2311,13 @@
         <v>17</v>
       </c>
       <c r="AQ10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR10" t="n">
         <v>41</v>
       </c>
       <c r="AS10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT10" t="n">
         <v>3.25</v>
@@ -2329,7 +2329,7 @@
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX10" t="n">
         <v>29</v>
@@ -2385,19 +2385,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H11" t="n">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="I11" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L11" t="n">
         <v>3.1</v>
@@ -2418,7 +2418,7 @@
         <v>2.6</v>
       </c>
       <c r="R11" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S11" t="n">
         <v>1.57</v>
@@ -2433,10 +2433,10 @@
         <v>1.67</v>
       </c>
       <c r="W11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y11" t="n">
         <v>13</v>
@@ -2478,7 +2478,7 @@
         <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM11" t="n">
         <v>41</v>
@@ -2496,7 +2496,7 @@
         <v>67</v>
       </c>
       <c r="AR11" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS11" t="n">
         <v>351</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="J12" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="K12" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2591,43 +2591,43 @@
         <v>15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="R12" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S12" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U12" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="V12" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="W12" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="X12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB12" t="n">
         <v>21</v>
@@ -2636,46 +2636,46 @@
         <v>15</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH12" t="n">
         <v>15</v>
       </c>
       <c r="AI12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="n">
         <v>23</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>29</v>
-      </c>
       <c r="AM12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO12" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AP12" t="n">
         <v>17</v>
       </c>
       <c r="AQ12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR12" t="n">
         <v>41</v>
@@ -2684,34 +2684,34 @@
         <v>101</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV12" t="n">
         <v>41</v>
       </c>
       <c r="AW12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
         <v>51</v>
       </c>
       <c r="BA12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB12" t="n">
         <v>126</v>
       </c>
       <c r="BC12" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD12" t="n">
         <v>151</v>
@@ -2749,19 +2749,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I13" t="n">
         <v>3.3</v>
       </c>
-      <c r="I13" t="n">
-        <v>3.5</v>
-      </c>
       <c r="J13" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L13" t="n">
         <v>4.33</v>
@@ -2779,40 +2779,40 @@
         <v>2.63</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R13" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S13" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T13" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U13" t="n">
         <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W13" t="n">
         <v>6</v>
       </c>
       <c r="X13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y13" t="n">
         <v>9.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC13" t="n">
         <v>7.5</v>
@@ -2830,13 +2830,13 @@
         <v>1250</v>
       </c>
       <c r="AH13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK13" t="n">
         <v>41</v>
@@ -2851,7 +2851,7 @@
         <v>4</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP13" t="n">
         <v>26</v>
@@ -2860,13 +2860,13 @@
         <v>41</v>
       </c>
       <c r="AR13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS13" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU13" t="n">
         <v>9</v>
@@ -2875,7 +2875,7 @@
         <v>67</v>
       </c>
       <c r="AW13" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX13" t="n">
         <v>21</v>
@@ -2884,7 +2884,7 @@
         <v>34</v>
       </c>
       <c r="AZ13" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA13" t="n">
         <v>101</v>
@@ -2931,13 +2931,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H14" t="n">
         <v>3.75</v>
       </c>
       <c r="I14" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
         <v>2.6</v>
@@ -2967,19 +2967,19 @@
         <v>2.15</v>
       </c>
       <c r="S14" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T14" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U14" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X14" t="n">
         <v>11</v>
@@ -2988,7 +2988,7 @@
         <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
         <v>15</v>
@@ -3021,10 +3021,10 @@
         <v>12</v>
       </c>
       <c r="AK14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM14" t="n">
         <v>29</v>
@@ -3033,7 +3033,7 @@
         <v>4.33</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
         <v>19</v>
@@ -3048,7 +3048,7 @@
         <v>101</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU14" t="n">
         <v>7.5</v>
@@ -3060,7 +3060,7 @@
         <v>5.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY14" t="n">
         <v>23</v>
@@ -3072,7 +3072,7 @@
         <v>67</v>
       </c>
       <c r="BB14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC14" t="n">
         <v>81</v>
@@ -3113,7 +3113,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H15" t="n">
         <v>3.1</v>
@@ -3143,10 +3143,10 @@
         <v>3.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R15" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S15" t="n">
         <v>1.4</v>
@@ -3155,7 +3155,7 @@
         <v>2.75</v>
       </c>
       <c r="U15" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V15" t="n">
         <v>2</v>
@@ -3295,22 +3295,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="H16" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I16" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="J16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K16" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L16" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
@@ -3319,16 +3319,16 @@
         <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R16" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S16" t="n">
         <v>1.3</v>
@@ -3337,22 +3337,22 @@
         <v>3.4</v>
       </c>
       <c r="U16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V16" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y16" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Z16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AA16" t="n">
         <v>41</v>
@@ -3361,31 +3361,31 @@
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="n">
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ16" t="n">
         <v>8.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL16" t="n">
         <v>12</v>
@@ -3394,19 +3394,19 @@
         <v>23</v>
       </c>
       <c r="AN16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO16" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AP16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR16" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS16" t="n">
         <v>201</v>
@@ -3415,28 +3415,28 @@
         <v>3.4</v>
       </c>
       <c r="AU16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY16" t="n">
         <v>17</v>
       </c>
       <c r="AZ16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA16" t="n">
         <v>41</v>
       </c>
       <c r="BB16" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC16" t="n">
         <v>51</v>
@@ -3477,52 +3477,52 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="H17" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="I17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="K17" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="L17" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="O17" t="n">
         <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="Q17" t="n">
         <v>1.6</v>
       </c>
       <c r="R17" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S17" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="T17" t="n">
-        <v>3.34</v>
+        <v>3.25</v>
       </c>
       <c r="U17" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="V17" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="W17" t="n">
         <v>7.1</v>
@@ -3531,25 +3531,25 @@
         <v>6.3</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z17" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA17" t="n">
         <v>11</v>
       </c>
       <c r="AB17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC17" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD17" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AE17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF17" t="n">
         <v>110</v>
@@ -3558,16 +3558,16 @@
         <v>900</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK17" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AL17" t="n">
         <v>100</v>
@@ -3579,13 +3579,13 @@
         <v>3.1</v>
       </c>
       <c r="AO17" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AP17" t="n">
         <v>16</v>
       </c>
       <c r="AQ17" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AR17" t="n">
         <v>45</v>
@@ -3594,7 +3594,7 @@
         <v>250</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AU17" t="n">
         <v>8.75</v>
@@ -3603,10 +3603,10 @@
         <v>80</v>
       </c>
       <c r="AW17" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AX17" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AY17" t="n">
         <v>45</v>
@@ -3659,19 +3659,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="K18" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L18" t="n">
         <v>7.5</v>
@@ -3689,10 +3689,10 @@
         <v>5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="R18" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S18" t="n">
         <v>1.29</v>
@@ -3713,7 +3713,7 @@
         <v>7</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z18" t="n">
         <v>8.5</v>
@@ -3740,19 +3740,19 @@
         <v>251</v>
       </c>
       <c r="AH18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ18" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AK18" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM18" t="n">
         <v>51</v>
@@ -3767,7 +3767,7 @@
         <v>17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR18" t="n">
         <v>41</v>
@@ -3785,7 +3785,7 @@
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AX18" t="n">
         <v>41</v>
@@ -3847,13 +3847,13 @@
         <v>4.2</v>
       </c>
       <c r="I19" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="J19" t="n">
         <v>5</v>
       </c>
       <c r="K19" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L19" t="n">
         <v>2.1</v>
@@ -3862,7 +3862,7 @@
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O19" t="n">
         <v>1.18</v>
@@ -3871,7 +3871,7 @@
         <v>4.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R19" t="n">
         <v>2.3</v>
@@ -3910,7 +3910,7 @@
         <v>15</v>
       </c>
       <c r="AD19" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
@@ -3922,7 +3922,7 @@
         <v>151</v>
       </c>
       <c r="AH19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI19" t="n">
         <v>8.5</v>
@@ -4035,7 +4035,7 @@
         <v>3.75</v>
       </c>
       <c r="K20" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L20" t="n">
         <v>3.6</v>
@@ -4056,7 +4056,7 @@
         <v>2.7</v>
       </c>
       <c r="R20" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S20" t="n">
         <v>1.62</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4tJ2RJXA</t>
+          <t>Q9GJRWJc</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,59 +4368,59 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="H22" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I22" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K22" t="n">
         <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="R22" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="S22" t="n">
         <v>1.5</v>
@@ -4429,34 +4429,34 @@
         <v>2.5</v>
       </c>
       <c r="U22" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V22" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z22" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AA22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
@@ -4468,31 +4468,31 @@
         <v>351</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ22" t="n">
         <v>11</v>
       </c>
       <c r="AK22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP22" t="n">
         <v>29</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>26</v>
       </c>
       <c r="AQ22" t="n">
         <v>51</v>
@@ -4501,7 +4501,7 @@
         <v>81</v>
       </c>
       <c r="AS22" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT22" t="n">
         <v>2.5</v>
@@ -4513,10 +4513,10 @@
         <v>67</v>
       </c>
       <c r="AW22" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY22" t="n">
         <v>29</v>
@@ -4528,19 +4528,19 @@
         <v>81</v>
       </c>
       <c r="BB22" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC22" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD22" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CtwKjz1M</t>
+          <t>rsL9KkC4</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,354 +4550,172 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Charleston</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Tampa Bay</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.3</v>
+        <v>1.88</v>
       </c>
       <c r="H23" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="I23" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="J23" t="n">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L23" t="n">
         <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="R23" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="T23" t="n">
-        <v>2.5</v>
+        <v>2.92</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="V23" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="W23" t="n">
-        <v>6.5</v>
+        <v>8.25</v>
       </c>
       <c r="X23" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Y23" t="n">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="Z23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI23" t="n">
         <v>21</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>15</v>
       </c>
       <c r="AJ23" t="n">
         <v>12</v>
       </c>
       <c r="AK23" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AL23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM23" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AN23" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="AO23" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AP23" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="AQ23" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AR23" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AS23" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.5</v>
+        <v>2.92</v>
       </c>
       <c r="AU23" t="n">
-        <v>8.5</v>
+        <v>6.9</v>
       </c>
       <c r="AV23" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AW23" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="AX23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY23" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AZ23" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="BA23" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="BB23" t="n">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="BC23" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD23" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Q9GJRWJc</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>10/11/2024</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Progreso</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Wanderers</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W24" t="n">
-        <v>8</v>
-      </c>
-      <c r="X24" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD24" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD23"/>
+  <dimension ref="A1:BD22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,16 +753,16 @@
         <v>5.75</v>
       </c>
       <c r="I2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
         <v>1.73</v>
       </c>
       <c r="K2" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
@@ -828,7 +828,7 @@
         <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
         <v>41</v>
@@ -840,7 +840,7 @@
         <v>81</v>
       </c>
       <c r="AL2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
@@ -873,7 +873,7 @@
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AX2" t="n">
         <v>34</v>
@@ -891,7 +891,7 @@
         <v>151</v>
       </c>
       <c r="BC2" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BD2" t="n">
         <v>176</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
@@ -959,10 +959,10 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R3" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -983,13 +983,13 @@
         <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
         <v>29</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
         <v>29</v>
@@ -998,7 +998,7 @@
         <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
         <v>13</v>
@@ -1016,13 +1016,13 @@
         <v>12</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK3" t="n">
         <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM3" t="n">
         <v>29</v>
@@ -1141,10 +1141,10 @@
         <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R4" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S4" t="n">
         <v>1.36</v>
@@ -1299,7 +1299,7 @@
         <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="J5" t="n">
         <v>4.33</v>
@@ -1362,7 +1362,7 @@
         <v>15</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
@@ -1374,7 +1374,7 @@
         <v>151</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI5" t="n">
         <v>10</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>v9jpqT5l</t>
+          <t>O27Vtl0d</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,170 +1638,170 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Beerschot VA</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Club Brugge KV</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>1.22</v>
       </c>
       <c r="H7" t="n">
-        <v>6.25</v>
+        <v>5.25</v>
       </c>
       <c r="I7" t="n">
-        <v>1.27</v>
+        <v>17</v>
       </c>
       <c r="J7" t="n">
-        <v>8.5</v>
+        <v>1.67</v>
       </c>
       <c r="K7" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L7" t="n">
+        <v>11</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>13</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1.73</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N7" t="n">
-        <v>19</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.53</v>
-      </c>
       <c r="R7" t="n">
-        <v>2.4</v>
+        <v>2.08</v>
       </c>
       <c r="S7" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="T7" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="W7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP7" t="n">
         <v>21</v>
       </c>
-      <c r="X7" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD7" t="n">
+      <c r="AQ7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU7" t="n">
         <v>12</v>
       </c>
-      <c r="AE7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG7" t="n">
+      <c r="AV7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>401</v>
       </c>
-      <c r="AH7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>15</v>
-      </c>
       <c r="BA7" t="n">
-        <v>34</v>
+        <v>401</v>
       </c>
       <c r="BB7" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="BC7" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD7" t="n">
         <v>151</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OxhQKBZq</t>
+          <t>v9jpqT5l</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1825,174 +1825,174 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>Beerschot VA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Patro Eisden</t>
+          <t>Club Brugge KV</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.55</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>6.25</v>
       </c>
       <c r="I8" t="n">
-        <v>2.5</v>
+        <v>1.27</v>
       </c>
       <c r="J8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N8" t="n">
+        <v>19</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W8" t="n">
+        <v>21</v>
+      </c>
+      <c r="X8" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
         <v>3.25</v>
       </c>
-      <c r="K8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
-        <v>11</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2</v>
-      </c>
-      <c r="W8" t="n">
-        <v>9</v>
-      </c>
-      <c r="X8" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO8" t="n">
+      <c r="AX8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>15</v>
       </c>
-      <c r="AP8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS8" t="n">
+      <c r="BA8" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD8" t="n">
         <v>151</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>z3jqt0XO</t>
+          <t>OxhQKBZq</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CHILE - PRIMERA DIVISION</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Copiapo</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Patro Eisden</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>9.5</v>
+        <v>2.55</v>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="J9" t="n">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>9</v>
+      </c>
+      <c r="X9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO9" t="n">
         <v>15</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W9" t="n">
-        <v>26</v>
-      </c>
-      <c r="X9" t="n">
-        <v>51</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AA9" t="n">
+      <c r="AP9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR9" t="n">
         <v>67</v>
       </c>
-      <c r="AB9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC9" t="n">
+      <c r="AS9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX9" t="n">
         <v>15</v>
       </c>
-      <c r="AD9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ9" t="n">
+      <c r="AY9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB9" t="n">
         <v>151</v>
       </c>
-      <c r="AR9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>101</v>
-      </c>
       <c r="BC9" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>lnlXr2m6</t>
+          <t>z3jqt0XO</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,169 +2194,169 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>U. De Chile</t>
+          <t>Copiapo</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.53</v>
+        <v>11</v>
       </c>
       <c r="H10" t="n">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="I10" t="n">
-        <v>5.75</v>
+        <v>1.27</v>
       </c>
       <c r="J10" t="n">
-        <v>2.05</v>
+        <v>8.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="L10" t="n">
-        <v>5.5</v>
+        <v>1.73</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
+        <v>17</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W10" t="n">
+        <v>26</v>
+      </c>
+      <c r="X10" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC10" t="n">
         <v>15</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T10" t="n">
+      <c r="AD10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
         <v>3.25</v>
       </c>
-      <c r="U10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W10" t="n">
-        <v>8</v>
-      </c>
-      <c r="X10" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE10" t="n">
+      <c r="AX10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY10" t="n">
         <v>17</v>
       </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS10" t="n">
+      <c r="AZ10" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB10" t="n">
         <v>126</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>201</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
       </c>
       <c r="BD10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EPakFfxI</t>
+          <t>lnlXr2m6</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2371,174 +2371,174 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>CHILE - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>U. De Chile</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H11" t="n">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="I11" t="n">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="K11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>15</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.91</v>
       </c>
-      <c r="L11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD11" t="n">
         <v>8</v>
-      </c>
-      <c r="X11" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>5.5</v>
       </c>
       <c r="AE11" t="n">
         <v>17</v>
       </c>
       <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK11" t="n">
         <v>67</v>
       </c>
-      <c r="AG11" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK11" t="n">
+      <c r="AL11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>21</v>
       </c>
-      <c r="AL11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP11" t="n">
+      <c r="AR11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY11" t="n">
         <v>34</v>
       </c>
-      <c r="AQ11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AZ11" t="n">
         <v>101</v>
       </c>
-      <c r="AS11" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>51</v>
-      </c>
       <c r="BA11" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC11" t="n">
         <v>126</v>
       </c>
       <c r="BD11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jHL2pbV0</t>
+          <t>EPakFfxI</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2553,174 +2553,174 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nordsjaelland</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="I12" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="L12" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="N12" t="n">
+        <v>6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W12" t="n">
+        <v>8</v>
+      </c>
+      <c r="X12" t="n">
         <v>15</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W12" t="n">
-        <v>11</v>
-      </c>
-      <c r="X12" t="n">
-        <v>12</v>
-      </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AA12" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AG12" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AI12" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AL12" t="n">
         <v>23</v>
       </c>
       <c r="AM12" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW12" t="n">
         <v>4.33</v>
       </c>
-      <c r="AO12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AX12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ12" t="n">
         <v>51</v>
       </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB12" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC12" t="n">
         <v>126</v>
       </c>
-      <c r="BC12" t="n">
-        <v>351</v>
-      </c>
       <c r="BD12" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>OtMzynX5</t>
+          <t>jHL2pbV0</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Orense</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tecnico U.</t>
+          <t>Nordsjaelland</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="K13" t="n">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="L13" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>2.63</v>
+        <v>4.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="R13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U13" t="n">
         <v>1.53</v>
       </c>
-      <c r="S13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T13" t="n">
+      <c r="V13" t="n">
         <v>2.38</v>
       </c>
-      <c r="U13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="X13" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB13" t="n">
         <v>21</v>
       </c>
-      <c r="AA13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>41</v>
-      </c>
       <c r="AC13" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI13" t="n">
         <v>19</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>15</v>
       </c>
       <c r="AJ13" t="n">
         <v>12</v>
       </c>
       <c r="AK13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>34</v>
       </c>
-      <c r="AM13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>41</v>
-      </c>
       <c r="AR13" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS13" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="AU13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA13" t="n">
         <v>67</v>
       </c>
-      <c r="AW13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>101</v>
-      </c>
       <c r="BB13" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="BC13" t="n">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="BD13" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>G8nEO93C</t>
+          <t>UJMWySHa</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,47 +2912,47 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Stuttgart II</t>
+          <t>Barcelona SC</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Unterhaching</t>
+          <t>Cumbaya</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.95</v>
+        <v>1.22</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>12</v>
       </c>
       <c r="J14" t="n">
-        <v>2.6</v>
+        <v>1.57</v>
       </c>
       <c r="K14" t="n">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="L14" t="n">
-        <v>3.75</v>
+        <v>12</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O14" t="n">
         <v>1.2</v>
@@ -2967,124 +2967,124 @@
         <v>2.15</v>
       </c>
       <c r="S14" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="T14" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U14" t="n">
-        <v>1.62</v>
+        <v>2.25</v>
       </c>
       <c r="V14" t="n">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="W14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X14" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD14" t="n">
         <v>11</v>
       </c>
-      <c r="Y14" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AE14" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AF14" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AG14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK14" t="n">
         <v>151</v>
       </c>
-      <c r="AH14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>41</v>
-      </c>
       <c r="AL14" t="n">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="AM14" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="AO14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AP14" t="n">
         <v>19</v>
       </c>
       <c r="AQ14" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AR14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS14" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AV14" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="AX14" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AY14" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AZ14" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BA14" t="n">
-        <v>67</v>
+        <v>301</v>
       </c>
       <c r="BB14" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BC14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>lGTWRra3</t>
+          <t>G8nEO93C</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,80 +3094,80 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Netanya</t>
+          <t>Stuttgart II</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Maccabi Petah Tikva</t>
+          <t>Unterhaching</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="I15" t="n">
         <v>3.6</v>
       </c>
       <c r="J15" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L15" t="n">
         <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="R15" t="n">
-        <v>1.93</v>
+        <v>2.15</v>
       </c>
       <c r="S15" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T15" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U15" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="W15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X15" t="n">
         <v>10</v>
       </c>
       <c r="Y15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z15" t="n">
         <v>17</v>
@@ -3176,13 +3176,13 @@
         <v>15</v>
       </c>
       <c r="AB15" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE15" t="n">
         <v>13</v>
@@ -3191,76 +3191,76 @@
         <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI15" t="n">
         <v>21</v>
       </c>
       <c r="AJ15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK15" t="n">
         <v>41</v>
       </c>
       <c r="AL15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM15" t="n">
         <v>29</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>34</v>
       </c>
       <c r="AN15" t="n">
         <v>4</v>
       </c>
       <c r="AO15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP15" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS15" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW15" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX15" t="n">
         <v>19</v>
       </c>
       <c r="AY15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA15" t="n">
         <v>67</v>
       </c>
-      <c r="BA15" t="n">
+      <c r="BB15" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC15" t="n">
         <v>81</v>
       </c>
-      <c r="BB15" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>51</v>
-      </c>
       <c r="BD15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
@@ -3319,16 +3319,16 @@
         <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q16" t="n">
         <v>1.67</v>
       </c>
       <c r="R16" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S16" t="n">
         <v>1.3</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>hlQMX31k</t>
+          <t>0MixBDln</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3458,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>NORWAY - ELITESERIEN</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Atlante</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dorados de Sinaloa</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="H17" t="n">
-        <v>4.85</v>
+        <v>4.75</v>
       </c>
       <c r="I17" t="n">
+        <v>9</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N17" t="n">
+        <v>17</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W17" t="n">
+        <v>8</v>
+      </c>
+      <c r="X17" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z17" t="n">
         <v>8.5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="L17" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N17" t="n">
-        <v>13</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W17" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="X17" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>8</v>
       </c>
       <c r="AA17" t="n">
         <v>11</v>
       </c>
       <c r="AB17" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD17" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AE17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH17" t="n">
         <v>23</v>
       </c>
-      <c r="AF17" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>22</v>
-      </c>
       <c r="AI17" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AJ17" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AK17" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="AL17" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AM17" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AO17" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AP17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR17" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AS17" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AW17" t="n">
         <v>9</v>
       </c>
       <c r="AX17" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AY17" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AZ17" t="n">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="BA17" t="n">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="BB17" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC17" t="n">
         <v>501</v>
       </c>
-      <c r="BC17" t="n">
-        <v>51</v>
-      </c>
       <c r="BD17" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0MixBDln</t>
+          <t>IHA4v55M</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,41 +3640,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NORWAY - ELITESERIEN</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.33</v>
+        <v>5.25</v>
       </c>
       <c r="H18" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="I18" t="n">
-        <v>9</v>
+        <v>1.57</v>
       </c>
       <c r="J18" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L18" t="n">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
@@ -3701,109 +3701,109 @@
         <v>3.5</v>
       </c>
       <c r="U18" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="V18" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="W18" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="X18" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN18" t="n">
         <v>7</v>
       </c>
-      <c r="Y18" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>3.4</v>
-      </c>
       <c r="AO18" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="AP18" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="AR18" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AS18" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT18" t="n">
         <v>3.5</v>
       </c>
       <c r="AU18" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW18" t="n">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="AX18" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="AY18" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AZ18" t="n">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="BA18" t="n">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="BB18" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="BC18" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD18" t="n">
         <v>151</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IHA4v55M</t>
+          <t>hW8u48wo</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,179 +3822,179 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>U. Cluj</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="H19" t="n">
-        <v>4.2</v>
+        <v>2.88</v>
       </c>
       <c r="I19" t="n">
-        <v>1.57</v>
+        <v>2.5</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="L19" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N19" t="n">
-        <v>17</v>
+        <v>6.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.18</v>
+        <v>1.53</v>
       </c>
       <c r="P19" t="n">
-        <v>4.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="R19" t="n">
-        <v>2.3</v>
+        <v>1.44</v>
       </c>
       <c r="S19" t="n">
-        <v>1.29</v>
+        <v>1.62</v>
       </c>
       <c r="T19" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="U19" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="V19" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="W19" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="X19" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY19" t="n">
         <v>29</v>
       </c>
-      <c r="Y19" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>17</v>
-      </c>
       <c r="AZ19" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="BA19" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BB19" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="BC19" t="n">
-        <v>451</v>
+        <v>51</v>
       </c>
       <c r="BD19" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>hW8u48wo</t>
+          <t>SMMWTz3d</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,167 +4004,167 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>U. Cluj</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Celje</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.88</v>
+        <v>6</v>
       </c>
       <c r="H20" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="J20" t="n">
-        <v>3.75</v>
+        <v>5.8</v>
       </c>
       <c r="K20" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R20" t="n">
         <v>1.91</v>
       </c>
-      <c r="L20" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.44</v>
-      </c>
       <c r="S20" t="n">
-        <v>1.62</v>
+        <v>1.39</v>
       </c>
       <c r="T20" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="U20" t="n">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="V20" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="W20" t="n">
-        <v>6.5</v>
+        <v>15.5</v>
       </c>
       <c r="X20" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="Y20" t="n">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="AA20" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AB20" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AC20" t="n">
-        <v>6</v>
+        <v>7.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="AE20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF20" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AG20" t="n">
-        <v>351</v>
+        <v>700</v>
       </c>
       <c r="AH20" t="n">
         <v>6.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>12</v>
+        <v>6.8</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11</v>
+        <v>8.25</v>
       </c>
       <c r="AK20" t="n">
-        <v>29</v>
+        <v>10.25</v>
       </c>
       <c r="AL20" t="n">
-        <v>29</v>
+        <v>12.5</v>
       </c>
       <c r="AM20" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.75</v>
+        <v>7.3</v>
       </c>
       <c r="AO20" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="AP20" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AQ20" t="n">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="AR20" t="n">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AS20" t="n">
-        <v>351</v>
+        <v>500</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="AU20" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AV20" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW20" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="AX20" t="n">
-        <v>17</v>
+        <v>7.2</v>
       </c>
       <c r="AY20" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AZ20" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="BA20" t="n">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="BB20" t="n">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="BC20" t="n">
         <v>51</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SMMWTz3d</t>
+          <t>Q9GJRWJc</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,167 +4186,167 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Celje</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="I21" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>7</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S21" t="n">
         <v>1.5</v>
       </c>
-      <c r="J21" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N21" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R21" t="n">
+      <c r="T21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U21" t="n">
         <v>1.91</v>
       </c>
-      <c r="S21" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.93</v>
-      </c>
       <c r="V21" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W21" t="n">
-        <v>15.5</v>
+        <v>8</v>
       </c>
       <c r="X21" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="Y21" t="n">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="Z21" t="n">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="AA21" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AB21" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="AD21" t="n">
-        <v>7.8</v>
+        <v>5.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>700</v>
+        <v>351</v>
       </c>
       <c r="AH21" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>6.8</v>
+        <v>12</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="AK21" t="n">
-        <v>10.25</v>
+        <v>26</v>
       </c>
       <c r="AL21" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AM21" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>7.3</v>
+        <v>4.75</v>
       </c>
       <c r="AO21" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="AP21" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="AR21" t="n">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="AS21" t="n">
-        <v>500</v>
+        <v>251</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="AU21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV21" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AW21" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="AX21" t="n">
-        <v>7.2</v>
+        <v>15</v>
       </c>
       <c r="AY21" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AZ21" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="BA21" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="BB21" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC21" t="n">
         <v>51</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Q9GJRWJc</t>
+          <t>rsL9KkC4</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,354 +4368,172 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>Charleston</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>Tampa Bay</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.9</v>
+        <v>1.88</v>
       </c>
       <c r="H22" t="n">
-        <v>2.9</v>
+        <v>3.45</v>
       </c>
       <c r="I22" t="n">
-        <v>2.7</v>
+        <v>3.55</v>
       </c>
       <c r="J22" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N22" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P22" t="n">
         <v>3.6</v>
       </c>
-      <c r="K22" t="n">
+      <c r="Q22" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R22" t="n">
         <v>2</v>
       </c>
-      <c r="L22" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N22" t="n">
-        <v>8</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.57</v>
-      </c>
       <c r="S22" t="n">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="T22" t="n">
-        <v>2.5</v>
+        <v>2.92</v>
       </c>
       <c r="U22" t="n">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="V22" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="W22" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="X22" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE22" t="n">
         <v>13</v>
       </c>
-      <c r="Y22" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>15</v>
-      </c>
       <c r="AF22" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AG22" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AH22" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AI22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>12</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>11</v>
-      </c>
       <c r="AK22" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AL22" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AM22" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.75</v>
+        <v>3.9</v>
       </c>
       <c r="AO22" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="AP22" t="n">
-        <v>29</v>
+        <v>16.5</v>
       </c>
       <c r="AQ22" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AR22" t="n">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AS22" t="n">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.5</v>
+        <v>2.92</v>
       </c>
       <c r="AU22" t="n">
-        <v>8.5</v>
+        <v>6.9</v>
       </c>
       <c r="AV22" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AW22" t="n">
-        <v>4.5</v>
+        <v>5.7</v>
       </c>
       <c r="AX22" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AY22" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AZ22" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="BA22" t="n">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="BB22" t="n">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="BC22" t="n">
         <v>51</v>
       </c>
       <c r="BD22" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>rsL9KkC4</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>10/11/2024</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Charleston</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Tampa Bay</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N23" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W23" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="X23" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>20</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>24</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>120</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD23" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD22"/>
+  <dimension ref="A1:BD20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -894,7 +894,7 @@
         <v>401</v>
       </c>
       <c r="BD2" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
@@ -1141,10 +1141,10 @@
         <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S4" t="n">
         <v>1.36</v>
@@ -1255,7 +1255,7 @@
         <v>201</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1293,55 +1293,55 @@
         </is>
       </c>
       <c r="G5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J5" t="n">
         <v>4</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N5" t="n">
+        <v>13</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P5" t="n">
         <v>4.33</v>
       </c>
-      <c r="K5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N5" t="n">
-        <v>15</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.5</v>
-      </c>
       <c r="Q5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.67</v>
       </c>
-      <c r="R5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.62</v>
-      </c>
       <c r="V5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X5" t="n">
         <v>21</v>
@@ -1356,13 +1356,13 @@
         <v>29</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
@@ -1374,7 +1374,7 @@
         <v>151</v>
       </c>
       <c r="AH5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
         <v>10</v>
@@ -1383,10 +1383,10 @@
         <v>8.5</v>
       </c>
       <c r="AK5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL5" t="n">
         <v>15</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>13</v>
       </c>
       <c r="AM5" t="n">
         <v>21</v>
@@ -1398,19 +1398,19 @@
         <v>21</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
         <v>67</v>
       </c>
       <c r="AR5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
         <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU5" t="n">
         <v>7.5</v>
@@ -1422,22 +1422,22 @@
         <v>4</v>
       </c>
       <c r="AX5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AY5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB5" t="n">
         <v>101</v>
       </c>
       <c r="BC5" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
         <v>2.7</v>
       </c>
       <c r="I6" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K6" t="n">
         <v>1.8</v>
       </c>
       <c r="L6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M6" t="n">
         <v>1.17</v>
@@ -1535,7 +1535,7 @@
         <v>34</v>
       </c>
       <c r="AA6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB6" t="n">
         <v>51</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>v9jpqT5l</t>
+          <t>z3jqt0XO</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,41 +1820,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>CHILE - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Beerschot VA</t>
+          <t>Copiapo</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Club Brugge KV</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H8" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="I8" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="J8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="K8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L8" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
@@ -1863,82 +1863,82 @@
         <v>19</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T8" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U8" t="n">
         <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="W8" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="X8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y8" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE8" t="n">
         <v>23</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>26</v>
       </c>
       <c r="AF8" t="n">
         <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI8" t="n">
         <v>6.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AL8" t="n">
         <v>11</v>
       </c>
       <c r="AM8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO8" t="n">
         <v>41</v>
@@ -1950,13 +1950,13 @@
         <v>201</v>
       </c>
       <c r="AR8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AS8" t="n">
         <v>301</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU8" t="n">
         <v>9.5</v>
@@ -1968,13 +1968,13 @@
         <v>3.25</v>
       </c>
       <c r="AX8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY8" t="n">
         <v>17</v>
       </c>
       <c r="AZ8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA8" t="n">
         <v>34</v>
@@ -1983,16 +1983,16 @@
         <v>101</v>
       </c>
       <c r="BC8" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OxhQKBZq</t>
+          <t>lnlXr2m6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>CHILE - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>U. De Chile</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Patro Eisden</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.55</v>
+        <v>1.48</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="I9" t="n">
-        <v>2.5</v>
+        <v>6.25</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L9" t="n">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
+        <v>13</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
         <v>11</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P9" t="n">
+      <c r="AA9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2</v>
-      </c>
-      <c r="W9" t="n">
-        <v>9</v>
-      </c>
-      <c r="X9" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA9" t="n">
+      <c r="AO9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>21</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AR9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX9" t="n">
         <v>29</v>
       </c>
-      <c r="AC9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG9" t="n">
+      <c r="AY9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB9" t="n">
         <v>201</v>
       </c>
-      <c r="AH9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS9" t="n">
+      <c r="BC9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD9" t="n">
         <v>151</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>z3jqt0XO</t>
+          <t>EPakFfxI</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2189,93 +2189,93 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CHILE - PRIMERA DIVISION</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Copiapo</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="H10" t="n">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="I10" t="n">
-        <v>1.27</v>
+        <v>2.25</v>
       </c>
       <c r="J10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W10" t="n">
         <v>8.5</v>
       </c>
-      <c r="K10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="X10" t="n">
         <v>17</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W10" t="n">
-        <v>26</v>
-      </c>
-      <c r="X10" t="n">
-        <v>51</v>
-      </c>
       <c r="Y10" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="AA10" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AB10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>67</v>
@@ -2284,67 +2284,67 @@
         <v>351</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI10" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AJ10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU10" t="n">
         <v>9</v>
       </c>
-      <c r="AK10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO10" t="n">
+      <c r="AV10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>41</v>
       </c>
-      <c r="AP10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>15</v>
-      </c>
       <c r="BA10" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>lnlXr2m6</t>
+          <t>jHL2pbV0</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2371,42 +2371,42 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CHILE - PRIMERA DIVISION</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>U. De Chile</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Nordsjaelland</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="H11" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="J11" t="n">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="K11" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
         <v>1.2</v>
@@ -2415,10 +2415,10 @@
         <v>4.33</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R11" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S11" t="n">
         <v>1.33</v>
@@ -2427,109 +2427,109 @@
         <v>3.25</v>
       </c>
       <c r="U11" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="V11" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="X11" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AB11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC11" t="n">
         <v>13</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AI11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK11" t="n">
         <v>34</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AL11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP11" t="n">
         <v>19</v>
       </c>
-      <c r="AK11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL11" t="n">
+      <c r="AQ11" t="n">
         <v>41</v>
       </c>
-      <c r="AM11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>21</v>
-      </c>
       <c r="AR11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT11" t="n">
         <v>3.25</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW11" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AY11" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AZ11" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB11" t="n">
         <v>126</v>
       </c>
-      <c r="BB11" t="n">
-        <v>201</v>
-      </c>
       <c r="BC11" t="n">
-        <v>126</v>
+        <v>451</v>
       </c>
       <c r="BD11" t="n">
         <v>151</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EPakFfxI</t>
+          <t>UJMWySHa</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Barcelona SC</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>Cumbaya</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.6</v>
+        <v>1.22</v>
       </c>
       <c r="H12" t="n">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.3</v>
+        <v>12</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>1.57</v>
       </c>
       <c r="K12" t="n">
-        <v>1.91</v>
+        <v>2.75</v>
       </c>
       <c r="L12" t="n">
+        <v>12</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N12" t="n">
+        <v>12</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W12" t="n">
+        <v>7</v>
+      </c>
+      <c r="X12" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN12" t="n">
         <v>3.1</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N12" t="n">
-        <v>6</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W12" t="n">
-        <v>8</v>
-      </c>
-      <c r="X12" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB12" t="n">
+      <c r="AO12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR12" t="n">
         <v>41</v>
       </c>
-      <c r="AC12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>101</v>
-      </c>
       <c r="AS12" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="AU12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV12" t="n">
         <v>67</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.33</v>
+        <v>13</v>
       </c>
       <c r="AX12" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AY12" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AZ12" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BA12" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="BB12" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC12" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD12" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jHL2pbV0</t>
+          <t>ziWW4vHP</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Nacional Asuncion</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Nordsjaelland</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="J13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P13" t="n">
         <v>2.63</v>
       </c>
-      <c r="K13" t="n">
+      <c r="Q13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T13" t="n">
         <v>2.38</v>
       </c>
-      <c r="L13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N13" t="n">
-        <v>15</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.4</v>
-      </c>
       <c r="U13" t="n">
-        <v>1.53</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W13" t="n">
+        <v>9</v>
+      </c>
+      <c r="X13" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT13" t="n">
         <v>2.38</v>
       </c>
-      <c r="W13" t="n">
-        <v>10</v>
-      </c>
-      <c r="X13" t="n">
+      <c r="AU13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX13" t="n">
         <v>12</v>
       </c>
-      <c r="Y13" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM13" t="n">
+      <c r="AY13" t="n">
         <v>26</v>
       </c>
-      <c r="AN13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV13" t="n">
+      <c r="AZ13" t="n">
         <v>41</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>51</v>
       </c>
       <c r="BA13" t="n">
         <v>67</v>
       </c>
       <c r="BB13" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BC13" t="n">
-        <v>401</v>
+        <v>51</v>
       </c>
       <c r="BD13" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UJMWySHa</t>
+          <t>IHA4v55M</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,179 +2912,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Barcelona SC</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Cumbaya</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.22</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="I14" t="n">
-        <v>12</v>
+        <v>1.6</v>
       </c>
       <c r="J14" t="n">
+        <v>5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
+        <v>17</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1.57</v>
       </c>
-      <c r="K14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L14" t="n">
-        <v>12</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N14" t="n">
-        <v>12</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.67</v>
-      </c>
       <c r="R14" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="S14" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T14" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U14" t="n">
-        <v>2.25</v>
+        <v>1.62</v>
       </c>
       <c r="V14" t="n">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="W14" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="X14" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="n">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="AA14" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AB14" t="n">
         <v>34</v>
       </c>
       <c r="AC14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL14" t="n">
         <v>12</v>
       </c>
-      <c r="AD14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE14" t="n">
+      <c r="AM14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP14" t="n">
         <v>26</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AQ14" t="n">
         <v>81</v>
       </c>
-      <c r="AG14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL14" t="n">
+      <c r="AR14" t="n">
         <v>81</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>41</v>
       </c>
       <c r="AS14" t="n">
         <v>151</v>
       </c>
       <c r="AT14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW14" t="n">
         <v>3.75</v>
       </c>
-      <c r="AU14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>13</v>
-      </c>
       <c r="AX14" t="n">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="AY14" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="AZ14" t="n">
-        <v>351</v>
+        <v>23</v>
       </c>
       <c r="BA14" t="n">
-        <v>301</v>
+        <v>41</v>
       </c>
       <c r="BB14" t="n">
-        <v>501</v>
+        <v>101</v>
       </c>
       <c r="BC14" t="n">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="BD14" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>G8nEO93C</t>
+          <t>l01zZrTq</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,77 +3094,77 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Stuttgart II</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Unterhaching</t>
+          <t>FC Porto</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K15" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="R15" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="S15" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T15" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U15" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="V15" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y15" t="n">
         <v>8.5</v>
@@ -3176,13 +3176,13 @@
         <v>15</v>
       </c>
       <c r="AB15" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC15" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE15" t="n">
         <v>13</v>
@@ -3191,25 +3191,25 @@
         <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI15" t="n">
         <v>21</v>
       </c>
       <c r="AJ15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK15" t="n">
         <v>41</v>
       </c>
       <c r="AL15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN15" t="n">
         <v>4</v>
@@ -3218,55 +3218,55 @@
         <v>10</v>
       </c>
       <c r="AP15" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY15" t="n">
         <v>29</v>
       </c>
-      <c r="AR15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>23</v>
-      </c>
       <c r="AZ15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC15" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD15" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8tSKGIj2</t>
+          <t>hW8u48wo</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,167 +3276,167 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sakhnin</t>
+          <t>U. Cluj</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="H16" t="n">
-        <v>4.33</v>
+        <v>2.88</v>
       </c>
       <c r="I16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R16" t="n">
         <v>1.44</v>
       </c>
-      <c r="J16" t="n">
-        <v>6</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N16" t="n">
-        <v>15</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.15</v>
-      </c>
       <c r="S16" t="n">
-        <v>1.3</v>
+        <v>1.62</v>
       </c>
       <c r="T16" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="U16" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="W16" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="X16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z16" t="n">
         <v>34</v>
       </c>
-      <c r="Y16" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>67</v>
-      </c>
       <c r="AA16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB16" t="n">
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AD16" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
         <v>19</v>
       </c>
       <c r="AF16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG16" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH16" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AI16" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AJ16" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AL16" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AM16" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AN16" t="n">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AP16" t="n">
         <v>34</v>
       </c>
       <c r="AQ16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR16" t="n">
         <v>101</v>
       </c>
-      <c r="AR16" t="n">
-        <v>126</v>
-      </c>
       <c r="AS16" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="AU16" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW16" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX16" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AY16" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AZ16" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="BA16" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BB16" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="BC16" t="n">
         <v>51</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0MixBDln</t>
+          <t>SMMWTz3d</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3458,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NORWAY - ELITESERIEN</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Celje</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.33</v>
+        <v>7</v>
       </c>
       <c r="H17" t="n">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
-        <v>9</v>
+        <v>1.44</v>
       </c>
       <c r="J17" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1.8</v>
       </c>
-      <c r="K17" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="R17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W17" t="n">
         <v>17</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>175</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD17" t="n">
         <v>8</v>
       </c>
-      <c r="X17" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD17" t="n">
+      <c r="AE17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK17" t="n">
         <v>9.5</v>
       </c>
-      <c r="AE17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>101</v>
-      </c>
       <c r="AL17" t="n">
-        <v>51</v>
+        <v>11.75</v>
       </c>
       <c r="AM17" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="AO17" t="n">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="AP17" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="AQ17" t="n">
-        <v>17</v>
+        <v>350</v>
       </c>
       <c r="AR17" t="n">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="AS17" t="n">
-        <v>101</v>
+        <v>500</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.5</v>
+        <v>2.77</v>
       </c>
       <c r="AU17" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AV17" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AW17" t="n">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="AX17" t="n">
-        <v>41</v>
+        <v>6.7</v>
       </c>
       <c r="AY17" t="n">
-        <v>41</v>
+        <v>17.5</v>
       </c>
       <c r="AZ17" t="n">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="BA17" t="n">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="BB17" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BC17" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="BD17" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IHA4v55M</t>
+          <t>Q9GJRWJc</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,179 +3640,179 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.25</v>
+        <v>2.63</v>
       </c>
       <c r="H18" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>1.57</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="K18" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T18" t="n">
         <v>2.5</v>
       </c>
-      <c r="L18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N18" t="n">
-        <v>17</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3.5</v>
-      </c>
       <c r="U18" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="V18" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="W18" t="n">
-        <v>17</v>
+        <v>7.5</v>
       </c>
       <c r="X18" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="Y18" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Z18" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AA18" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AB18" t="n">
         <v>34</v>
       </c>
       <c r="AC18" t="n">
-        <v>17</v>
+        <v>7.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
       </c>
       <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM18" t="n">
         <v>41</v>
       </c>
-      <c r="AG18" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>21</v>
-      </c>
       <c r="AN18" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="AO18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP18" t="n">
         <v>26</v>
       </c>
-      <c r="AP18" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ18" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AR18" t="n">
         <v>81</v>
       </c>
       <c r="AS18" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AW18" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="AX18" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AY18" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AZ18" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="BA18" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB18" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BC18" t="n">
-        <v>451</v>
+        <v>51</v>
       </c>
       <c r="BD18" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>hW8u48wo</t>
+          <t>rsL9KkC4</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,167 +3822,167 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>U. Cluj</t>
+          <t>Charleston</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Tampa Bay</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.2</v>
+        <v>1.88</v>
       </c>
       <c r="H19" t="n">
-        <v>2.88</v>
+        <v>3.45</v>
       </c>
       <c r="I19" t="n">
-        <v>2.5</v>
+        <v>3.55</v>
       </c>
       <c r="J19" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L19" t="n">
         <v>4</v>
       </c>
-      <c r="K19" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3.4</v>
-      </c>
       <c r="M19" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>6.5</v>
+        <v>7.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="P19" t="n">
-        <v>2.38</v>
+        <v>3.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="R19" t="n">
-        <v>1.44</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>1.62</v>
+        <v>1.35</v>
       </c>
       <c r="T19" t="n">
-        <v>2.2</v>
+        <v>2.92</v>
       </c>
       <c r="U19" t="n">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="V19" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="W19" t="n">
-        <v>7</v>
+        <v>8.25</v>
       </c>
       <c r="X19" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE19" t="n">
         <v>13</v>
       </c>
-      <c r="Y19" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>19</v>
-      </c>
       <c r="AF19" t="n">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="AG19" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AH19" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AI19" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AJ19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK19" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AL19" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AM19" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.75</v>
+        <v>3.9</v>
       </c>
       <c r="AO19" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>34</v>
+        <v>16.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="AR19" t="n">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AS19" t="n">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.2</v>
+        <v>2.92</v>
       </c>
       <c r="AU19" t="n">
-        <v>9.5</v>
+        <v>6.9</v>
       </c>
       <c r="AV19" t="n">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="AW19" t="n">
-        <v>4.33</v>
+        <v>5.7</v>
       </c>
       <c r="AX19" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AY19" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AZ19" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="BA19" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="BB19" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BC19" t="n">
         <v>51</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SMMWTz3d</t>
+          <t>dKFzEOsg</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,536 +4004,172 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Carabobo</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Celje</t>
+          <t>La Guaira</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>6</v>
+        <v>2.32</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="J20" t="n">
-        <v>5.8</v>
+        <v>2.95</v>
       </c>
       <c r="K20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="T20" t="n">
         <v>2.22</v>
       </c>
-      <c r="L20" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N20" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.8</v>
-      </c>
       <c r="U20" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="V20" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="W20" t="n">
-        <v>15.5</v>
+        <v>6.1</v>
       </c>
       <c r="X20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB20" t="n">
         <v>37</v>
       </c>
-      <c r="Y20" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Z20" t="n">
+      <c r="AC20" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ20" t="n">
         <v>120</v>
       </c>
-      <c r="AA20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>35</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>250</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>250</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>22</v>
-      </c>
       <c r="BA20" t="n">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="BB20" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="BC20" t="n">
         <v>51</v>
       </c>
       <c r="BD20" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Q9GJRWJc</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>10/11/2024</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Progreso</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Wanderers</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>3</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>7</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W21" t="n">
-        <v>8</v>
-      </c>
-      <c r="X21" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>rsL9KkC4</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>10/11/2024</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Charleston</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Tampa Bay</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="H22" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L22" t="n">
-        <v>4</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N22" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W22" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="X22" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>20</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>24</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>120</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD22" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD20"/>
+  <dimension ref="A1:BD18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,10 +765,10 @@
         <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O2" t="n">
         <v>1.13</v>
@@ -789,10 +789,10 @@
         <v>4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W2" t="n">
         <v>11</v>
@@ -828,7 +828,7 @@
         <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
         <v>41</v>
@@ -867,7 +867,7 @@
         <v>4</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>xMovyDqH</t>
+          <t>KtcJltA5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,170 +910,170 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GERMANY - BUNDESLIGA</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.88</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>2.38</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W3" t="n">
+        <v>7</v>
+      </c>
+      <c r="X3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO3" t="n">
         <v>9.5</v>
       </c>
-      <c r="X3" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z3" t="n">
+      <c r="AP3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>29</v>
       </c>
-      <c r="AA3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ3" t="n">
+      <c r="AR3" t="n">
         <v>51</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>67</v>
       </c>
       <c r="AS3" t="n">
         <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ3" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC3" t="n">
         <v>151</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>501</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>KtcJltA5</t>
+          <t>QP8QvjOG</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,170 +1092,170 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="H4" t="n">
         <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="J4" t="n">
-        <v>2.38</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L4" t="n">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U4" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="X4" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
         <v>7</v>
       </c>
       <c r="AE4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL4" t="n">
         <v>15</v>
       </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>34</v>
-      </c>
       <c r="AM4" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="AO4" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AR4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS4" t="n">
         <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA4" t="n">
         <v>51</v>
       </c>
-      <c r="AW4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA4" t="n">
+      <c r="BB4" t="n">
         <v>101</v>
       </c>
-      <c r="BB4" t="n">
-        <v>201</v>
-      </c>
       <c r="BC4" t="n">
-        <v>151</v>
+        <v>451</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>QP8QvjOG</t>
+          <t>SfSfmjNS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Central Cordoba</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Estudiantes L.P.</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="I5" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K5" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U5" t="n">
         <v>2.5</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="V5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W5" t="n">
+        <v>6</v>
+      </c>
+      <c r="X5" t="n">
         <v>13</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W5" t="n">
-        <v>13</v>
-      </c>
-      <c r="X5" t="n">
-        <v>21</v>
       </c>
       <c r="Y5" t="n">
         <v>13</v>
       </c>
       <c r="Z5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA5" t="n">
         <v>41</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK5" t="n">
         <v>29</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AL5" t="n">
         <v>34</v>
       </c>
-      <c r="AC5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>15</v>
-      </c>
       <c r="AM5" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="AO5" t="n">
         <v>21</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AQ5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>67</v>
       </c>
-      <c r="AR5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>34</v>
-      </c>
       <c r="BA5" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BB5" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="BC5" t="n">
-        <v>451</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SfSfmjNS</t>
+          <t>O27Vtl0d</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,55 +1466,55 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Central Cordoba</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Estudiantes L.P.</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>1.22</v>
       </c>
       <c r="H6" t="n">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="I6" t="n">
-        <v>2.7</v>
+        <v>17</v>
       </c>
       <c r="J6" t="n">
-        <v>4.33</v>
+        <v>1.63</v>
       </c>
       <c r="K6" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L6" t="n">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="M6" t="n">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1.73</v>
       </c>
-      <c r="P6" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3.4</v>
-      </c>
       <c r="R6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S6" t="n">
         <v>1.33</v>
       </c>
-      <c r="S6" t="n">
-        <v>1.75</v>
-      </c>
       <c r="T6" t="n">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="U6" t="n">
         <v>2.5</v>
@@ -1523,97 +1523,97 @@
         <v>1.5</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA6" t="n">
         <v>13</v>
       </c>
-      <c r="Y6" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA6" t="n">
+      <c r="AB6" t="n">
         <v>41</v>
       </c>
-      <c r="AB6" t="n">
-        <v>51</v>
-      </c>
       <c r="AC6" t="n">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AF6" t="n">
         <v>101</v>
       </c>
       <c r="AG6" t="n">
-        <v>451</v>
+        <v>201</v>
       </c>
       <c r="AH6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO6" t="n">
         <v>5.5</v>
       </c>
-      <c r="AI6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ6" t="n">
+      <c r="AP6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU6" t="n">
         <v>12</v>
       </c>
-      <c r="AK6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM6" t="n">
+      <c r="AV6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX6" t="n">
         <v>51</v>
       </c>
-      <c r="AN6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>501</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>19</v>
-      </c>
       <c r="AY6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ6" t="n">
-        <v>67</v>
+        <v>401</v>
       </c>
       <c r="BA6" t="n">
-        <v>126</v>
+        <v>401</v>
       </c>
       <c r="BB6" t="n">
         <v>501</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>O27Vtl0d</t>
+          <t>z3jqt0XO</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>CHILE - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Copiapo</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.22</v>
+        <v>12</v>
       </c>
       <c r="H7" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="I7" t="n">
-        <v>17</v>
+        <v>1.25</v>
       </c>
       <c r="J7" t="n">
+        <v>9</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L7" t="n">
         <v>1.67</v>
       </c>
-      <c r="K7" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L7" t="n">
-        <v>11</v>
-      </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.73</v>
       </c>
-      <c r="R7" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.5</v>
-      </c>
       <c r="W7" t="n">
-        <v>6.5</v>
+        <v>26</v>
       </c>
       <c r="X7" t="n">
-        <v>5.5</v>
+        <v>51</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="Z7" t="n">
-        <v>6.5</v>
+        <v>126</v>
       </c>
       <c r="AA7" t="n">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="AB7" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AD7" t="n">
         <v>11</v>
       </c>
       <c r="AE7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM7" t="n">
         <v>29</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AN7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB7" t="n">
         <v>101</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>401</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>401</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>501</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>z3jqt0XO</t>
+          <t>lnlXr2m6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,169 +1830,169 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Copiapo</t>
+          <t>U. De Chile</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>13</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA8" t="n">
         <v>12</v>
       </c>
-      <c r="H8" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="J8" t="n">
-        <v>9</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="AB8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>19</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W8" t="n">
-        <v>26</v>
-      </c>
-      <c r="X8" t="n">
-        <v>51</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z8" t="n">
+      <c r="AK8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS8" t="n">
         <v>126</v>
       </c>
-      <c r="AA8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH8" t="n">
+      <c r="AT8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU8" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>5.5</v>
+        <v>29</v>
       </c>
       <c r="AY8" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="BA8" t="n">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="BB8" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>lnlXr2m6</t>
+          <t>EPakFfxI</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2007,174 +2007,174 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CHILE - PRIMERA DIVISION</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>U. De Chile</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.48</v>
+        <v>3.6</v>
       </c>
       <c r="H9" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J9" t="n">
         <v>4.33</v>
       </c>
-      <c r="I9" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
       <c r="K9" t="n">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
         <v>6</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N9" t="n">
-        <v>13</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>13</v>
-      </c>
       <c r="AD9" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="AE9" t="n">
         <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG9" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AI9" t="n">
-        <v>34</v>
+        <v>9.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AK9" t="n">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AM9" t="n">
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>7.5</v>
+        <v>21</v>
       </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AQ9" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="AR9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>41</v>
       </c>
-      <c r="AS9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>101</v>
-      </c>
       <c r="BA9" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC9" t="n">
         <v>126</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EPakFfxI</t>
+          <t>Wt8YIxwg</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:10</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2194,154 +2194,154 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>Dep. Cali</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q10" t="n">
         <v>2.25</v>
       </c>
-      <c r="J10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="R10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S10" t="n">
         <v>1.5</v>
       </c>
-      <c r="P10" t="n">
+      <c r="T10" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U10" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="X10" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB10" t="n">
         <v>34</v>
       </c>
-      <c r="AB10" t="n">
-        <v>41</v>
-      </c>
       <c r="AC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
         <v>6</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>5.5</v>
       </c>
       <c r="AE10" t="n">
         <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
         <v>351</v>
       </c>
       <c r="AH10" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AM10" t="n">
         <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AO10" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AP10" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AQ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR10" t="n">
         <v>67</v>
       </c>
-      <c r="AR10" t="n">
-        <v>101</v>
-      </c>
       <c r="AS10" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AY10" t="n">
         <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB10" t="n">
         <v>251</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jHL2pbV0</t>
+          <t>pn3EDs1D</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,173 +2366,173 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:10</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Nordsjaelland</t>
+          <t>Alianza</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.15</v>
+        <v>1.62</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="K11" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="R11" t="n">
-        <v>2.1</v>
+        <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="T11" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="U11" t="n">
-        <v>1.57</v>
+        <v>2.38</v>
       </c>
       <c r="V11" t="n">
-        <v>2.25</v>
+        <v>1.53</v>
       </c>
       <c r="W11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AA11" t="n">
         <v>17</v>
       </c>
       <c r="AB11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>21</v>
       </c>
-      <c r="AC11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF11" t="n">
+      <c r="AK11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY11" t="n">
         <v>41</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AZ11" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC11" t="n">
         <v>126</v>
       </c>
-      <c r="AH11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB11" t="n">
+      <c r="BD11" t="n">
         <v>126</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>451</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="12">
@@ -2585,10 +2585,10 @@
         <v>12</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O12" t="n">
         <v>1.2</v>
@@ -2597,10 +2597,10 @@
         <v>4.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R12" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S12" t="n">
         <v>1.25</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IHA4v55M</t>
+          <t>l01zZrTq</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2922,169 +2922,169 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>FC Porto</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>2.63</v>
       </c>
       <c r="K14" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
+        <v>11</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W14" t="n">
+        <v>8</v>
+      </c>
+      <c r="X14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z14" t="n">
         <v>17</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W14" t="n">
-        <v>17</v>
-      </c>
-      <c r="X14" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y14" t="n">
+      <c r="AA14" t="n">
         <v>15</v>
       </c>
-      <c r="Z14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>34</v>
-      </c>
       <c r="AB14" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC14" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF14" t="n">
         <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH14" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AI14" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AK14" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AL14" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AM14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP14" t="n">
         <v>21</v>
       </c>
-      <c r="AN14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ14" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="AR14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
         <v>7.5</v>
       </c>
       <c r="AV14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW14" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AY14" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AZ14" t="n">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="BA14" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB14" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC14" t="n">
-        <v>401</v>
+        <v>126</v>
       </c>
       <c r="BD14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>l01zZrTq</t>
+          <t>SMMWTz3d</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>FC Porto</t>
+          <t>Celje</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.91</v>
+        <v>7.2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>4.15</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>1.42</v>
       </c>
       <c r="J15" t="n">
-        <v>2.6</v>
+        <v>6.6</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L15" t="n">
-        <v>4.33</v>
+        <v>1.95</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>7.7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R15" t="n">
         <v>1.95</v>
       </c>
       <c r="S15" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="T15" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="U15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V15" t="n">
         <v>1.75</v>
       </c>
-      <c r="V15" t="n">
-        <v>2</v>
-      </c>
       <c r="W15" t="n">
+        <v>17</v>
+      </c>
+      <c r="X15" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>175</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>75</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN15" t="n">
         <v>8</v>
       </c>
-      <c r="X15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y15" t="n">
+      <c r="AO15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>350</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>350</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU15" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AV15" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC15" t="n">
         <v>51</v>
       </c>
-      <c r="AS15" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV15" t="n">
+      <c r="BD15" t="n">
         <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>hW8u48wo</t>
+          <t>Q9GJRWJc</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,116 +3276,116 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>U. Cluj</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="H16" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T16" t="n">
         <v>2.5</v>
       </c>
-      <c r="J16" t="n">
-        <v>4</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="U16" t="n">
         <v>1.91</v>
       </c>
-      <c r="L16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.2</v>
-      </c>
       <c r="V16" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="W16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y16" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB16" t="n">
         <v>34</v>
       </c>
-      <c r="AA16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>41</v>
-      </c>
       <c r="AC16" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG16" t="n">
         <v>351</v>
       </c>
       <c r="AH16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI16" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK16" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AL16" t="n">
         <v>26</v>
@@ -3394,37 +3394,37 @@
         <v>41</v>
       </c>
       <c r="AN16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW16" t="n">
         <v>4.75</v>
       </c>
-      <c r="AO16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>4.33</v>
-      </c>
       <c r="AX16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY16" t="n">
         <v>29</v>
@@ -3433,10 +3433,10 @@
         <v>51</v>
       </c>
       <c r="BA16" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB16" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC16" t="n">
         <v>51</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SMMWTz3d</t>
+          <t>rsL9KkC4</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,164 +3458,164 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Charleston</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Celje</t>
+          <t>Tampa Bay</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>7</v>
+        <v>2.05</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>1.44</v>
+        <v>3.05</v>
       </c>
       <c r="J17" t="n">
-        <v>6.6</v>
+        <v>2.62</v>
       </c>
       <c r="K17" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L17" t="n">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="T17" t="n">
-        <v>2.77</v>
+        <v>2.95</v>
       </c>
       <c r="U17" t="n">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="V17" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="W17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AI17" t="n">
         <v>17</v>
       </c>
-      <c r="X17" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y17" t="n">
+      <c r="AJ17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AY17" t="n">
         <v>22</v>
       </c>
-      <c r="Z17" t="n">
-        <v>175</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB17" t="n">
+      <c r="AZ17" t="n">
         <v>75</v>
       </c>
-      <c r="AC17" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF17" t="n">
+      <c r="BA17" t="n">
         <v>100</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>45</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>45</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>350</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>350</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>55</v>
       </c>
       <c r="BB17" t="n">
         <v>250</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Q9GJRWJc</t>
+          <t>dKFzEOsg</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,536 +3640,172 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>Carabobo</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>La Guaira</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.63</v>
+        <v>2.32</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="L18" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>7.5</v>
+        <v>5.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="P18" t="n">
-        <v>2.75</v>
+        <v>2.32</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R18" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="S18" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="T18" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="U18" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="V18" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="W18" t="n">
-        <v>7.5</v>
+        <v>6.1</v>
       </c>
       <c r="X18" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z18" t="n">
         <v>26</v>
       </c>
       <c r="AA18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX18" t="n">
         <v>23</v>
       </c>
-      <c r="AB18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>17</v>
-      </c>
       <c r="AY18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ18" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="BA18" t="n">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="BB18" t="n">
-        <v>251</v>
+        <v>400</v>
       </c>
       <c r="BC18" t="n">
         <v>51</v>
       </c>
       <c r="BD18" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>rsL9KkC4</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>10/11/2024</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Charleston</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Tampa Bay</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N19" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W19" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="X19" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>20</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>24</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>120</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>dKFzEOsg</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>10/11/2024</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Carabobo</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>La Guaira</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N20" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="W20" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="X20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>28</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>120</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>175</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>400</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD20" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD18"/>
+  <dimension ref="A1:BD14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H2" t="n">
         <v>5.75</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J2" t="n">
         <v>1.73</v>
@@ -771,10 +771,10 @@
         <v>23</v>
       </c>
       <c r="O2" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q2" t="n">
         <v>1.4</v>
@@ -783,16 +783,16 @@
         <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="T2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="U2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W2" t="n">
         <v>11</v>
@@ -810,7 +810,7 @@
         <v>10</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="n">
         <v>23</v>
@@ -819,7 +819,7 @@
         <v>12</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
@@ -828,16 +828,16 @@
         <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AI2" t="n">
         <v>41</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -864,10 +864,10 @@
         <v>81</v>
       </c>
       <c r="AT2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
@@ -891,7 +891,7 @@
         <v>151</v>
       </c>
       <c r="BC2" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
         <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J3" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
@@ -1013,13 +1013,13 @@
         <v>12</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
         <v>34</v>
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
         <v>1.9</v>
@@ -1192,7 +1192,7 @@
         <v>151</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI4" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         <v>15</v>
       </c>
       <c r="AM4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN4" t="n">
         <v>6</v>
@@ -1234,7 +1234,7 @@
         <v>7.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW4" t="n">
         <v>4</v>
@@ -1252,10 +1252,10 @@
         <v>51</v>
       </c>
       <c r="BB4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC4" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SfSfmjNS</t>
+          <t>O27Vtl0d</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,154 +1284,154 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Central Cordoba</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Estudiantes L.P.</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H5" t="n">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="I5" t="n">
-        <v>2.7</v>
+        <v>19</v>
       </c>
       <c r="J5" t="n">
-        <v>4.33</v>
+        <v>1.62</v>
       </c>
       <c r="K5" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L5" t="n">
-        <v>3.6</v>
+        <v>13</v>
       </c>
       <c r="M5" t="n">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1.73</v>
       </c>
-      <c r="P5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3.4</v>
-      </c>
       <c r="R5" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.33</v>
       </c>
-      <c r="S5" t="n">
-        <v>1.75</v>
-      </c>
       <c r="T5" t="n">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W5" t="n">
         <v>6</v>
       </c>
       <c r="X5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA5" t="n">
         <v>13</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>13</v>
       </c>
-      <c r="Z5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA5" t="n">
+      <c r="AR5" t="n">
         <v>41</v>
       </c>
-      <c r="AB5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>451</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ5" t="n">
+      <c r="AS5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU5" t="n">
         <v>12</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>501</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>11</v>
       </c>
       <c r="AV5" t="n">
         <v>101</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.33</v>
+        <v>13</v>
       </c>
       <c r="AX5" t="n">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="AY5" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AZ5" t="n">
-        <v>67</v>
+        <v>501</v>
       </c>
       <c r="BA5" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BB5" t="n">
         <v>501</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>O27Vtl0d</t>
+          <t>Szl1SZol</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,98 +1456,98 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="H6" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="I6" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="K6" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="L6" t="n">
+        <v>9</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N6" t="n">
         <v>11</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>13</v>
-      </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="R6" t="n">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="S6" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T6" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W6" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="X6" t="n">
         <v>5.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AA6" t="n">
         <v>13</v>
       </c>
       <c r="AB6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF6" t="n">
         <v>101</v>
@@ -1556,79 +1556,79 @@
         <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK6" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AL6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AN6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AO6" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AR6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV6" t="n">
         <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AY6" t="n">
         <v>51</v>
       </c>
       <c r="AZ6" t="n">
-        <v>401</v>
+        <v>251</v>
       </c>
       <c r="BA6" t="n">
-        <v>401</v>
+        <v>251</v>
       </c>
       <c r="BB6" t="n">
         <v>501</v>
       </c>
       <c r="BC6" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>z3jqt0XO</t>
+          <t>Wt8YIxwg</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,101 +1638,101 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:10</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CHILE - PRIMERA DIVISION</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Copiapo</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Dep. Cali</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>12</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>1.25</v>
+        <v>3.2</v>
       </c>
       <c r="J7" t="n">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P7" t="n">
         <v>2.75</v>
       </c>
-      <c r="L7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N7" t="n">
-        <v>19</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5.5</v>
-      </c>
       <c r="Q7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.5</v>
       </c>
-      <c r="R7" t="n">
+      <c r="T7" t="n">
         <v>2.5</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.75</v>
-      </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
         <v>51</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>67</v>
       </c>
       <c r="AG7" t="n">
         <v>351</v>
@@ -1741,64 +1741,64 @@
         <v>8.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
-        <v>7.5</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY7" t="n">
         <v>29</v>
       </c>
-      <c r="AN7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>17</v>
-      </c>
       <c r="AZ7" t="n">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="BA7" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>lnlXr2m6</t>
+          <t>pn3EDs1D</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:10</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CHILE - PRIMERA DIVISION</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>U. De Chile</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Alianza</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="H8" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="K8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2.4</v>
       </c>
-      <c r="L8" t="n">
-        <v>6</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N8" t="n">
-        <v>13</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.67</v>
-      </c>
       <c r="R8" t="n">
-        <v>2.15</v>
+        <v>1.53</v>
       </c>
       <c r="S8" t="n">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="T8" t="n">
-        <v>3.4</v>
+        <v>2.38</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>2.38</v>
       </c>
       <c r="V8" t="n">
-        <v>1.91</v>
+        <v>1.53</v>
       </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="X8" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
         <v>11</v>
       </c>
       <c r="AA8" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE8" t="n">
         <v>23</v>
       </c>
-      <c r="AC8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>17</v>
-      </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK8" t="n">
         <v>67</v>
       </c>
       <c r="AL8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY8" t="n">
         <v>41</v>
       </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ8" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BA8" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EPakFfxI</t>
+          <t>UJMWySHa</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Barcelona SC</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>Cumbaya</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="H9" t="n">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="I9" t="n">
+        <v>11</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L9" t="n">
+        <v>12</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>15</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R9" t="n">
         <v>2.25</v>
       </c>
-      <c r="J9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.5</v>
-      </c>
       <c r="S9" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="T9" t="n">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W9" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="Y9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC9" t="n">
         <v>13</v>
       </c>
-      <c r="Z9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>6</v>
-      </c>
       <c r="AD9" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AF9" t="n">
         <v>67</v>
       </c>
       <c r="AG9" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>9.5</v>
+        <v>51</v>
       </c>
       <c r="AJ9" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="AL9" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="AM9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR9" t="n">
         <v>41</v>
       </c>
-      <c r="AN9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>101</v>
-      </c>
       <c r="AS9" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV9" t="n">
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AZ9" t="n">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BB9" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC9" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Wt8YIxwg</t>
+          <t>ziWW4vHP</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,92 +2184,92 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Nacional Asuncion</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dep. Cali</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>4.33</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L10" t="n">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="R10" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T10" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="V10" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W10" t="n">
+        <v>9</v>
+      </c>
+      <c r="X10" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
         <v>7</v>
-      </c>
-      <c r="X10" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8</v>
       </c>
       <c r="AD10" t="n">
         <v>6</v>
@@ -2278,85 +2278,85 @@
         <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG10" t="n">
         <v>351</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AI10" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AK10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM10" t="n">
         <v>34</v>
       </c>
-      <c r="AL10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>41</v>
-      </c>
       <c r="AN10" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AP10" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AR10" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS10" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AY10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA10" t="n">
         <v>67</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>101</v>
       </c>
       <c r="BB10" t="n">
         <v>251</v>
       </c>
       <c r="BC10" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD10" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pn3EDs1D</t>
+          <t>l01zZrTq</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,167 +2366,167 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Alianza</t>
+          <t>FC Porto</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="J11" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="K11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V11" t="n">
         <v>2.05</v>
       </c>
-      <c r="L11" t="n">
+      <c r="W11" t="n">
+        <v>8</v>
+      </c>
+      <c r="X11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD11" t="n">
         <v>6.5</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N11" t="n">
-        <v>8</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W11" t="n">
-        <v>5</v>
-      </c>
-      <c r="X11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB11" t="n">
+      <c r="AE11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF11" t="n">
         <v>41</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>81</v>
       </c>
       <c r="AG11" t="n">
         <v>201</v>
       </c>
       <c r="AH11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO11" t="n">
         <v>11</v>
       </c>
-      <c r="AI11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ11" t="n">
+      <c r="AP11" t="n">
         <v>21</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AQ11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>67</v>
       </c>
-      <c r="AL11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV11" t="n">
+      <c r="BA11" t="n">
         <v>81</v>
       </c>
-      <c r="AW11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ11" t="n">
+      <c r="BB11" t="n">
         <v>151</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>501</v>
       </c>
       <c r="BC11" t="n">
         <v>126</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UJMWySHa</t>
+          <t>YZJRPAlA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,167 +2548,167 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Barcelona SC</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Cumbaya</t>
+          <t>Fenix</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.22</v>
+        <v>1.85</v>
       </c>
       <c r="H12" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>12</v>
+        <v>4.33</v>
       </c>
       <c r="J12" t="n">
-        <v>1.57</v>
+        <v>2.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
+        <v>9</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="n">
         <v>15</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T12" t="n">
+      <c r="AA12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
         <v>3.75</v>
       </c>
-      <c r="U12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W12" t="n">
-        <v>7</v>
-      </c>
-      <c r="X12" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB12" t="n">
+      <c r="AO12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>34</v>
       </c>
-      <c r="AC12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI12" t="n">
+      <c r="AR12" t="n">
         <v>51</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>41</v>
       </c>
       <c r="AS12" t="n">
         <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU12" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AV12" t="n">
         <v>67</v>
       </c>
       <c r="AW12" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AX12" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="AY12" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AZ12" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BA12" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB12" t="n">
         <v>301</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>501</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ziWW4vHP</t>
+          <t>rsL9KkC4</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,167 +2730,167 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Nacional Asuncion</t>
+          <t>Charleston</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Tampa Bay</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P13" t="n">
         <v>3.6</v>
       </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>7</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.63</v>
-      </c>
       <c r="Q13" t="n">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="R13" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="T13" t="n">
-        <v>2.38</v>
+        <v>2.95</v>
       </c>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="V13" t="n">
-        <v>1.67</v>
+        <v>2.12</v>
       </c>
       <c r="W13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X13" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="Y13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE13" t="n">
         <v>13</v>
       </c>
-      <c r="Z13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>17</v>
-      </c>
       <c r="AF13" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AG13" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AI13" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9.5</v>
+        <v>11.25</v>
       </c>
       <c r="AK13" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AL13" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AM13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AN13" t="n">
-        <v>5.5</v>
+        <v>4.05</v>
       </c>
       <c r="AO13" t="n">
-        <v>21</v>
+        <v>10.25</v>
       </c>
       <c r="AP13" t="n">
-        <v>34</v>
+        <v>17.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="AR13" t="n">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AS13" t="n">
-        <v>301</v>
+        <v>200</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.38</v>
+        <v>2.95</v>
       </c>
       <c r="AU13" t="n">
-        <v>9</v>
+        <v>6.9</v>
       </c>
       <c r="AV13" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AW13" t="n">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="AX13" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ13" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="BA13" t="n">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="BB13" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BC13" t="n">
         <v>51</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>l01zZrTq</t>
+          <t>dKFzEOsg</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,900 +2912,172 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Carabobo</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>FC Porto</t>
+          <t>La Guaira</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.95</v>
+        <v>2.32</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="I14" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J14" t="n">
-        <v>2.63</v>
+        <v>2.95</v>
       </c>
       <c r="K14" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>5.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="P14" t="n">
-        <v>3.75</v>
+        <v>2.32</v>
       </c>
       <c r="Q14" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U14" t="n">
         <v>1.88</v>
       </c>
-      <c r="R14" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.7</v>
-      </c>
       <c r="V14" t="n">
-        <v>2.05</v>
+        <v>1.72</v>
       </c>
       <c r="W14" t="n">
-        <v>8</v>
+        <v>6.1</v>
       </c>
       <c r="X14" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH14" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>12</v>
-      </c>
       <c r="AI14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AL14" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AN14" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AP14" t="n">
         <v>21</v>
       </c>
       <c r="AQ14" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AR14" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AS14" t="n">
-        <v>126</v>
+        <v>300</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV14" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AW14" t="n">
         <v>5.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AY14" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AZ14" t="n">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="BA14" t="n">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="BB14" t="n">
-        <v>151</v>
+        <v>400</v>
       </c>
       <c r="BC14" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD14" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>SMMWTz3d</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>10/11/2024</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>16:15</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SLOVENIA - PRVA LIGA</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Primorje</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Celje</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="J15" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W15" t="n">
-        <v>17</v>
-      </c>
-      <c r="X15" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>175</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>45</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>45</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>350</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>350</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>50</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Q9GJRWJc</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>10/11/2024</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Progreso</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Wanderers</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X16" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>rsL9KkC4</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>10/11/2024</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Charleston</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Tampa Bay</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>8</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X17" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>37</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>75</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>100</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>dKFzEOsg</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>10/11/2024</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Carabobo</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>La Guaira</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N18" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="W18" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="X18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>28</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>120</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>175</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>400</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD18" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD14"/>
+  <dimension ref="A1:BD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>b59ZhlYj</t>
+          <t>QP8QvjOG</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,65 +728,65 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 1</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>St Etienne</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="H2" t="n">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="J2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N2" t="n">
+        <v>13</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1.73</v>
       </c>
-      <c r="K2" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L2" t="n">
-        <v>7</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N2" t="n">
-        <v>23</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.4</v>
-      </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="T2" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="U2" t="n">
         <v>1.67</v>
@@ -795,31 +795,31 @@
         <v>2.1</v>
       </c>
       <c r="W2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X2" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.5</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
@@ -828,70 +828,70 @@
         <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>29</v>
+        <v>8.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="AM2" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="AR2" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
       </c>
       <c r="AW2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY2" t="n">
         <v>9.5</v>
       </c>
-      <c r="AX2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ2" t="n">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="BA2" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC2" t="n">
         <v>101</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>351</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KtcJltA5</t>
+          <t>O27Vtl0d</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.18</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
+        <v>19</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L3" t="n">
+        <v>13</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N3" t="n">
+        <v>13</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P3" t="n">
         <v>4.33</v>
       </c>
-      <c r="J3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="Q3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y3" t="n">
         <v>11</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7</v>
-      </c>
-      <c r="X3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="n">
         <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AG3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="AM3" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>51</v>
       </c>
-      <c r="AS3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>81</v>
-      </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="BB3" t="n">
-        <v>201</v>
+        <v>451</v>
       </c>
       <c r="BC3" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>QP8QvjOG</t>
+          <t>KliY09iS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,158 +1092,158 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Talleres Cordoba</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>1.9</v>
+        <v>2.63</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>4.33</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>2.7</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="T4" t="n">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AA4" t="n">
         <v>29</v>
       </c>
       <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP4" t="n">
         <v>34</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>26</v>
       </c>
       <c r="AQ4" t="n">
         <v>67</v>
       </c>
       <c r="AR4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV4" t="n">
         <v>81</v>
       </c>
-      <c r="AS4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
       <c r="AW4" t="n">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="AX4" t="n">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ4" t="n">
         <v>34</v>
@@ -1252,19 +1252,19 @@
         <v>51</v>
       </c>
       <c r="BB4" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD4" t="n">
         <v>126</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>O27Vtl0d</t>
+          <t>Szl1SZol</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="H5" t="n">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="I5" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="K5" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="L5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="S5" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AA5" t="n">
         <v>13</v>
       </c>
       <c r="AB5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AF5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="n">
         <v>201</v>
       </c>
       <c r="AH5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>29</v>
       </c>
-      <c r="AI5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>41</v>
-      </c>
       <c r="AK5" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="AL5" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AM5" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AN5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AO5" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AR5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="n">
         <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="AX5" t="n">
-        <v>67</v>
+        <v>9.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC5" t="n">
         <v>501</v>
       </c>
-      <c r="BA5" t="n">
-        <v>501</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>126</v>
-      </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Szl1SZol</t>
+          <t>zw9MZHgE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,160 +1466,160 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.33</v>
+        <v>3.25</v>
       </c>
       <c r="H6" t="n">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>9.5</v>
+        <v>2.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.83</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P6" t="n">
         <v>2.38</v>
       </c>
-      <c r="L6" t="n">
-        <v>9</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.5</v>
-      </c>
       <c r="Q6" t="n">
-        <v>1.98</v>
+        <v>2.7</v>
       </c>
       <c r="R6" t="n">
-        <v>1.88</v>
+        <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="T6" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U6" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD6" t="n">
         <v>5.5</v>
       </c>
-      <c r="X6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AE6" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="n">
         <v>201</v>
       </c>
       <c r="AH6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO6" t="n">
         <v>19</v>
       </c>
-      <c r="AI6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AQ6" t="n">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
         <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>9.5</v>
+        <v>81</v>
       </c>
       <c r="AX6" t="n">
-        <v>41</v>
+        <v>4.33</v>
       </c>
       <c r="AY6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA6" t="n">
         <v>51</v>
       </c>
-      <c r="AZ6" t="n">
-        <v>251</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>251</v>
-      </c>
       <c r="BB6" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BC6" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="BD6" t="n">
         <v>81</v>
@@ -1687,10 +1687,10 @@
         <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S7" t="n">
         <v>1.5</v>
@@ -1783,25 +1783,25 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX7" t="n">
         <v>5</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AY7" t="n">
         <v>19</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AZ7" t="n">
         <v>29</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="BA7" t="n">
         <v>67</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BB7" t="n">
         <v>101</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BC7" t="n">
         <v>251</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>126</v>
       </c>
       <c r="BD7" t="n">
         <v>126</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
         <v>6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L8" t="n">
-        <v>6.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1893,10 +1893,10 @@
         <v>6.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA8" t="n">
         <v>17</v>
@@ -1923,10 +1923,10 @@
         <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK8" t="n">
         <v>67</v>
@@ -1935,7 +1935,7 @@
         <v>51</v>
       </c>
       <c r="AM8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN8" t="n">
         <v>3.4</v>
@@ -1947,7 +1947,7 @@
         <v>26</v>
       </c>
       <c r="AQ8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR8" t="n">
         <v>67</v>
@@ -1965,25 +1965,25 @@
         <v>81</v>
       </c>
       <c r="AW8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX8" t="n">
         <v>7</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AY8" t="n">
         <v>34</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AZ8" t="n">
         <v>41</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="BA8" t="n">
         <v>151</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BB8" t="n">
         <v>201</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BC8" t="n">
         <v>501</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>126</v>
       </c>
       <c r="BD8" t="n">
         <v>126</v>
@@ -2051,10 +2051,10 @@
         <v>4.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R9" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S9" t="n">
         <v>1.25</v>
@@ -2147,25 +2147,25 @@
         <v>67</v>
       </c>
       <c r="AW9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX9" t="n">
         <v>13</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>51</v>
       </c>
       <c r="AY9" t="n">
         <v>51</v>
       </c>
       <c r="AZ9" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BA9" t="n">
         <v>351</v>
       </c>
       <c r="BB9" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC9" t="n">
         <v>501</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>51</v>
       </c>
       <c r="BD9" t="n">
         <v>51</v>
@@ -2329,25 +2329,25 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX10" t="n">
         <v>4</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AY10" t="n">
         <v>12</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="AZ10" t="n">
         <v>26</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="BA10" t="n">
         <v>41</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BB10" t="n">
         <v>67</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="BC10" t="n">
         <v>251</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>51</v>
       </c>
       <c r="BD10" t="n">
         <v>51</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -2409,16 +2409,16 @@
         <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="R11" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
         <v>1.36</v>
@@ -2436,7 +2436,7 @@
         <v>8</v>
       </c>
       <c r="X11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y11" t="n">
         <v>8.5</v>
@@ -2454,7 +2454,7 @@
         <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
@@ -2487,10 +2487,10 @@
         <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
         <v>34</v>
@@ -2505,31 +2505,31 @@
         <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>5.5</v>
+        <v>126</v>
       </c>
       <c r="AX11" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="AY11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>26</v>
       </c>
-      <c r="AZ11" t="n">
+      <c r="BA11" t="n">
         <v>67</v>
       </c>
-      <c r="BA11" t="n">
+      <c r="BB11" t="n">
         <v>81</v>
       </c>
-      <c r="BB11" t="n">
+      <c r="BC11" t="n">
         <v>151</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>126</v>
       </c>
       <c r="BD11" t="n">
         <v>126</v>
@@ -2693,25 +2693,25 @@
         <v>67</v>
       </c>
       <c r="AW12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX12" t="n">
         <v>6</v>
       </c>
-      <c r="AX12" t="n">
+      <c r="AY12" t="n">
         <v>23</v>
       </c>
-      <c r="AY12" t="n">
+      <c r="AZ12" t="n">
         <v>34</v>
       </c>
-      <c r="AZ12" t="n">
+      <c r="BA12" t="n">
         <v>81</v>
       </c>
-      <c r="BA12" t="n">
+      <c r="BB12" t="n">
         <v>126</v>
       </c>
-      <c r="BB12" t="n">
+      <c r="BC12" t="n">
         <v>301</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>51</v>
       </c>
       <c r="BD12" t="n">
         <v>51</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>rsL9KkC4</t>
+          <t>dKFzEOsg</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,354 +2730,172 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Charleston</t>
+          <t>Carabobo</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tampa Bay</t>
+          <t>La Guaira</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="I13" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="J13" t="n">
-        <v>2.57</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="T13" t="n">
         <v>2.22</v>
       </c>
-      <c r="L13" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N13" t="n">
-        <v>8</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="U13" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.75</v>
       </c>
-      <c r="R13" t="n">
-        <v>2</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.12</v>
-      </c>
       <c r="W13" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="X13" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH13" t="n">
         <v>8.5</v>
       </c>
-      <c r="X13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE13" t="n">
+      <c r="AI13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AO13" t="n">
         <v>13</v>
       </c>
-      <c r="AF13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>10.25</v>
-      </c>
       <c r="AP13" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AQ13" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AR13" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AS13" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.95</v>
+        <v>2.2</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AV13" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AW13" t="n">
-        <v>5.3</v>
+        <v>51</v>
       </c>
       <c r="AX13" t="n">
-        <v>17.5</v>
+        <v>5.4</v>
       </c>
       <c r="AY13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ13" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="BA13" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB13" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="BC13" t="n">
-        <v>51</v>
+        <v>400</v>
       </c>
       <c r="BD13" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>dKFzEOsg</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>10/11/2024</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Carabobo</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>La Guaira</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N14" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="W14" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="X14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>120</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>175</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>400</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD14" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -596,39 +596,39 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_4-4</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
-        </is>
-      </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-0_HT</t>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2_HT</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2_HT</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3_HT</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3_HT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3_HT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_3-3_HT</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1_HT</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2_HT</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2_HT</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3_HT</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>QP8QvjOG</t>
+          <t>O27Vtl0d</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,41 +728,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.9</v>
+        <v>1.18</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>1.85</v>
+        <v>19</v>
       </c>
       <c r="J2" t="n">
-        <v>4.33</v>
+        <v>1.62</v>
       </c>
       <c r="K2" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="L2" t="n">
-        <v>2.4</v>
+        <v>13</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -771,136 +771,136 @@
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R2" t="n">
         <v>2.1</v>
       </c>
       <c r="S2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.67</v>
+        <v>2.63</v>
       </c>
       <c r="V2" t="n">
-        <v>2.1</v>
+        <v>1.44</v>
       </c>
       <c r="W2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA2" t="n">
         <v>13</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AB2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>351</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP2" t="n">
         <v>21</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AQ2" t="n">
         <v>13</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AR2" t="n">
         <v>41</v>
       </c>
-      <c r="AA2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC2" t="n">
+      <c r="AS2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW2" t="n">
         <v>13</v>
       </c>
-      <c r="AD2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ2" t="n">
+      <c r="AX2" t="n">
         <v>67</v>
       </c>
-      <c r="AR2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW2" t="n">
+      <c r="AY2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>501</v>
       </c>
-      <c r="AX2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>19</v>
-      </c>
       <c r="BA2" t="n">
-        <v>29</v>
+        <v>451</v>
       </c>
       <c r="BB2" t="n">
-        <v>41</v>
+        <v>501</v>
       </c>
       <c r="BC2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>O27Vtl0d</t>
+          <t>KliY09iS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,160 +920,160 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Talleres Cordoba</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.18</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N3" t="n">
         <v>6</v>
       </c>
-      <c r="I3" t="n">
-        <v>19</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="O3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S3" t="n">
         <v>1.62</v>
       </c>
-      <c r="K3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L3" t="n">
-        <v>13</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N3" t="n">
-        <v>13</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.3</v>
-      </c>
       <c r="T3" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
         <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>6.5</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
       </c>
       <c r="AC3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH3" t="n">
         <v>11</v>
       </c>
-      <c r="AD3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE3" t="n">
+      <c r="AI3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP3" t="n">
         <v>34</v>
       </c>
-      <c r="AF3" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK3" t="n">
+      <c r="AQ3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS3" t="n">
         <v>351</v>
       </c>
-      <c r="AL3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>126</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>201</v>
-      </c>
       <c r="AT3" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="AU3" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>126</v>
+        <v>4.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
         <v>51</v>
       </c>
       <c r="BA3" t="n">
-        <v>501</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
         <v>126</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>KliY09iS</t>
+          <t>pC8RsUpj</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,163 +1102,163 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Talleres Cordoba</t>
+          <t>Ind. Rivadavia</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P4" t="n">
         <v>3</v>
       </c>
-      <c r="I4" t="n">
+      <c r="Q4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T4" t="n">
         <v>2.63</v>
       </c>
-      <c r="J4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.2</v>
-      </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="AA4" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
         <v>81</v>
       </c>
       <c r="AG4" t="n">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="AI4" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="AL4" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="AM4" t="n">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>7.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="AR4" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV4" t="n">
         <v>81</v>
       </c>
       <c r="AW4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC4" t="n">
         <v>126</v>
       </c>
-      <c r="AX4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>351</v>
-      </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -1335,10 +1335,10 @@
         <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="V5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W5" t="n">
         <v>5.5</v>
@@ -1371,25 +1371,25 @@
         <v>101</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AI5" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="AK5" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="n">
         <v>81</v>
       </c>
       <c r="AM5" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="AN5" t="n">
         <v>3.1</v>
@@ -1419,25 +1419,25 @@
         <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>81</v>
+        <v>9.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>9.5</v>
+        <v>41</v>
       </c>
       <c r="AY5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="BA5" t="n">
         <v>251</v>
       </c>
       <c r="BB5" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC5" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD5" t="n">
         <v>81</v>
@@ -1520,7 +1520,7 @@
         <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
@@ -1553,25 +1553,25 @@
         <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="AH6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AI6" t="n">
         <v>11</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="AN6" t="n">
         <v>4.75</v>
@@ -1601,25 +1601,25 @@
         <v>81</v>
       </c>
       <c r="AW6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA6" t="n">
         <v>81</v>
       </c>
-      <c r="AX6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>51</v>
-      </c>
       <c r="BB6" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC6" t="n">
         <v>81</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>301</v>
       </c>
       <c r="BD6" t="n">
         <v>81</v>
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1708,22 +1708,22 @@
         <v>7</v>
       </c>
       <c r="X7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y7" t="n">
         <v>10</v>
       </c>
-      <c r="Y7" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB7" t="n">
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
@@ -1735,40 +1735,40 @@
         <v>51</v>
       </c>
       <c r="AG7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
         <v>351</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
       </c>
       <c r="AN7" t="n">
         <v>4.33</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP7" t="n">
         <v>26</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS7" t="n">
         <v>201</v>
@@ -1783,25 +1783,25 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC7" t="n">
         <v>126</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>251</v>
       </c>
       <c r="BD7" t="n">
         <v>126</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1881,22 +1881,22 @@
         <v>2.38</v>
       </c>
       <c r="U8" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA8" t="n">
         <v>17</v>
@@ -1911,37 +1911,37 @@
         <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
         <v>81</v>
       </c>
       <c r="AG8" t="n">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AK8" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="n">
         <v>51</v>
       </c>
       <c r="AM8" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP8" t="n">
         <v>26</v>
@@ -1959,31 +1959,31 @@
         <v>2.38</v>
       </c>
       <c r="AU8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV8" t="n">
         <v>81</v>
       </c>
       <c r="AW8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>126</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>41</v>
       </c>
       <c r="BA8" t="n">
         <v>151</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BC8" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
         <v>126</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H9" t="n">
         <v>5.5</v>
       </c>
       <c r="I9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
         <v>1.57</v>
@@ -2042,19 +2042,19 @@
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="R9" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S9" t="n">
         <v>1.25</v>
@@ -2096,28 +2096,28 @@
         <v>23</v>
       </c>
       <c r="AF9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL9" t="n">
         <v>67</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AM9" t="n">
         <v>201</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>67</v>
       </c>
       <c r="AN9" t="n">
         <v>3.1</v>
@@ -2147,25 +2147,25 @@
         <v>67</v>
       </c>
       <c r="AW9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX9" t="n">
         <v>51</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>13</v>
       </c>
       <c r="AY9" t="n">
         <v>51</v>
       </c>
       <c r="AZ9" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BA9" t="n">
         <v>351</v>
       </c>
       <c r="BB9" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BC9" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="BD9" t="n">
         <v>51</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J10" t="n">
         <v>4.33</v>
@@ -2218,7 +2218,7 @@
         <v>1.95</v>
       </c>
       <c r="L10" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>1.1</v>
@@ -2245,13 +2245,13 @@
         <v>2.38</v>
       </c>
       <c r="U10" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
         <v>17</v>
@@ -2281,25 +2281,25 @@
         <v>67</v>
       </c>
       <c r="AG10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM10" t="n">
         <v>351</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>34</v>
       </c>
       <c r="AN10" t="n">
         <v>5.5</v>
@@ -2311,7 +2311,7 @@
         <v>34</v>
       </c>
       <c r="AQ10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR10" t="n">
         <v>101</v>
@@ -2329,25 +2329,25 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC10" t="n">
         <v>51</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>251</v>
       </c>
       <c r="BD10" t="n">
         <v>51</v>
@@ -2427,7 +2427,7 @@
         <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V11" t="n">
         <v>2.05</v>
@@ -2463,25 +2463,25 @@
         <v>41</v>
       </c>
       <c r="AG11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM11" t="n">
         <v>201</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>34</v>
       </c>
       <c r="AN11" t="n">
         <v>4</v>
@@ -2511,25 +2511,25 @@
         <v>51</v>
       </c>
       <c r="AW11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC11" t="n">
         <v>126</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>151</v>
       </c>
       <c r="BD11" t="n">
         <v>126</v>
@@ -2645,16 +2645,16 @@
         <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>351</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AK12" t="n">
         <v>41</v>
@@ -2663,7 +2663,7 @@
         <v>41</v>
       </c>
       <c r="AM12" t="n">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="AN12" t="n">
         <v>3.75</v>
@@ -2693,25 +2693,25 @@
         <v>67</v>
       </c>
       <c r="AW12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC12" t="n">
         <v>51</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>301</v>
       </c>
       <c r="BD12" t="n">
         <v>51</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="H13" t="n">
         <v>2.55</v>
       </c>
       <c r="I13" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J13" t="n">
         <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="L13" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
@@ -2785,10 +2785,10 @@
         <v>1.47</v>
       </c>
       <c r="S13" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="T13" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="U13" t="n">
         <v>1.87</v>
@@ -2797,22 +2797,22 @@
         <v>1.75</v>
       </c>
       <c r="W13" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X13" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB13" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC13" t="n">
         <v>5.9</v>
@@ -2827,25 +2827,25 @@
         <v>80</v>
       </c>
       <c r="AG13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM13" t="n">
         <v>800</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>50</v>
       </c>
       <c r="AN13" t="n">
         <v>4.1</v>
@@ -2860,40 +2860,40 @@
         <v>60</v>
       </c>
       <c r="AR13" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS13" t="n">
         <v>300</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW13" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC13" t="n">
         <v>51</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>28</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>120</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>175</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>400</v>
       </c>
       <c r="BD13" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD13"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>O27Vtl0d</t>
+          <t>KliY09iS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,157 +738,157 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Talleres Cordoba</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.18</v>
+        <v>2.75</v>
       </c>
       <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N2" t="n">
         <v>6</v>
       </c>
-      <c r="I2" t="n">
-        <v>19</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.62</v>
       </c>
-      <c r="K2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L2" t="n">
-        <v>13</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N2" t="n">
-        <v>13</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.3</v>
-      </c>
       <c r="T2" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="U2" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
         <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>6.5</v>
+        <v>29</v>
       </c>
       <c r="AA2" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AD2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH2" t="n">
         <v>12</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AI2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP2" t="n">
         <v>34</v>
       </c>
-      <c r="AF2" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ2" t="n">
+      <c r="AQ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS2" t="n">
         <v>351</v>
       </c>
-      <c r="AK2" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>126</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>201</v>
-      </c>
       <c r="AT2" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="AU2" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>13</v>
+        <v>4.75</v>
       </c>
       <c r="AX2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>67</v>
       </c>
-      <c r="AY2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>501</v>
-      </c>
       <c r="BA2" t="n">
-        <v>451</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KliY09iS</t>
+          <t>pC8RsUpj</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,169 +920,169 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Talleres Cordoba</t>
+          <t>Ind. Rivadavia</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P3" t="n">
         <v>3</v>
       </c>
-      <c r="I3" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="Q3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X3" t="n">
         <v>6</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>12</v>
-      </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="AA3" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
         <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="AK3" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AL3" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AM3" t="n">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="AO3" t="n">
-        <v>19</v>
+        <v>7.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="AR3" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BB3" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>pC8RsUpj</t>
+          <t>Szl1SZol</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,134 +1092,134 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ind. Rivadavia</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="I4" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="L4" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="R4" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB4" t="n">
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AH4" t="n">
         <v>41</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="n">
         <v>201</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO4" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
@@ -1228,25 +1228,25 @@
         <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV4" t="n">
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AX4" t="n">
         <v>41</v>
       </c>
       <c r="AY4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ4" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BA4" t="n">
         <v>251</v>
@@ -1255,16 +1255,16 @@
         <v>501</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Szl1SZol</t>
+          <t>zw9MZHgE</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,157 +1284,157 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.33</v>
+        <v>3.25</v>
       </c>
       <c r="H5" t="n">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="I5" t="n">
-        <v>9.5</v>
+        <v>2.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.83</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P5" t="n">
         <v>2.38</v>
       </c>
-      <c r="L5" t="n">
-        <v>9</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="Q5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH5" t="n">
         <v>11</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE5" t="n">
+      <c r="AI5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK5" t="n">
         <v>26</v>
       </c>
-      <c r="AF5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH5" t="n">
+      <c r="AL5" t="n">
         <v>41</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>81</v>
       </c>
       <c r="AM5" t="n">
         <v>201</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.5</v>
+        <v>19</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AQ5" t="n">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV5" t="n">
         <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>9.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX5" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AY5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>51</v>
       </c>
-      <c r="AZ5" t="n">
-        <v>251</v>
-      </c>
       <c r="BA5" t="n">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="BC5" t="n">
         <v>81</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>zw9MZHgE</t>
+          <t>Wt8YIxwg</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,113 +1456,113 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:10</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Dep. Cali</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.25</v>
       </c>
-      <c r="H6" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T6" t="n">
         <v>2.5</v>
       </c>
-      <c r="J6" t="n">
-        <v>4</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="U6" t="n">
         <v>1.91</v>
       </c>
-      <c r="L6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.2</v>
-      </c>
       <c r="V6" t="n">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="W6" t="n">
+        <v>7</v>
+      </c>
+      <c r="X6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
         <v>7.5</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH6" t="n">
         <v>13</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>11</v>
       </c>
       <c r="AI6" t="n">
         <v>11</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AK6" t="n">
         <v>26</v>
@@ -1571,40 +1571,40 @@
         <v>41</v>
       </c>
       <c r="AM6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS6" t="n">
         <v>201</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AT6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
         <v>4.75</v>
       </c>
-      <c r="AO6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>4.33</v>
-      </c>
       <c r="AX6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
@@ -1616,19 +1616,19 @@
         <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC6" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Wt8YIxwg</t>
+          <t>pn3EDs1D</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,157 +1648,157 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dep. Cali</t>
+          <t>Alianza</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J7" t="n">
         <v>2.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.25</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
       </c>
       <c r="L7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN7" t="n">
         <v>3.6</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W7" t="n">
-        <v>7</v>
-      </c>
-      <c r="X7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y7" t="n">
+      <c r="AO7" t="n">
         <v>10</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>15</v>
       </c>
       <c r="AP7" t="n">
         <v>26</v>
       </c>
       <c r="AQ7" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AR7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV7" t="n">
         <v>81</v>
       </c>
-      <c r="AS7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>67</v>
-      </c>
       <c r="AW7" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB7" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pn3EDs1D</t>
+          <t>W2BWB3S1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,170 +1820,170 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Alianza</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W8" t="n">
+        <v>9</v>
+      </c>
+      <c r="X8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD8" t="n">
         <v>5.5</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>7</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AE8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF8" t="n">
         <v>41</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>81</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
       </c>
       <c r="AH8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK8" t="n">
         <v>23</v>
       </c>
-      <c r="AI8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
       <c r="AL8" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
         <v>201</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA8" t="n">
         <v>67</v>
       </c>
-      <c r="AS8" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA8" t="n">
+      <c r="BB8" t="n">
         <v>151</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BC8" t="n">
         <v>501</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>126</v>
       </c>
       <c r="BD8" t="n">
         <v>126</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UJMWySHa</t>
+          <t>ziWW4vHP</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,167 +2002,167 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Barcelona SC</t>
+          <t>Nacional Asuncion</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Cumbaya</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.22</v>
+        <v>3.5</v>
       </c>
       <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN9" t="n">
         <v>5.5</v>
       </c>
-      <c r="I9" t="n">
-        <v>12</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L9" t="n">
-        <v>12</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
-        <v>17</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI9" t="n">
+      <c r="AO9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP9" t="n">
         <v>34</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL9" t="n">
+      <c r="AQ9" t="n">
         <v>67</v>
       </c>
-      <c r="AM9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>12</v>
-      </c>
       <c r="AR9" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AS9" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.75</v>
+        <v>2.38</v>
       </c>
       <c r="AU9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
         <v>67</v>
       </c>
       <c r="AW9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX9" t="n">
         <v>13</v>
       </c>
-      <c r="AX9" t="n">
-        <v>51</v>
-      </c>
       <c r="AY9" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
-        <v>351</v>
+        <v>41</v>
       </c>
       <c r="BA9" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ziWW4vHP</t>
+          <t>YZJRPAlA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,65 +2184,65 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Nacional Asuncion</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Fenix</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H10" t="n">
         <v>3.5</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P10" t="n">
         <v>3</v>
       </c>
-      <c r="I10" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>7</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S10" t="n">
         <v>1.44</v>
       </c>
-      <c r="P10" t="n">
+      <c r="T10" t="n">
         <v>2.63</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.38</v>
       </c>
       <c r="U10" t="n">
         <v>2</v>
@@ -2251,100 +2251,100 @@
         <v>1.73</v>
       </c>
       <c r="W10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="n">
         <v>8.5</v>
       </c>
-      <c r="X10" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7</v>
-      </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
         <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM10" t="n">
         <v>351</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AP10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>34</v>
       </c>
-      <c r="AQ10" t="n">
-        <v>67</v>
-      </c>
       <c r="AR10" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX10" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AY10" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ10" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA10" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB10" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>l01zZrTq</t>
+          <t>dKFzEOsg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,536 +2366,172 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Carabobo</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>FC Porto</t>
+          <t>La Guaira</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.85</v>
+        <v>2.37</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="I11" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="X11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>800</v>
+      </c>
+      <c r="AN11" t="n">
         <v>4.1</v>
       </c>
-      <c r="J11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>11</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W11" t="n">
-        <v>8</v>
-      </c>
-      <c r="X11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE11" t="n">
+      <c r="AO11" t="n">
         <v>13</v>
       </c>
-      <c r="AF11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH11" t="n">
+      <c r="AP11" t="n">
         <v>21</v>
       </c>
-      <c r="AI11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ11" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AR11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC11" t="n">
         <v>51</v>
       </c>
-      <c r="AS11" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>126</v>
-      </c>
       <c r="BD11" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>YZJRPAlA</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>10/11/2024</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Defensor Sp.</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Fenix</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N12" t="n">
-        <v>9</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X12" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>dKFzEOsg</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>10/11/2024</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Carabobo</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>La Guaira</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W13" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="X13" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>800</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>120</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>150</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD13" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD11"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,7 +759,7 @@
         <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L2" t="n">
         <v>3.75</v>
@@ -771,10 +771,10 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q2" t="n">
         <v>2.7</v>
@@ -798,7 +798,7 @@
         <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
@@ -819,7 +819,7 @@
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
@@ -876,7 +876,7 @@
         <v>4.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
         <v>34</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="H4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I4" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K4" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1135,16 +1135,16 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1153,22 +1153,22 @@
         <v>2.75</v>
       </c>
       <c r="U4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA4" t="n">
         <v>13</v>
@@ -1180,37 +1180,37 @@
         <v>9.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
         <v>41</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM4" t="n">
         <v>201</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AO4" t="n">
         <v>6.5</v>
@@ -1219,7 +1219,7 @@
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
@@ -1231,22 +1231,22 @@
         <v>2.75</v>
       </c>
       <c r="AU4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV4" t="n">
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AX4" t="n">
         <v>41</v>
       </c>
       <c r="AY4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BA4" t="n">
         <v>251</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W2BWB3S1</t>
+          <t>Q3T7Xyhn</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,170 +1820,170 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Aguilas</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Chico</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="H8" t="n">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="R8" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="W8" t="n">
+        <v>6</v>
+      </c>
+      <c r="X8" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y8" t="n">
         <v>9</v>
       </c>
-      <c r="X8" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>10</v>
-      </c>
       <c r="Z8" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
       </c>
       <c r="AH8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI8" t="n">
         <v>15</v>
       </c>
-      <c r="AI8" t="n">
-        <v>11</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>800</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP8" t="n">
         <v>23</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>21</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC8" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
         <v>126</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ziWW4vHP</t>
+          <t>W2BWB3S1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nacional Asuncion</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L9" t="n">
         <v>3.5</v>
       </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3</v>
-      </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="R9" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="S9" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="V9" t="n">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="W9" t="n">
+        <v>9</v>
+      </c>
+      <c r="X9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC9" t="n">
         <v>8.5</v>
       </c>
-      <c r="X9" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z9" t="n">
+      <c r="AD9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF9" t="n">
         <v>41</v>
       </c>
-      <c r="AA9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>67</v>
-      </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AH9" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
         <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP9" t="n">
         <v>21</v>
       </c>
-      <c r="AP9" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA9" t="n">
         <v>67</v>
       </c>
-      <c r="AR9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>81</v>
-      </c>
       <c r="BB9" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="BD9" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>YZJRPAlA</t>
+          <t>6ZM2aIvm</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,41 +2184,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Defensor Sp.</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Fenix</t>
+          <t>Sol de America</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>4.33</v>
+        <v>3.3</v>
       </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -2233,43 +2233,43 @@
         <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="V10" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="W10" t="n">
         <v>6.5</v>
       </c>
       <c r="X10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="n">
         <v>8</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
@@ -2281,19 +2281,19 @@
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ10" t="n">
         <v>41</v>
       </c>
       <c r="AK10" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AL10" t="n">
         <v>41</v>
@@ -2302,25 +2302,25 @@
         <v>351</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="n">
         <v>23</v>
       </c>
       <c r="AQ10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU10" t="n">
         <v>8.5</v>
@@ -2329,22 +2329,22 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB10" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dKFzEOsg</t>
+          <t>YZJRPAlA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,172 +2366,354 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Carabobo</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>La Guaira</t>
+          <t>Fenix</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.37</v>
+        <v>1.85</v>
       </c>
       <c r="H11" t="n">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>3.65</v>
+        <v>4.33</v>
       </c>
       <c r="J11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P11" t="n">
         <v>3</v>
       </c>
-      <c r="K11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.35</v>
-      </c>
       <c r="Q11" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="R11" t="n">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="S11" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="W11" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="X11" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
         <v>11</v>
       </c>
-      <c r="Y11" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA11" t="n">
+      <c r="AH11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP11" t="n">
         <v>23</v>
       </c>
-      <c r="AB11" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>800</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ11" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AR11" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.22</v>
+        <v>2.63</v>
       </c>
       <c r="AU11" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="AX11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY11" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AZ11" t="n">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="BA11" t="n">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="BB11" t="n">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
       </c>
       <c r="BD11" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GfJHITtH</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Orange County SC</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="X12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>700</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD12" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M2" t="n">
         <v>1.13</v>
@@ -801,7 +801,7 @@
         <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
         <v>29</v>
@@ -828,10 +828,10 @@
         <v>6.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="n">
         <v>29</v>
@@ -846,16 +846,16 @@
         <v>501</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
         <v>34</v>
       </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR2" t="n">
         <v>101</v>
@@ -873,7 +873,7 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX2" t="n">
         <v>17</v>
@@ -882,7 +882,7 @@
         <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA2" t="n">
         <v>101</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -944,13 +944,13 @@
         <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>
@@ -1007,13 +1007,13 @@
         <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH3" t="n">
         <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ3" t="n">
         <v>101</v>
@@ -1031,7 +1031,7 @@
         <v>3.2</v>
       </c>
       <c r="AO3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
@@ -1293,73 +1293,73 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="n">
         <v>2.8</v>
       </c>
       <c r="I5" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.57</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.62</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
         <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA5" t="n">
         <v>34</v>
       </c>
       <c r="AB5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD5" t="n">
         <v>5.5</v>
@@ -1368,13 +1368,13 @@
         <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="n">
         <v>6</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
         <v>11</v>
@@ -1383,7 +1383,7 @@
         <v>23</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL5" t="n">
         <v>41</v>
@@ -1392,10 +1392,10 @@
         <v>201</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP5" t="n">
         <v>34</v>
@@ -1404,16 +1404,16 @@
         <v>67</v>
       </c>
       <c r="AR5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS5" t="n">
         <v>351</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV5" t="n">
         <v>81</v>
@@ -1431,7 +1431,7 @@
         <v>51</v>
       </c>
       <c r="BA5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB5" t="n">
         <v>301</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Wt8YIxwg</t>
+          <t>Q3T7Xyhn</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,37 +1466,37 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Aguilas</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dep. Cali</t>
+          <t>Chico</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1505,10 +1505,10 @@
         <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>
@@ -1517,25 +1517,25 @@
         <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
@@ -1544,49 +1544,49 @@
         <v>7.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>51</v>
       </c>
-      <c r="AG6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>29</v>
-      </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>800</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>41</v>
       </c>
-      <c r="AM6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>51</v>
-      </c>
       <c r="AR6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
         <v>201</v>
@@ -1595,28 +1595,28 @@
         <v>2.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="AX6" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA6" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>pn3EDs1D</t>
+          <t>W2BWB3S1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,170 +1638,170 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Alianza</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.8</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="S7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W7" t="n">
+        <v>9</v>
+      </c>
+      <c r="X7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD7" t="n">
         <v>5.5</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB7" t="n">
+      <c r="AE7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF7" t="n">
         <v>41</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>81</v>
       </c>
       <c r="AG7" t="n">
         <v>10</v>
       </c>
       <c r="AH7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK7" t="n">
         <v>23</v>
       </c>
-      <c r="AI7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>41</v>
-      </c>
       <c r="AL7" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
         <v>201</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA7" t="n">
         <v>67</v>
       </c>
-      <c r="AS7" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA7" t="n">
+      <c r="BB7" t="n">
         <v>151</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BC7" t="n">
         <v>501</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>126</v>
       </c>
       <c r="BD7" t="n">
         <v>126</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Q3T7Xyhn</t>
+          <t>6ZM2aIvm</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,41 +1820,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Aguilas</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Chico</t>
+          <t>Sol de America</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I8" t="n">
         <v>3.3</v>
       </c>
-      <c r="I8" t="n">
-        <v>4.33</v>
-      </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
@@ -1863,16 +1863,16 @@
         <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>
@@ -1881,67 +1881,67 @@
         <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="V8" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X8" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="n">
         <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL8" t="n">
         <v>41</v>
       </c>
-      <c r="AL8" t="n">
-        <v>51</v>
-      </c>
       <c r="AM8" t="n">
-        <v>800</v>
+        <v>351</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
         <v>23</v>
@@ -1959,40 +1959,40 @@
         <v>2.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA8" t="n">
         <v>101</v>
       </c>
-      <c r="BA8" t="n">
-        <v>126</v>
-      </c>
       <c r="BB8" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BC8" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W2BWB3S1</t>
+          <t>YZJRPAlA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,86 +2002,86 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Fenix</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="H9" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="K9" t="n">
         <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U9" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="W9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y9" t="n">
         <v>9</v>
       </c>
-      <c r="X9" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>10</v>
-      </c>
       <c r="Z9" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB9" t="n">
         <v>29</v>
@@ -2090,46 +2090,46 @@
         <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>41</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO9" t="n">
         <v>10</v>
       </c>
-      <c r="AH9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK9" t="n">
+      <c r="AP9" t="n">
         <v>23</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AQ9" t="n">
         <v>34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>41</v>
       </c>
       <c r="AR9" t="n">
         <v>51</v>
@@ -2138,43 +2138,43 @@
         <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC9" t="n">
         <v>51</v>
       </c>
-      <c r="AW9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ9" t="n">
+      <c r="BD9" t="n">
         <v>51</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6ZM2aIvm</t>
+          <t>GfJHITtH</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2189,531 +2189,167 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Colorado Springs</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sol de America</t>
+          <t>Orange County SC</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.88</v>
+        <v>2.27</v>
       </c>
       <c r="K10" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>4.85</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>7.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="R10" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="S10" t="n">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="T10" t="n">
-        <v>2.5</v>
+        <v>2.77</v>
       </c>
       <c r="U10" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V10" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="W10" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X10" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z10" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AB10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="AK10" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AL10" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AM10" t="n">
-        <v>351</v>
+        <v>700</v>
       </c>
       <c r="AN10" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>8.25</v>
       </c>
       <c r="AP10" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AR10" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AS10" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.5</v>
+        <v>2.77</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AY10" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AZ10" t="n">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="BA10" t="n">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="BB10" t="n">
-        <v>251</v>
+        <v>400</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>
       </c>
       <c r="BD10" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>YZJRPAlA</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>10/11/2024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Defensor Sp.</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Fenix</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N11" t="n">
-        <v>9</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X11" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>GfJHITtH</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>10/11/2024</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Colorado Springs</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Orange County SC</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N12" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="W12" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="X12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>700</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>150</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>175</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>400</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD12" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.13</v>
@@ -771,16 +771,16 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S2" t="n">
         <v>1.62</v>
@@ -798,13 +798,13 @@
         <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
         <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="n">
         <v>29</v>
@@ -819,13 +819,13 @@
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH2" t="n">
         <v>11</v>
@@ -834,10 +834,10 @@
         <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL2" t="n">
         <v>41</v>
@@ -873,7 +873,7 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX2" t="n">
         <v>17</v>
@@ -929,79 +929,79 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="I3" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L3" t="n">
         <v>8</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R3" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
         <v>81</v>
@@ -1028,16 +1028,16 @@
         <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO3" t="n">
         <v>7</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
@@ -1046,7 +1046,7 @@
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -1055,13 +1055,13 @@
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ3" t="n">
         <v>201</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Szl1SZol</t>
+          <t>zw9MZHgE</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,55 +1102,55 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.38</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="I4" t="n">
-        <v>8.5</v>
+        <v>2.4</v>
       </c>
       <c r="J4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K4" t="n">
         <v>1.91</v>
       </c>
-      <c r="K4" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L4" t="n">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>2.88</v>
       </c>
       <c r="R4" t="n">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="T4" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="U4" t="n">
         <v>2.25</v>
@@ -1159,100 +1159,100 @@
         <v>1.57</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.5</v>
+        <v>41</v>
       </c>
       <c r="AA4" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>81</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AH4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL4" t="n">
         <v>41</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>67</v>
       </c>
       <c r="AM4" t="n">
         <v>201</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="AO4" t="n">
-        <v>6.5</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AQ4" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="AR4" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AS4" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="AU4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>9</v>
+        <v>4.33</v>
       </c>
       <c r="AX4" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="BA4" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="BB4" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>zw9MZHgE</t>
+          <t>Q3T7Xyhn</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Aguilas</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Chico</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.5</v>
+        <v>1.91</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="n">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="K5" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="S5" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
+        <v>6</v>
+      </c>
+      <c r="X5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="n">
         <v>7.5</v>
       </c>
-      <c r="X5" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AD5" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
         <v>41</v>
       </c>
       <c r="AM5" t="n">
+        <v>800</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS5" t="n">
         <v>201</v>
       </c>
-      <c r="AN5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP5" t="n">
+      <c r="AT5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY5" t="n">
         <v>34</v>
       </c>
-      <c r="AQ5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR5" t="n">
+      <c r="AZ5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA5" t="n">
         <v>126</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>101</v>
       </c>
       <c r="BB5" t="n">
         <v>301</v>
       </c>
       <c r="BC5" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Q3T7Xyhn</t>
+          <t>W2BWB3S1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,170 +1456,170 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Aguilas</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Chico</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="I6" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2.05</v>
       </c>
-      <c r="L6" t="n">
-        <v>5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="R6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S6" t="n">
         <v>1.4</v>
       </c>
-      <c r="P6" t="n">
+      <c r="T6" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X6" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AA6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG6" t="n">
         <v>10</v>
       </c>
       <c r="AH6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP6" t="n">
         <v>21</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>800</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>23</v>
       </c>
       <c r="AQ6" t="n">
         <v>41</v>
       </c>
       <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA6" t="n">
         <v>67</v>
       </c>
-      <c r="AS6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>126</v>
-      </c>
       <c r="BB6" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD6" t="n">
         <v>126</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W2BWB3S1</t>
+          <t>6ZM2aIvm</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Sol de America</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="R7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.8</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.05</v>
-      </c>
       <c r="W7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
         <v>9</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AH7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI7" t="n">
         <v>13</v>
       </c>
-      <c r="Y7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB7" t="n">
+      <c r="AJ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK7" t="n">
         <v>29</v>
       </c>
-      <c r="AC7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE7" t="n">
+      <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="n">
         <v>12</v>
       </c>
-      <c r="AF7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK7" t="n">
+      <c r="AP7" t="n">
         <v>23</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>21</v>
       </c>
       <c r="AQ7" t="n">
         <v>41</v>
       </c>
       <c r="AR7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC7" t="n">
         <v>51</v>
       </c>
-      <c r="AS7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV7" t="n">
+      <c r="BD7" t="n">
         <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6ZM2aIvm</t>
+          <t>GfJHITtH</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1825,531 +1825,167 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Colorado Springs</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sol de America</t>
+          <t>Orange County SC</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>2.27</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>4.85</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>7.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="T8" t="n">
-        <v>2.5</v>
+        <v>2.77</v>
       </c>
       <c r="U8" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="W8" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X8" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z8" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AA8" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="AK8" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AL8" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AM8" t="n">
-        <v>351</v>
+        <v>700</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>8.25</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AQ8" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AR8" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AS8" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.5</v>
+        <v>2.77</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="AX8" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AZ8" t="n">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="BA8" t="n">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="BB8" t="n">
-        <v>251</v>
+        <v>400</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>YZJRPAlA</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>10/11/2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Defensor Sp.</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Fenix</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N9" t="n">
-        <v>9</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>GfJHITtH</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>10/11/2024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Colorado Springs</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Orange County SC</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="W10" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="X10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>700</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>28</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>150</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>175</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>400</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD10" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H3" t="n">
         <v>4.33</v>
       </c>
       <c r="I3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
         <v>1.95</v>
@@ -947,10 +947,10 @@
         <v>8</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
@@ -971,16 +971,16 @@
         <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
@@ -995,13 +995,13 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD3" t="n">
         <v>8.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
         <v>81</v>
@@ -1028,7 +1028,7 @@
         <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AO3" t="n">
         <v>7</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>zw9MZHgE</t>
+          <t>OIegdTaq</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,143 +1092,143 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Sarmiento Junin</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="H4" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="J4" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.57</v>
       </c>
-      <c r="P4" t="n">
+      <c r="T4" t="n">
         <v>2.25</v>
       </c>
-      <c r="Q4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.62</v>
       </c>
-      <c r="T4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W4" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="X4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y4" t="n">
         <v>15</v>
       </c>
-      <c r="Y4" t="n">
-        <v>13</v>
-      </c>
       <c r="Z4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA4" t="n">
         <v>41</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>34</v>
       </c>
       <c r="AB4" t="n">
         <v>51</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>81</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>41</v>
       </c>
       <c r="AM4" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="AN4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AP4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ4" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AR4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS4" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU4" t="n">
         <v>9.5</v>
@@ -1237,28 +1237,28 @@
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC4" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
@@ -1314,7 +1314,7 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1323,10 +1323,10 @@
         <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R5" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1389,7 +1389,7 @@
         <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AN5" t="n">
         <v>3.75</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>KliY09iS</t>
+          <t>OIegdTaq</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,55 +738,55 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>Sarmiento Junin</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Talleres Cordoba</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q2" t="n">
         <v>2.6</v>
       </c>
-      <c r="J2" t="n">
-        <v>4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N2" t="n">
-        <v>6</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="R2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.57</v>
       </c>
-      <c r="P2" t="n">
+      <c r="T2" t="n">
         <v>2.25</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.2</v>
       </c>
       <c r="U2" t="n">
         <v>2.2</v>
@@ -795,28 +795,28 @@
         <v>1.62</v>
       </c>
       <c r="W2" t="n">
+        <v>9</v>
+      </c>
+      <c r="X2" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC2" t="n">
         <v>6.5</v>
       </c>
-      <c r="X2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>6</v>
-      </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
         <v>21</v>
@@ -825,46 +825,46 @@
         <v>81</v>
       </c>
       <c r="AG2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN2" t="n">
         <v>6</v>
       </c>
-      <c r="AH2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ2" t="n">
+      <c r="AO2" t="n">
         <v>26</v>
       </c>
-      <c r="AK2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL2" t="n">
+      <c r="AP2" t="n">
         <v>41</v>
       </c>
-      <c r="AM2" t="n">
-        <v>501</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ2" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AR2" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AS2" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU2" t="n">
         <v>9.5</v>
@@ -873,22 +873,22 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AZ2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pC8RsUpj</t>
+          <t>Q3T7Xyhn</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Aguilas</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ind. Rivadavia</t>
+          <t>Chico</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.4</v>
+        <v>1.83</v>
       </c>
       <c r="H3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I3" t="n">
         <v>4.33</v>
       </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
       <c r="J3" t="n">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP3" t="n">
         <v>23</v>
       </c>
-      <c r="AF3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AK3" t="n">
+      <c r="AQ3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR3" t="n">
         <v>67</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>51</v>
       </c>
       <c r="AS3" t="n">
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>81</v>
       </c>
-      <c r="AW3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>201</v>
-      </c>
       <c r="BA3" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OIegdTaq</t>
+          <t>W2BWB3S1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,170 +1092,170 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sarmiento Junin</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="I4" t="n">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T4" t="n">
         <v>2.75</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
         <v>9</v>
       </c>
       <c r="X4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA4" t="n">
         <v>21</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AB4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI4" t="n">
         <v>15</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AJ4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
         <v>51</v>
       </c>
-      <c r="AA4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB4" t="n">
+      <c r="AS4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV4" t="n">
         <v>51</v>
       </c>
-      <c r="AC4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>501</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>401</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>81</v>
-      </c>
       <c r="AW4" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AX4" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA4" t="n">
         <v>67</v>
       </c>
       <c r="BB4" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD4" t="n">
         <v>126</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Q3T7Xyhn</t>
+          <t>b93IZ6K8</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>22:05</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Aguilas</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Chico</t>
+          <t>Club Leon</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.91</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4.1</v>
+        <v>6.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L5" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
+        <v>15</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2</v>
+      </c>
+      <c r="W5" t="n">
         <v>8</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W5" t="n">
-        <v>6</v>
-      </c>
       <c r="X5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD5" t="n">
         <v>8</v>
       </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="AE5" t="n">
         <v>15</v>
       </c>
-      <c r="AA5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>19</v>
-      </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.5</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
         <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AL5" t="n">
         <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>900</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR5" t="n">
         <v>41</v>
       </c>
-      <c r="AR5" t="n">
-        <v>67</v>
-      </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AY5" t="n">
         <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB5" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W2BWB3S1</t>
+          <t>6ZM2aIvm</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Sol de America</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="H6" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J6" t="n">
         <v>3</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH6" t="n">
         <v>8.5</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W6" t="n">
-        <v>9</v>
-      </c>
-      <c r="X6" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB6" t="n">
+      <c r="AI6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL6" t="n">
         <v>29</v>
       </c>
-      <c r="AC6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF6" t="n">
+      <c r="AM6" t="n">
         <v>41</v>
       </c>
-      <c r="AG6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>201</v>
-      </c>
       <c r="AN6" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
         <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
         <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
         <v>5</v>
       </c>
       <c r="AX6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC6" t="n">
         <v>51</v>
       </c>
-      <c r="BA6" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>501</v>
-      </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6ZM2aIvm</t>
+          <t>GfJHITtH</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1643,349 +1643,167 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Colorado Springs</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sol de America</t>
+          <t>Orange County SC</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="I7" t="n">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>2.18</v>
       </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.4</v>
       </c>
-      <c r="P7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.5</v>
-      </c>
       <c r="T7" t="n">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W7" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="X7" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>19</v>
+        <v>11.75</v>
       </c>
       <c r="AA7" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="AE7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>17</v>
       </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>41</v>
-      </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="AL7" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>351</v>
+        <v>60</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>12</v>
+        <v>7.8</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AR7" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AS7" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AV7" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.5</v>
+        <v>6.8</v>
       </c>
       <c r="AX7" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AZ7" t="n">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="BA7" t="n">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="BB7" t="n">
-        <v>251</v>
+        <v>500</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>GfJHITtH</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>10/11/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Colorado Springs</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Orange County SC</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="W8" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="X8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>700</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>150</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>175</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>400</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD8" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -932,10 +932,10 @@
         <v>1.83</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
         <v>2.5</v>
@@ -947,10 +947,10 @@
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1040,7 +1040,7 @@
         <v>34</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
         <v>201</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W2BWB3S1</t>
+          <t>G6BcHP1l</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,170 +1092,170 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Pereira</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>1.57</v>
       </c>
       <c r="H4" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>6.25</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="R4" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y4" t="n">
         <v>9</v>
       </c>
-      <c r="X4" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>10</v>
-      </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE4" t="n">
         <v>21</v>
       </c>
-      <c r="AB4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>12</v>
-      </c>
       <c r="AF4" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AI4" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>29</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
       </c>
       <c r="AS4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>151</v>
       </c>
-      <c r="AT4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>51</v>
-      </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="BB4" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BC4" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
         <v>126</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
         <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
@@ -1499,16 +1499,16 @@
         <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>
@@ -1523,10 +1523,10 @@
         <v>1.8</v>
       </c>
       <c r="W6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y6" t="n">
         <v>9.5</v>
@@ -1535,7 +1535,7 @@
         <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
@@ -1574,7 +1574,7 @@
         <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO6" t="n">
         <v>13</v>
@@ -1660,34 +1660,34 @@
         <v>1.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I7" t="n">
         <v>5.1</v>
       </c>
       <c r="J7" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="K7" t="n">
         <v>2.18</v>
       </c>
       <c r="L7" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R7" t="n">
         <v>1.78</v>
@@ -1699,13 +1699,13 @@
         <v>2.72</v>
       </c>
       <c r="U7" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V7" t="n">
         <v>1.75</v>
       </c>
       <c r="W7" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X7" t="n">
         <v>7</v>
@@ -1714,7 +1714,7 @@
         <v>8.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AA7" t="n">
         <v>13.5</v>
@@ -1723,10 +1723,10 @@
         <v>30</v>
       </c>
       <c r="AC7" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AE7" t="n">
         <v>18</v>
@@ -1744,28 +1744,28 @@
         <v>30</v>
       </c>
       <c r="AJ7" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK7" t="n">
         <v>100</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AO7" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AP7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR7" t="n">
         <v>60</v>
@@ -1777,7 +1777,7 @@
         <v>2.72</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
         <v>80</v>
@@ -1786,10 +1786,10 @@
         <v>6.8</v>
       </c>
       <c r="AX7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AY7" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AZ7" t="n">
         <v>200</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Q3T7Xyhn</t>
+          <t>G6BcHP1l</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,31 +920,31 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Aguilas</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Chico</t>
+          <t>Pereira</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>6.25</v>
       </c>
       <c r="J3" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -971,73 +971,73 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
       </c>
       <c r="Z3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA3" t="n">
         <v>15</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>17</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK3" t="n">
         <v>67</v>
       </c>
-      <c r="AG3" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK3" t="n">
+      <c r="AL3" t="n">
         <v>51</v>
       </c>
-      <c r="AL3" t="n">
-        <v>41</v>
-      </c>
       <c r="AM3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
@@ -1049,28 +1049,28 @@
         <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>G6BcHP1l</t>
+          <t>b93IZ6K8</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>22:05</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>Club Leon</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
+        <v>15</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8</v>
+      </c>
+      <c r="X4" t="n">
         <v>7.5</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>6.5</v>
-      </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z4" t="n">
         <v>11</v>
       </c>
       <c r="AA4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE4" t="n">
         <v>15</v>
       </c>
-      <c r="AB4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>21</v>
-      </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG4" t="n">
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>67</v>
       </c>
       <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV4" t="n">
         <v>51</v>
       </c>
-      <c r="AM4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ4" t="n">
+      <c r="AW4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX4" t="n">
         <v>29</v>
       </c>
-      <c r="AR4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS4" t="n">
+      <c r="AY4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB4" t="n">
         <v>201</v>
       </c>
-      <c r="AT4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ4" t="n">
+      <c r="BC4" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD4" t="n">
         <v>151</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>b93IZ6K8</t>
+          <t>6ZM2aIvm</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,536 +1274,172 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>22:05</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Club Leon</t>
+          <t>Sol de America</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.5</v>
       </c>
-      <c r="H5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="T5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7</v>
+      </c>
+      <c r="X5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD5" t="n">
         <v>6.5</v>
       </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>6</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N5" t="n">
-        <v>15</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>8</v>
-      </c>
-      <c r="X5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>8</v>
-      </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="AI5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK5" t="n">
         <v>34</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>67</v>
-      </c>
       <c r="AL5" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="AO5" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="AX5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY5" t="n">
         <v>29</v>
       </c>
-      <c r="AY5" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ5" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BA5" t="n">
         <v>101</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC5" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="BD5" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>6ZM2aIvm</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>10/11/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Guarani</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Sol de America</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>9</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7</v>
-      </c>
-      <c r="X6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>GfJHITtH</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>10/11/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Colorado Springs</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Orange County SC</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="X7" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>37</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>200</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>250</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD7" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
         <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L2" t="n">
         <v>2.75</v>
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
         <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="n">
         <v>41</v>
@@ -816,7 +816,7 @@
         <v>6.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>21</v>
@@ -840,7 +840,7 @@
         <v>17</v>
       </c>
       <c r="AL2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
@@ -876,16 +876,16 @@
         <v>3.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
         <v>41</v>
       </c>
       <c r="BA2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="n">
         <v>251</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6ZM2aIvm</t>
+          <t>tA6HgoO8</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,167 +1274,167 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sol de America</t>
+          <t>Tepatitlan de Morelos</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>4.25</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>2.35</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>4.55</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O5" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.4</v>
       </c>
-      <c r="P5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.5</v>
-      </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="U5" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AG5" t="n">
-        <v>351</v>
+        <v>800</v>
       </c>
       <c r="AH5" t="n">
-        <v>8.5</v>
+        <v>10.75</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AM5" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>8.75</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AR5" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AW5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX5" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AY5" t="n">
         <v>29</v>
       </c>
       <c r="AZ5" t="n">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="BA5" t="n">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="BB5" t="n">
-        <v>251</v>
+        <v>400</v>
       </c>
       <c r="BC5" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -765,10 +765,10 @@
         <v>2.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I4" t="n">
         <v>6.5</v>
@@ -1153,10 +1153,10 @@
         <v>3.4</v>
       </c>
       <c r="U4" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W4" t="n">
         <v>8</v>
@@ -1183,7 +1183,7 @@
         <v>8</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
         <v>51</v>
@@ -1231,7 +1231,7 @@
         <v>3.4</v>
       </c>
       <c r="AU4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
@@ -1249,7 +1249,7 @@
         <v>101</v>
       </c>
       <c r="BA4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB4" t="n">
         <v>201</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J3" t="n">
         <v>2.25</v>
@@ -950,7 +950,7 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1049,13 +1049,13 @@
         <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX3" t="n">
         <v>34</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I5" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="K5" t="n">
         <v>2.12</v>
       </c>
       <c r="L5" t="n">
-        <v>4.55</v>
+        <v>4.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
@@ -1320,22 +1320,22 @@
         <v>1.34</v>
       </c>
       <c r="P5" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
         <v>1.65</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T5" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="U5" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="V5" t="n">
         <v>1.75</v>
@@ -1347,16 +1347,16 @@
         <v>8</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA5" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AB5" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC5" t="n">
         <v>8.5</v>
@@ -1374,19 +1374,19 @@
         <v>800</v>
       </c>
       <c r="AH5" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ5" t="n">
         <v>14</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL5" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM5" t="n">
         <v>50</v>
@@ -1395,43 +1395,43 @@
         <v>3.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ5" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AR5" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS5" t="n">
         <v>250</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AV5" t="n">
         <v>65</v>
       </c>
       <c r="AW5" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AX5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY5" t="n">
         <v>29</v>
       </c>
       <c r="AZ5" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA5" t="n">
         <v>150</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>175</v>
       </c>
       <c r="BB5" t="n">
         <v>400</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OIegdTaq</t>
+          <t>G6BcHP1l</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,167 +728,167 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sarmiento Junin</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Pereira</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="K2" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
+        <v>7</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N2" t="n">
+        <v>9</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P2" t="n">
         <v>2.75</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.5</v>
       </c>
-      <c r="P2" t="n">
+      <c r="T2" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y2" t="n">
         <v>9</v>
       </c>
-      <c r="X2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA2" t="n">
         <v>15</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AB2" t="n">
         <v>41</v>
       </c>
-      <c r="AA2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>51</v>
-      </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="AI2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO2" t="n">
         <v>8</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO2" t="n">
+      <c r="AP2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>26</v>
       </c>
-      <c r="AP2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>101</v>
-      </c>
       <c r="AR2" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>401</v>
+        <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AY2" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BB2" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>G6BcHP1l</t>
+          <t>b93IZ6K8</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,110 +910,110 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>22:05</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>Club Leon</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="I3" t="n">
         <v>6.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
+        <v>13</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W3" t="n">
+        <v>8</v>
+      </c>
+      <c r="X3" t="n">
         <v>7.5</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>6.5</v>
-      </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z3" t="n">
         <v>11</v>
       </c>
       <c r="AA3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE3" t="n">
         <v>15</v>
       </c>
-      <c r="AB3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>21</v>
-      </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="n">
         <v>21</v>
@@ -1022,67 +1022,67 @@
         <v>67</v>
       </c>
       <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV3" t="n">
         <v>51</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>81</v>
       </c>
       <c r="AW3" t="n">
         <v>7.5</v>
       </c>
       <c r="AX3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY3" t="n">
         <v>34</v>
       </c>
-      <c r="AY3" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ3" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD3" t="n">
         <v>151</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>b93IZ6K8</t>
+          <t>tA6HgoO8</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,354 +1092,172 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>22:05</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Club Leon</t>
+          <t>Tepatitlan de Morelos</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.48</v>
+        <v>1.83</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="I4" t="n">
-        <v>6.5</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q4" t="n">
         <v>2</v>
       </c>
-      <c r="K4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.67</v>
-      </c>
       <c r="R4" t="n">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="S4" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="T4" t="n">
-        <v>3.4</v>
+        <v>2.57</v>
       </c>
       <c r="U4" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="V4" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="W4" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="X4" t="n">
         <v>8</v>
-      </c>
-      <c r="X4" t="n">
-        <v>7.5</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AB4" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AC4" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AG4" t="n">
-        <v>201</v>
+        <v>800</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AK4" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AL4" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM4" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AN4" t="n">
         <v>3.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AP4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ4" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AR4" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AS4" t="n">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.4</v>
+        <v>2.52</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="AV4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC4" t="n">
         <v>51</v>
       </c>
-      <c r="AW4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>501</v>
-      </c>
       <c r="BD4" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>tA6HgoO8</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>10/11/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Tapatio</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Tepatitlan de Morelos</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W5" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="X5" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>120</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>150</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>400</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD5" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>b93IZ6K8</t>
+          <t>tA6HgoO8</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,354 +910,172 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>22:05</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Club Leon</t>
+          <t>Tepatitlan de Morelos</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.48</v>
+        <v>1.87</v>
       </c>
       <c r="H3" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>2.42</v>
       </c>
       <c r="K3" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>4.35</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>7.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="P3" t="n">
-        <v>4.33</v>
+        <v>2.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.67</v>
+        <v>2.02</v>
       </c>
       <c r="R3" t="n">
-        <v>2.15</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="T3" t="n">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="V3" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>6.2</v>
       </c>
       <c r="X3" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AF3" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC3" t="n">
         <v>51</v>
       </c>
-      <c r="AG3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>501</v>
-      </c>
       <c r="BD3" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>tA6HgoO8</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>10/11/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Tapatio</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Tepatitlan de Morelos</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="X4" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>120</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>150</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>400</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD4" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>G6BcHP1l</t>
+          <t>tA6HgoO8</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,354 +728,172 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>Tepatitlan de Morelos</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.5</v>
+        <v>1.87</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.1</v>
+        <v>2.42</v>
       </c>
       <c r="K2" t="n">
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>4.35</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.25</v>
+        <v>2.02</v>
       </c>
       <c r="R2" t="n">
         <v>1.62</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="T2" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>1.87</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="X2" t="n">
-        <v>6</v>
+        <v>8.25</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AG2" t="n">
-        <v>201</v>
+        <v>800</v>
       </c>
       <c r="AH2" t="n">
-        <v>13</v>
+        <v>10.25</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="AL2" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AM2" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="AO2" t="n">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="AS2" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="AT2" t="n">
         <v>2.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="AV2" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="AW2" t="n">
-        <v>8</v>
+        <v>5.7</v>
       </c>
       <c r="AX2" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="AY2" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AZ2" t="n">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="BA2" t="n">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="BB2" t="n">
-        <v>501</v>
+        <v>350</v>
       </c>
       <c r="BC2" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>tA6HgoO8</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>10/11/2024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Tapatio</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Tepatitlan de Morelos</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N3" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W3" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="X3" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>28</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>120</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>150</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD3" t="n">
         <v>51</v>
       </c>
     </row>
